--- a/DATA/UKSAF/Hard_carbon_Thermo_Kfitting.xlsx
+++ b/DATA/UKSAF/Hard_carbon_Thermo_Kfitting.xlsx
@@ -233,7 +233,7 @@
       <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="7219950" cy="5086350"/>
+    <ext cx="5743575" cy="4086225"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -247,6 +247,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -263,7 +266,7 @@
       <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="7219950" cy="5086350"/>
+    <ext cx="5629275" cy="4086225"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -277,9 +280,6 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -26131,7 +26131,7 @@
       </c>
       <c r="AA10" s="8" t="inlineStr">
         <is>
-          <t>2326</t>
+          <t>2327</t>
         </is>
       </c>
       <c r="AB10" s="8" t="inlineStr">
@@ -27716,13 +27716,13 @@
         <v>293.68</v>
       </c>
       <c r="G46" t="n">
-        <v>-207.3398116943299</v>
+        <v>-207.3398116943317</v>
       </c>
       <c r="H46" t="n">
-        <v>7589.579999999998</v>
+        <v>7589.58</v>
       </c>
       <c r="I46" t="n">
-        <v>7829.04981169433</v>
+        <v>7829.049811694332</v>
       </c>
       <c r="J46" t="n">
         <v>7567.213096002669</v>
@@ -27754,31 +27754,31 @@
         <v>293.58</v>
       </c>
       <c r="G47" t="n">
-        <v>-302.9866041446276</v>
+        <v>-302.9860277510352</v>
       </c>
       <c r="H47" t="n">
-        <v>7574.060576393593</v>
+        <v>7574.06</v>
       </c>
       <c r="I47" t="n">
-        <v>7848.606604144627</v>
+        <v>7848.606027751035</v>
       </c>
       <c r="J47" t="n">
-        <v>7686.757987251516</v>
+        <v>7686.757987251518</v>
       </c>
       <c r="K47" t="n">
-        <v>7731.857289656423</v>
+        <v>7731.857289656425</v>
       </c>
       <c r="L47" t="n">
-        <v>7589.579999999998</v>
+        <v>7589.58</v>
       </c>
       <c r="M47" t="n">
-        <v>7589.579999999998</v>
+        <v>7589.58</v>
       </c>
       <c r="N47" t="n">
-        <v>7589.579999999998</v>
+        <v>7589.58</v>
       </c>
       <c r="O47" t="n">
-        <v>7589.580000007264</v>
+        <v>7589.580000007266</v>
       </c>
     </row>
     <row r="48">
@@ -27792,31 +27792,31 @@
         <v>293.48</v>
       </c>
       <c r="G48" t="n">
-        <v>-288.532920547229</v>
+        <v>-288.5285277363091</v>
       </c>
       <c r="H48" t="n">
-        <v>7574.05439281092</v>
+        <v>7574.05</v>
       </c>
       <c r="I48" t="n">
-        <v>7889.942920547229</v>
+        <v>7889.938527736309</v>
       </c>
       <c r="J48" t="n">
-        <v>7673.69994531295</v>
+        <v>7673.699368919358</v>
       </c>
       <c r="K48" t="n">
-        <v>7748.949368895143</v>
+        <v>7748.948792501551</v>
       </c>
       <c r="L48" t="n">
-        <v>7574.060576393593</v>
+        <v>7574.06</v>
       </c>
       <c r="M48" t="n">
-        <v>7574.060576393593</v>
+        <v>7574.06</v>
       </c>
       <c r="N48" t="n">
-        <v>7574.060576393593</v>
+        <v>7574.06</v>
       </c>
       <c r="O48" t="n">
-        <v>7574.060576415075</v>
+        <v>7574.060000021483</v>
       </c>
     </row>
     <row r="49">
@@ -27830,31 +27830,31 @@
         <v>293.38</v>
       </c>
       <c r="G49" t="n">
-        <v>-291.2597282206971</v>
+        <v>-291.2640423114999</v>
       </c>
       <c r="H49" t="n">
-        <v>7574.055685909198</v>
+        <v>7574.06</v>
       </c>
       <c r="I49" t="n">
-        <v>7938.389728220697</v>
+        <v>7938.3940423115</v>
       </c>
       <c r="J49" t="n">
-        <v>7676.245787866134</v>
+        <v>7676.241395055215</v>
       </c>
       <c r="K49" t="n">
-        <v>7787.729696764551</v>
+        <v>7787.725303953631</v>
       </c>
       <c r="L49" t="n">
-        <v>7574.05439281092</v>
+        <v>7574.05</v>
       </c>
       <c r="M49" t="n">
-        <v>7574.05439281092</v>
+        <v>7574.05</v>
       </c>
       <c r="N49" t="n">
-        <v>7574.05439281092</v>
+        <v>7574.05</v>
       </c>
       <c r="O49" t="n">
-        <v>7574.054392873</v>
+        <v>7574.05000006208</v>
       </c>
     </row>
     <row r="50">
@@ -27868,31 +27868,31 @@
         <v>293.28</v>
       </c>
       <c r="G50" t="n">
-        <v>-269.143190740926</v>
+        <v>-269.1471750412975</v>
       </c>
       <c r="H50" t="n">
-        <v>7573.886015699629</v>
+        <v>7573.89</v>
       </c>
       <c r="I50" t="n">
-        <v>7994.633190740926</v>
+        <v>7994.637175041297</v>
       </c>
       <c r="J50" t="n">
-        <v>7678.89415440042</v>
+        <v>7678.898468491223</v>
       </c>
       <c r="K50" t="n">
-        <v>7833.524752684426</v>
+        <v>7833.529066775229</v>
       </c>
       <c r="L50" t="n">
-        <v>7574.055685909198</v>
+        <v>7574.06</v>
       </c>
       <c r="M50" t="n">
-        <v>7574.055685909198</v>
+        <v>7574.06</v>
       </c>
       <c r="N50" t="n">
-        <v>7574.055685909198</v>
+        <v>7574.06</v>
       </c>
       <c r="O50" t="n">
-        <v>7574.055686084555</v>
+        <v>7574.060000175357</v>
       </c>
     </row>
     <row r="51">
@@ -27906,31 +27906,31 @@
         <v>293.18</v>
       </c>
       <c r="G51" t="n">
-        <v>-143.9436677792719</v>
+        <v>-143.9472351121449</v>
       </c>
       <c r="H51" t="n">
-        <v>7573.506432667127</v>
+        <v>7573.51</v>
       </c>
       <c r="I51" t="n">
-        <v>8059.503667779272</v>
+        <v>8059.507235112145</v>
       </c>
       <c r="J51" t="n">
-        <v>7681.471274456465</v>
+        <v>7681.475258756836</v>
       </c>
       <c r="K51" t="n">
-        <v>7887.015942738091</v>
+        <v>7887.019927038463</v>
       </c>
       <c r="L51" t="n">
-        <v>7573.886015699629</v>
+        <v>7573.89</v>
       </c>
       <c r="M51" t="n">
-        <v>7573.886015699629</v>
+        <v>7573.89</v>
       </c>
       <c r="N51" t="n">
-        <v>7573.886015699629</v>
+        <v>7573.89</v>
       </c>
       <c r="O51" t="n">
-        <v>7573.886016183797</v>
+        <v>7573.890000484169</v>
       </c>
     </row>
     <row r="52">
@@ -27944,31 +27944,31 @@
         <v>293.08</v>
       </c>
       <c r="G52" t="n">
-        <v>-165.6423228747835</v>
+        <v>-165.6381576381345</v>
       </c>
       <c r="H52" t="n">
-        <v>7572.674165236649</v>
+        <v>7572.67</v>
       </c>
       <c r="I52" t="n">
-        <v>8133.602322874784</v>
+        <v>8133.598157638135</v>
       </c>
       <c r="J52" t="n">
-        <v>7683.943154172001</v>
+        <v>7683.946721504873</v>
       </c>
       <c r="K52" t="n">
-        <v>7949.028582334168</v>
+        <v>7949.032149667041</v>
       </c>
       <c r="L52" t="n">
-        <v>7573.506432667127</v>
+        <v>7573.51</v>
       </c>
       <c r="M52" t="n">
-        <v>7573.506432667127</v>
+        <v>7573.51</v>
       </c>
       <c r="N52" t="n">
-        <v>7573.506432667127</v>
+        <v>7573.51</v>
       </c>
       <c r="O52" t="n">
-        <v>7573.506433973856</v>
+        <v>7573.510001306729</v>
       </c>
     </row>
     <row r="53">
@@ -27982,31 +27982,31 @@
         <v>292.98</v>
       </c>
       <c r="G53" t="n">
-        <v>-148.093095507149</v>
+        <v>-148.0910062030598</v>
       </c>
       <c r="H53" t="n">
-        <v>7571.432089304089</v>
+        <v>7571.43</v>
       </c>
       <c r="I53" t="n">
-        <v>8217.753095507149</v>
+        <v>8217.75100620306</v>
       </c>
       <c r="J53" t="n">
-        <v>7686.072284832735</v>
+        <v>7686.068119596086</v>
       </c>
       <c r="K53" t="n">
-        <v>8020.158485678114</v>
+        <v>8020.154320441465</v>
       </c>
       <c r="L53" t="n">
-        <v>7572.674165236649</v>
+        <v>7572.67</v>
       </c>
       <c r="M53" t="n">
-        <v>7572.674165236649</v>
+        <v>7572.67</v>
       </c>
       <c r="N53" t="n">
-        <v>7572.674165236649</v>
+        <v>7572.67</v>
       </c>
       <c r="O53" t="n">
-        <v>7572.674168684108</v>
+        <v>7572.670003447459</v>
       </c>
     </row>
     <row r="54">
@@ -28020,31 +28020,31 @@
         <v>292.88</v>
       </c>
       <c r="G54" t="n">
-        <v>-189.0258355969818</v>
+        <v>-189.0288754590529</v>
       </c>
       <c r="H54" t="n">
-        <v>7569.926960137929</v>
+        <v>7569.93</v>
       </c>
       <c r="I54" t="n">
-        <v>8312.775835596982</v>
+        <v>8312.778875459053</v>
       </c>
       <c r="J54" t="n">
-        <v>7687.907135309199</v>
+        <v>7687.90504600511</v>
       </c>
       <c r="K54" t="n">
-        <v>8101.223918077877</v>
+        <v>8101.221828773788</v>
       </c>
       <c r="L54" t="n">
-        <v>7571.432089304089</v>
+        <v>7571.43</v>
       </c>
       <c r="M54" t="n">
-        <v>7571.432089304089</v>
+        <v>7571.43</v>
       </c>
       <c r="N54" t="n">
-        <v>7571.432089304091</v>
+        <v>7571.430000000002</v>
       </c>
       <c r="O54" t="n">
-        <v>7571.432098195039</v>
+        <v>7571.430008890949</v>
       </c>
     </row>
     <row r="55">
@@ -28058,31 +28058,31 @@
         <v>292.78</v>
       </c>
       <c r="G55" t="n">
-        <v>-39.338127132105</v>
+        <v>-39.33447857899955</v>
       </c>
       <c r="H55" t="n">
-        <v>7568.153648553105</v>
+        <v>7568.15</v>
       </c>
       <c r="I55" t="n">
-        <v>8419.178127132105</v>
+        <v>8419.174478579</v>
       </c>
       <c r="J55" t="n">
-        <v>7689.600408866733</v>
+        <v>7689.603448728804</v>
       </c>
       <c r="K55" t="n">
-        <v>8193.03870853174</v>
+        <v>8193.041748393811</v>
       </c>
       <c r="L55" t="n">
-        <v>7569.926960137929</v>
+        <v>7569.93</v>
       </c>
       <c r="M55" t="n">
-        <v>7569.926960137929</v>
+        <v>7569.93</v>
       </c>
       <c r="N55" t="n">
-        <v>7569.926960137935</v>
+        <v>7569.930000000006</v>
       </c>
       <c r="O55" t="n">
-        <v>7569.926982553147</v>
+        <v>7569.930022415218</v>
       </c>
     </row>
     <row r="56">
@@ -28096,31 +28096,31 @@
         <v>292.68</v>
       </c>
       <c r="G56" t="n">
-        <v>56.91778780960885</v>
+        <v>56.91866527724233</v>
       </c>
       <c r="H56" t="n">
-        <v>7565.850877467634</v>
+        <v>7565.85</v>
       </c>
       <c r="I56" t="n">
-        <v>8536.992212190391</v>
+        <v>8536.991334722758</v>
       </c>
       <c r="J56" t="n">
-        <v>7691.153306451424</v>
+        <v>7691.149657898319</v>
       </c>
       <c r="K56" t="n">
-        <v>8296.10404794569</v>
+        <v>8296.100399392584</v>
       </c>
       <c r="L56" t="n">
-        <v>7568.153648553105</v>
+        <v>7568.15</v>
       </c>
       <c r="M56" t="n">
-        <v>7568.153648553105</v>
+        <v>7568.15</v>
       </c>
       <c r="N56" t="n">
-        <v>7568.153648553122</v>
+        <v>7568.150000000017</v>
       </c>
       <c r="O56" t="n">
-        <v>7568.153703798253</v>
+        <v>7568.150055245148</v>
       </c>
     </row>
     <row r="57">
@@ -28134,31 +28134,31 @@
         <v>292.58</v>
       </c>
       <c r="G57" t="n">
-        <v>-17.07077777955783</v>
+        <v>-17.07027493210444</v>
       </c>
       <c r="H57" t="n">
-        <v>7562.750502847453</v>
+        <v>7562.75</v>
       </c>
       <c r="I57" t="n">
-        <v>8665.960777779557</v>
+        <v>8665.960274932104</v>
       </c>
       <c r="J57" t="n">
-        <v>7692.311292786903</v>
+        <v>7692.31041531927</v>
       </c>
       <c r="K57" t="n">
-        <v>8410.445381568725</v>
+        <v>8410.444504101091</v>
       </c>
       <c r="L57" t="n">
-        <v>7565.850877467634</v>
+        <v>7565.85</v>
       </c>
       <c r="M57" t="n">
-        <v>7565.850877467634</v>
+        <v>7565.85</v>
       </c>
       <c r="N57" t="n">
-        <v>7565.850877467692</v>
+        <v>7565.850000000059</v>
       </c>
       <c r="O57" t="n">
-        <v>7565.851010578102</v>
+        <v>7565.850133110469</v>
       </c>
     </row>
     <row r="58">
@@ -28172,31 +28172,31 @@
         <v>292.48</v>
       </c>
       <c r="G58" t="n">
-        <v>-46.18232375510706</v>
+        <v>-46.18395261577461</v>
       </c>
       <c r="H58" t="n">
-        <v>7559.188371139333</v>
+        <v>7559.19</v>
       </c>
       <c r="I58" t="n">
-        <v>8806.082323755107</v>
+        <v>8806.083952615774</v>
       </c>
       <c r="J58" t="n">
-        <v>7692.813409537659</v>
+        <v>7692.812906690206</v>
       </c>
       <c r="K58" t="n">
-        <v>8535.798152798448</v>
+        <v>8535.797649950995</v>
       </c>
       <c r="L58" t="n">
-        <v>7562.750502847453</v>
+        <v>7562.75</v>
       </c>
       <c r="M58" t="n">
-        <v>7562.750502847453</v>
+        <v>7562.75</v>
       </c>
       <c r="N58" t="n">
-        <v>7562.750502847646</v>
+        <v>7562.750000000193</v>
       </c>
       <c r="O58" t="n">
-        <v>7562.750816398051</v>
+        <v>7562.750313550598</v>
       </c>
     </row>
     <row r="59">
@@ -28210,31 +28210,31 @@
         <v>292.38</v>
       </c>
       <c r="G59" t="n">
-        <v>-33.48691495129424</v>
+        <v>-33.48314094487614</v>
       </c>
       <c r="H59" t="n">
-        <v>7555.333774006418</v>
+        <v>7555.33</v>
       </c>
       <c r="I59" t="n">
-        <v>8956.776914951295</v>
+        <v>8956.773140944877</v>
       </c>
       <c r="J59" t="n">
-        <v>7693.003167918202</v>
+        <v>7693.004796778869</v>
       </c>
       <c r="K59" t="n">
-        <v>8672.15310644179</v>
+        <v>8672.154735302456</v>
       </c>
       <c r="L59" t="n">
-        <v>7559.188371139333</v>
+        <v>7559.19</v>
       </c>
       <c r="M59" t="n">
-        <v>7559.188371139333</v>
+        <v>7559.19</v>
       </c>
       <c r="N59" t="n">
-        <v>7559.188371139954</v>
+        <v>7559.190000000621</v>
       </c>
       <c r="O59" t="n">
-        <v>7559.189093228237</v>
+        <v>7559.190722088903</v>
       </c>
     </row>
     <row r="60">
@@ -28248,31 +28248,31 @@
         <v>292.28</v>
       </c>
       <c r="G60" t="n">
-        <v>195.3801475731925</v>
+        <v>195.3802503075949</v>
       </c>
       <c r="H60" t="n">
-        <v>7551.000102734402</v>
+        <v>7551</v>
       </c>
       <c r="I60" t="n">
-        <v>9116.639852426808</v>
+        <v>9116.639749692406</v>
       </c>
       <c r="J60" t="n">
-        <v>7693.058041875222</v>
+        <v>7693.054267868804</v>
       </c>
       <c r="K60" t="n">
-        <v>8818.92193532768</v>
+        <v>8818.918161321262</v>
       </c>
       <c r="L60" t="n">
-        <v>7555.333774006418</v>
+        <v>7555.33</v>
       </c>
       <c r="M60" t="n">
-        <v>7555.333774006418</v>
+        <v>7555.33</v>
       </c>
       <c r="N60" t="n">
-        <v>7555.333774008372</v>
+        <v>7555.330000001954</v>
       </c>
       <c r="O60" t="n">
-        <v>7555.335399821881</v>
+        <v>7555.331625815463</v>
       </c>
     </row>
     <row r="61">
@@ -28286,31 +28286,31 @@
         <v>292.18</v>
       </c>
       <c r="G61" t="n">
-        <v>72.38495660186345</v>
+        <v>72.387423453265</v>
       </c>
       <c r="H61" t="n">
-        <v>7545.722466851401</v>
+        <v>7545.72</v>
       </c>
       <c r="I61" t="n">
-        <v>9283.475043398137</v>
+        <v>9283.472576546736</v>
       </c>
       <c r="J61" t="n">
-        <v>7692.800164560704</v>
+        <v>7692.800061826301</v>
       </c>
       <c r="K61" t="n">
-        <v>8974.690769721845</v>
+        <v>8974.690666987441</v>
       </c>
       <c r="L61" t="n">
-        <v>7551.000102734402</v>
+        <v>7551</v>
       </c>
       <c r="M61" t="n">
-        <v>7551.000102734402</v>
+        <v>7551</v>
       </c>
       <c r="N61" t="n">
-        <v>7551.000102740407</v>
+        <v>7551.000000006007</v>
       </c>
       <c r="O61" t="n">
-        <v>7551.003681710339</v>
+        <v>7551.003578975937</v>
       </c>
     </row>
     <row r="62">
@@ -28324,31 +28324,31 @@
         <v>292.08</v>
       </c>
       <c r="G62" t="n">
-        <v>217.4180346663961</v>
+        <v>217.4173505692161</v>
       </c>
       <c r="H62" t="n">
-        <v>7539.699315902821</v>
+        <v>7539.7</v>
       </c>
       <c r="I62" t="n">
-        <v>9455.211965333603</v>
+        <v>9455.212649430783</v>
       </c>
       <c r="J62" t="n">
-        <v>7691.773993031643</v>
+        <v>7691.771526180242</v>
       </c>
       <c r="K62" t="n">
-        <v>9137.253225639421</v>
+        <v>9137.250758788019</v>
       </c>
       <c r="L62" t="n">
-        <v>7545.722466851401</v>
+        <v>7545.72</v>
       </c>
       <c r="M62" t="n">
-        <v>7545.722466851401</v>
+        <v>7545.72</v>
       </c>
       <c r="N62" t="n">
-        <v>7545.722466869441</v>
+        <v>7545.720000018048</v>
       </c>
       <c r="O62" t="n">
-        <v>7545.730169887634</v>
+        <v>7545.727703036233</v>
       </c>
     </row>
     <row r="63">
@@ -28362,31 +28362,31 @@
         <v>291.98</v>
       </c>
       <c r="G63" t="n">
-        <v>298.9808033042264</v>
+        <v>298.9846017423824</v>
       </c>
       <c r="H63" t="n">
-        <v>7533.043798438157</v>
+        <v>7533.04</v>
       </c>
       <c r="I63" t="n">
-        <v>9629.159196695773</v>
+        <v>9629.155398257617</v>
       </c>
       <c r="J63" t="n">
-        <v>7690.187980558465</v>
+        <v>7690.188664655644</v>
       </c>
       <c r="K63" t="n">
-        <v>9304.526797406097</v>
+        <v>9304.527481503275</v>
       </c>
       <c r="L63" t="n">
-        <v>7539.699315902821</v>
+        <v>7539.7</v>
       </c>
       <c r="M63" t="n">
-        <v>7539.699315902821</v>
+        <v>7539.7</v>
       </c>
       <c r="N63" t="n">
-        <v>7539.699315955793</v>
+        <v>7539.700000052995</v>
       </c>
       <c r="O63" t="n">
-        <v>7539.715526104957</v>
+        <v>7539.716210202137</v>
       </c>
     </row>
     <row r="64">
@@ -28400,31 +28400,31 @@
         <v>291.88</v>
       </c>
       <c r="G64" t="n">
-        <v>-75.03736185821617</v>
+        <v>-75.0365745898489</v>
       </c>
       <c r="H64" t="n">
-        <v>7525.410787268367</v>
+        <v>7525.41</v>
       </c>
       <c r="I64" t="n">
-        <v>9801.667361858215</v>
+        <v>9801.666574589848</v>
       </c>
       <c r="J64" t="n">
-        <v>7688.165991094795</v>
+        <v>7688.162192656638</v>
       </c>
       <c r="K64" t="n">
-        <v>9473.805382361719</v>
+        <v>9473.801583923561</v>
       </c>
       <c r="L64" t="n">
-        <v>7533.043798438157</v>
+        <v>7533.04</v>
       </c>
       <c r="M64" t="n">
-        <v>7533.043798438157</v>
+        <v>7533.04</v>
       </c>
       <c r="N64" t="n">
-        <v>7533.043798590194</v>
+        <v>7533.040000152103</v>
       </c>
       <c r="O64" t="n">
-        <v>7533.07715218519</v>
+        <v>7533.073353747033</v>
       </c>
     </row>
     <row r="65">
@@ -28438,31 +28438,31 @@
         <v>291.78</v>
       </c>
       <c r="G65" t="n">
-        <v>126.2328859509289</v>
+        <v>126.2324089172798</v>
       </c>
       <c r="H65" t="n">
-        <v>7517.659522966351</v>
+        <v>7517.66</v>
       </c>
       <c r="I65" t="n">
-        <v>9969.867114049071</v>
+        <v>9969.867591082721</v>
       </c>
       <c r="J65" t="n">
-        <v>7685.374385525741</v>
+        <v>7685.373598257373</v>
       </c>
       <c r="K65" t="n">
-        <v>9641.420487137544</v>
+        <v>9641.419699869177</v>
       </c>
       <c r="L65" t="n">
-        <v>7525.410787268367</v>
+        <v>7525.41</v>
       </c>
       <c r="M65" t="n">
-        <v>7525.410787268367</v>
+        <v>7525.41</v>
       </c>
       <c r="N65" t="n">
-        <v>7525.410787694897</v>
+        <v>7525.410000426713</v>
       </c>
       <c r="O65" t="n">
-        <v>7525.47788923056</v>
+        <v>7525.477101962193</v>
       </c>
     </row>
     <row r="66">
@@ -28476,31 +28476,31 @@
         <v>291.68</v>
       </c>
       <c r="G66" t="n">
-        <v>193.179732552162</v>
+        <v>193.1763679647083</v>
       </c>
       <c r="H66" t="n">
-        <v>7509.586635412546</v>
+        <v>7509.59</v>
       </c>
       <c r="I66" t="n">
-        <v>10129.52026744784</v>
+        <v>10129.52363203529</v>
       </c>
       <c r="J66" t="n">
-        <v>7682.684732297049</v>
+        <v>7682.685209330698</v>
       </c>
       <c r="K66" t="n">
-        <v>9804.476277256634</v>
+        <v>9804.476754290283</v>
       </c>
       <c r="L66" t="n">
-        <v>7517.659522966351</v>
+        <v>7517.66</v>
       </c>
       <c r="M66" t="n">
-        <v>7517.659522966351</v>
+        <v>7517.66</v>
       </c>
       <c r="N66" t="n">
-        <v>7517.659524136004</v>
+        <v>7517.660001170156</v>
       </c>
       <c r="O66" t="n">
-        <v>7517.7915195511</v>
+        <v>7517.79199658475</v>
       </c>
     </row>
     <row r="67">
@@ -28514,31 +28514,31 @@
         <v>291.58</v>
       </c>
       <c r="G67" t="n">
-        <v>186.2600021654671</v>
+        <v>186.255508295053</v>
       </c>
       <c r="H67" t="n">
-        <v>7500.485506129586</v>
+        <v>7500.49</v>
       </c>
       <c r="I67" t="n">
-        <v>10275.73999783453</v>
+        <v>10275.74449170495</v>
       </c>
       <c r="J67" t="n">
-        <v>7679.906902938978</v>
+        <v>7679.910267526431</v>
       </c>
       <c r="K67" t="n">
-        <v>9958.695896733561</v>
+        <v>9958.699261321015</v>
       </c>
       <c r="L67" t="n">
-        <v>7509.586635412546</v>
+        <v>7509.59</v>
       </c>
       <c r="M67" t="n">
-        <v>7509.586635412546</v>
+        <v>7509.59</v>
       </c>
       <c r="N67" t="n">
-        <v>7509.586638547869</v>
+        <v>7509.590003136671</v>
       </c>
       <c r="O67" t="n">
-        <v>7509.840514416541</v>
+        <v>7509.843879003995</v>
       </c>
     </row>
     <row r="68">
@@ -28552,31 +28552,31 @@
         <v>291.48</v>
       </c>
       <c r="G68" t="n">
-        <v>-38.59060021390724</v>
+        <v>-38.59383646865535</v>
       </c>
       <c r="H68" t="n">
-        <v>7490.746763745252</v>
+        <v>7490.75</v>
       </c>
       <c r="I68" t="n">
-        <v>10404.79060021391</v>
+        <v>10404.79383646866</v>
       </c>
       <c r="J68" t="n">
-        <v>7676.34851603426</v>
+        <v>7676.353009904674</v>
       </c>
       <c r="K68" t="n">
-        <v>10099.13401484209</v>
+        <v>10099.13850871251</v>
       </c>
       <c r="L68" t="n">
-        <v>7500.485506129586</v>
+        <v>7500.49</v>
       </c>
       <c r="M68" t="n">
-        <v>7500.485506129587</v>
+        <v>7500.490000000001</v>
       </c>
       <c r="N68" t="n">
-        <v>7500.485514345113</v>
+        <v>7500.49000821906</v>
       </c>
       <c r="O68" t="n">
-        <v>7500.962951578327</v>
+        <v>7500.967445448741</v>
       </c>
     </row>
     <row r="69">
@@ -28590,31 +28590,31 @@
         <v>291.38</v>
       </c>
       <c r="G69" t="n">
-        <v>81.04290399398451</v>
+        <v>81.04209790789719</v>
       </c>
       <c r="H69" t="n">
-        <v>7480.899193913912</v>
+        <v>7480.9</v>
       </c>
       <c r="I69" t="n">
-        <v>10513.35709600602</v>
+        <v>10513.3579020921</v>
       </c>
       <c r="J69" t="n">
-        <v>7672.415522882447</v>
+        <v>7672.418759137196</v>
       </c>
       <c r="K69" t="n">
-        <v>10221.96481760594</v>
+        <v>10221.96805386069</v>
       </c>
       <c r="L69" t="n">
-        <v>7490.746763745252</v>
+        <v>7490.75</v>
       </c>
       <c r="M69" t="n">
-        <v>7490.746763745255</v>
+        <v>7490.750000000003</v>
       </c>
       <c r="N69" t="n">
-        <v>7490.746784789197</v>
+        <v>7490.750021052992</v>
       </c>
       <c r="O69" t="n">
-        <v>7491.624664773799</v>
+        <v>7491.627901028547</v>
       </c>
     </row>
     <row r="70">
@@ -28628,31 +28628,31 @@
         <v>291.28</v>
       </c>
       <c r="G70" t="n">
-        <v>-178.7776572332841</v>
+        <v>-178.7801644543615</v>
       </c>
       <c r="H70" t="n">
-        <v>7470.797492778924</v>
+        <v>7470.8</v>
       </c>
       <c r="I70" t="n">
-        <v>10597.97765723328</v>
+        <v>10597.98016445436</v>
       </c>
       <c r="J70" t="n">
-        <v>7668.653217227668</v>
+        <v>7668.654023313756</v>
       </c>
       <c r="K70" t="n">
-        <v>10323.73418704771</v>
+        <v>10323.7349931338</v>
       </c>
       <c r="L70" t="n">
-        <v>7480.899193913912</v>
+        <v>7480.9</v>
       </c>
       <c r="M70" t="n">
-        <v>7480.89919391392</v>
+        <v>7480.900000000008</v>
       </c>
       <c r="N70" t="n">
-        <v>7480.899246608715</v>
+        <v>7480.900052717458</v>
       </c>
       <c r="O70" t="n">
-        <v>7482.47745481879</v>
+        <v>7482.478260904877</v>
       </c>
     </row>
     <row r="71">
@@ -28666,31 +28666,31 @@
         <v>291.18</v>
       </c>
       <c r="G71" t="n">
-        <v>-159.8438318166864</v>
+        <v>-159.8449730166049</v>
       </c>
       <c r="H71" t="n">
-        <v>7460.578858800081</v>
+        <v>7460.58</v>
       </c>
       <c r="I71" t="n">
-        <v>10656.24383181669</v>
+        <v>10656.2449730166</v>
       </c>
       <c r="J71" t="n">
-        <v>7664.934099311525</v>
+        <v>7664.936606532601</v>
       </c>
       <c r="K71" t="n">
-        <v>10400.76735052475</v>
+        <v>10400.76985774582</v>
       </c>
       <c r="L71" t="n">
-        <v>7470.797492778924</v>
+        <v>7470.8</v>
       </c>
       <c r="M71" t="n">
-        <v>7470.797492778952</v>
+        <v>7470.800000000028</v>
       </c>
       <c r="N71" t="n">
-        <v>7470.797621772452</v>
+        <v>7470.800129048986</v>
       </c>
       <c r="O71" t="n">
-        <v>7473.571474159945</v>
+        <v>7473.573981381021</v>
       </c>
     </row>
     <row r="72">
@@ -28704,31 +28704,31 @@
         <v>291.08</v>
       </c>
       <c r="G72" t="n">
-        <v>-164.2433687723169</v>
+        <v>-164.2411121450295</v>
       </c>
       <c r="H72" t="n">
-        <v>7450.482256627287</v>
+        <v>7450.48</v>
       </c>
       <c r="I72" t="n">
-        <v>10686.84336877232</v>
+        <v>10686.84111214503</v>
       </c>
       <c r="J72" t="n">
-        <v>7661.414590419205</v>
+        <v>7661.415731619123</v>
       </c>
       <c r="K72" t="n">
-        <v>10450.33548530795</v>
+        <v>10450.33662650787</v>
       </c>
       <c r="L72" t="n">
-        <v>7460.578858800081</v>
+        <v>7460.58</v>
       </c>
       <c r="M72" t="n">
-        <v>7460.578858800179</v>
+        <v>7460.580000000097</v>
       </c>
       <c r="N72" t="n">
-        <v>7460.579167501128</v>
+        <v>7460.580308833764</v>
       </c>
       <c r="O72" t="n">
-        <v>7465.345273805739</v>
+        <v>7465.346415005657</v>
       </c>
     </row>
     <row r="73">
@@ -28742,31 +28742,31 @@
         <v>290.98</v>
       </c>
       <c r="G73" t="n">
-        <v>-12.96835321254002</v>
+        <v>-12.96604090094297</v>
       </c>
       <c r="H73" t="n">
-        <v>7440.172312311597</v>
+        <v>7440.17</v>
       </c>
       <c r="I73" t="n">
-        <v>10689.06835321254</v>
+        <v>10689.06604090094</v>
       </c>
       <c r="J73" t="n">
-        <v>7658.354433134222</v>
+        <v>7658.352176506934</v>
       </c>
       <c r="K73" t="n">
-        <v>10470.65533140449</v>
+        <v>10470.65307477721</v>
       </c>
       <c r="L73" t="n">
-        <v>7450.482256627287</v>
+        <v>7450.48</v>
       </c>
       <c r="M73" t="n">
-        <v>7450.482256627609</v>
+        <v>7450.480000000322</v>
       </c>
       <c r="N73" t="n">
-        <v>7450.48297887927</v>
+        <v>7450.480722562495</v>
       </c>
       <c r="O73" t="n">
-        <v>7458.488081839539</v>
+        <v>7458.485825212251</v>
       </c>
     </row>
     <row r="74">
@@ -28780,31 +28780,31 @@
         <v>290.88</v>
       </c>
       <c r="G74" t="n">
-        <v>-217.3403123517255</v>
+        <v>-217.3429825886615</v>
       </c>
       <c r="H74" t="n">
-        <v>7429.537329763063</v>
+        <v>7429.54</v>
       </c>
       <c r="I74" t="n">
-        <v>10663.74031235173</v>
+        <v>10663.74298258866</v>
       </c>
       <c r="J74" t="n">
-        <v>7655.440738347823</v>
+        <v>7655.438426036226</v>
       </c>
       <c r="K74" t="n">
-        <v>10460.34538708881</v>
+        <v>10460.34307477722</v>
       </c>
       <c r="L74" t="n">
-        <v>7440.172312311597</v>
+        <v>7440.17</v>
       </c>
       <c r="M74" t="n">
-        <v>7440.17231231264</v>
+        <v>7440.170000001043</v>
       </c>
       <c r="N74" t="n">
-        <v>7440.173964387594</v>
+        <v>7440.171652786262</v>
       </c>
       <c r="O74" t="n">
-        <v>7453.315387419712</v>
+        <v>7453.313075108115</v>
       </c>
     </row>
     <row r="75">
@@ -28818,31 +28818,31 @@
         <v>290.78</v>
       </c>
       <c r="G75" t="n">
-        <v>55.13259912421745</v>
+        <v>55.1345347561255</v>
       </c>
       <c r="H75" t="n">
-        <v>7418.991935631908</v>
+        <v>7418.99</v>
       </c>
       <c r="I75" t="n">
-        <v>10613.56740087578</v>
+        <v>10613.56546524388</v>
       </c>
       <c r="J75" t="n">
-        <v>7652.586170943872</v>
+        <v>7652.588841180808</v>
       </c>
       <c r="K75" t="n">
-        <v>10419.29395627096</v>
+        <v>10419.2966265079</v>
       </c>
       <c r="L75" t="n">
-        <v>7429.537329763063</v>
+        <v>7429.54</v>
       </c>
       <c r="M75" t="n">
-        <v>7429.537329766366</v>
+        <v>7429.540000003303</v>
       </c>
       <c r="N75" t="n">
-        <v>7429.541024399639</v>
+        <v>7429.543696224984</v>
       </c>
       <c r="O75" t="n">
-        <v>7450.62367189744</v>
+        <v>7450.626342134377</v>
       </c>
     </row>
     <row r="76">
@@ -28856,31 +28856,31 @@
         <v>290.68</v>
       </c>
       <c r="G76" t="n">
-        <v>-243.3683096576333</v>
+        <v>-243.3664920924639</v>
       </c>
       <c r="H76" t="n">
-        <v>7408.43181756517</v>
+        <v>7408.43</v>
       </c>
       <c r="I76" t="n">
-        <v>10542.06830965763</v>
+        <v>10542.06649209246</v>
       </c>
       <c r="J76" t="n">
-        <v>7650.231783645315</v>
+        <v>7650.229848013407</v>
       </c>
       <c r="K76" t="n">
-        <v>10348.96179337773</v>
+        <v>10348.95985774582</v>
       </c>
       <c r="L76" t="n">
-        <v>7418.991935631908</v>
+        <v>7418.99</v>
       </c>
       <c r="M76" t="n">
-        <v>7418.991935642131</v>
+        <v>7418.990000010223</v>
       </c>
       <c r="N76" t="n">
-        <v>7419.000013989469</v>
+        <v>7418.998081830629</v>
       </c>
       <c r="O76" t="n">
-        <v>7452.047081953693</v>
+        <v>7452.045146321785</v>
       </c>
     </row>
     <row r="77">
@@ -28894,31 +28894,31 @@
         <v>290.58</v>
       </c>
       <c r="G77" t="n">
-        <v>18.59922910663227</v>
+        <v>18.59843656366138</v>
       </c>
       <c r="H77" t="n">
-        <v>7398.089207457031</v>
+        <v>7398.09</v>
       </c>
       <c r="I77" t="n">
-        <v>10454.30077089337</v>
+        <v>10454.30156343634</v>
       </c>
       <c r="J77" t="n">
-        <v>7648.30196663239</v>
+        <v>7648.30014906722</v>
       </c>
       <c r="K77" t="n">
-        <v>10251.26681069902</v>
+        <v>10251.26499313386</v>
       </c>
       <c r="L77" t="n">
-        <v>7408.43181756517</v>
+        <v>7408.43</v>
       </c>
       <c r="M77" t="n">
-        <v>7408.431817596094</v>
+        <v>7408.430000030925</v>
       </c>
       <c r="N77" t="n">
-        <v>7408.449087570727</v>
+        <v>7408.447277430324</v>
       </c>
       <c r="O77" t="n">
-        <v>7459.050554731301</v>
+        <v>7459.048737166132</v>
       </c>
     </row>
     <row r="78">
@@ -28932,31 +28932,31 @@
         <v>290.48</v>
       </c>
       <c r="G78" t="n">
-        <v>-46.22490783681496</v>
+        <v>-46.22628393323976</v>
       </c>
       <c r="H78" t="n">
-        <v>7388.028623903576</v>
+        <v>7388.03</v>
       </c>
       <c r="I78" t="n">
-        <v>10356.12490783681</v>
+        <v>10356.12628393324</v>
       </c>
       <c r="J78" t="n">
-        <v>7647.060167615924</v>
+        <v>7647.060960158893</v>
       </c>
       <c r="K78" t="n">
-        <v>10129.30726131779</v>
+        <v>10129.30805386076</v>
       </c>
       <c r="L78" t="n">
-        <v>7398.089207457031</v>
+        <v>7398.09</v>
       </c>
       <c r="M78" t="n">
-        <v>7398.089207548463</v>
+        <v>7398.090000091432</v>
       </c>
       <c r="N78" t="n">
-        <v>7398.125305801031</v>
+        <v>7398.126113863494</v>
       </c>
       <c r="O78" t="n">
-        <v>7473.789275618819</v>
+        <v>7473.790068161788</v>
       </c>
     </row>
     <row r="79">
@@ -28970,31 +28970,31 @@
         <v>290.38</v>
       </c>
       <c r="G79" t="n">
-        <v>-26.34435751013189</v>
+        <v>-26.34139652985141</v>
       </c>
       <c r="H79" t="n">
-        <v>7377.932960980283</v>
+        <v>7377.93</v>
       </c>
       <c r="I79" t="n">
-        <v>10253.64435751013</v>
+        <v>10253.64139652985</v>
       </c>
       <c r="J79" t="n">
-        <v>7646.604900119028</v>
+        <v>7646.606276215452</v>
       </c>
       <c r="K79" t="n">
-        <v>9986.677132616162</v>
+        <v>9986.678508712586</v>
       </c>
       <c r="L79" t="n">
-        <v>7388.028623903576</v>
+        <v>7388.03</v>
       </c>
       <c r="M79" t="n">
-        <v>7388.028624167799</v>
+        <v>7388.030000264223</v>
       </c>
       <c r="N79" t="n">
-        <v>7388.102399612961</v>
+        <v>7388.103807427231</v>
       </c>
       <c r="O79" t="n">
-        <v>7498.550112637777</v>
+        <v>7498.551488734201</v>
       </c>
     </row>
     <row r="80">
@@ -29008,31 +29008,31 @@
         <v>290.28</v>
       </c>
       <c r="G80" t="n">
-        <v>101.8522359336275</v>
+        <v>101.856844533153</v>
       </c>
       <c r="H80" t="n">
-        <v>7368.204608599524</v>
+        <v>7368.2</v>
       </c>
       <c r="I80" t="n">
-        <v>10153.84776406637</v>
+        <v>10153.84315546685</v>
       </c>
       <c r="J80" t="n">
-        <v>7646.656131189372</v>
+        <v>7646.65317020909</v>
       </c>
       <c r="K80" t="n">
-        <v>9827.042222301385</v>
+        <v>9827.039261321104</v>
       </c>
       <c r="L80" t="n">
-        <v>7377.932960980283</v>
+        <v>7377.93</v>
       </c>
       <c r="M80" t="n">
-        <v>7377.932961726628</v>
+        <v>7377.930000746346</v>
       </c>
       <c r="N80" t="n">
-        <v>7378.080387258032</v>
+        <v>7378.077489659639</v>
       </c>
       <c r="O80" t="n">
-        <v>7535.398958577422</v>
+        <v>7535.395997597139</v>
       </c>
     </row>
     <row r="81">
@@ -29046,31 +29046,31 @@
         <v>290.18</v>
       </c>
       <c r="G81" t="n">
-        <v>22.38043475920676</v>
+        <v>22.38180514160013</v>
       </c>
       <c r="H81" t="n">
-        <v>7358.541370382392</v>
+        <v>7358.54</v>
       </c>
       <c r="I81" t="n">
-        <v>10062.61956524079</v>
+        <v>10062.6181948584</v>
       </c>
       <c r="J81" t="n">
-        <v>7647.656738564044</v>
+        <v>7647.652129964519</v>
       </c>
       <c r="K81" t="n">
-        <v>9655.021362889807</v>
+        <v>9655.016754290282</v>
       </c>
       <c r="L81" t="n">
-        <v>7368.204608599524</v>
+        <v>7368.2</v>
       </c>
       <c r="M81" t="n">
-        <v>7368.20461066022</v>
+        <v>7368.200002060696</v>
       </c>
       <c r="N81" t="n">
-        <v>7368.492662348083</v>
+        <v>7368.488177589379</v>
       </c>
       <c r="O81" t="n">
-        <v>7587.035860240197</v>
+        <v>7587.031251640672</v>
       </c>
     </row>
     <row r="82">
@@ -29084,31 +29084,31 @@
         <v>290.08</v>
       </c>
       <c r="G82" t="n">
-        <v>89.84829049690052</v>
+        <v>89.84758596203937</v>
       </c>
       <c r="H82" t="n">
-        <v>7349.089295465139</v>
+        <v>7349.09</v>
       </c>
       <c r="I82" t="n">
-        <v>9985.2517095031</v>
+        <v>9985.252414037961</v>
       </c>
       <c r="J82" t="n">
-        <v>7649.348808767384</v>
+        <v>7649.347438384992</v>
       </c>
       <c r="K82" t="n">
-        <v>9474.551070251668</v>
+        <v>9474.549699869276</v>
       </c>
       <c r="L82" t="n">
-        <v>7358.541370382392</v>
+        <v>7358.54</v>
       </c>
       <c r="M82" t="n">
-        <v>7358.54137594403</v>
+        <v>7358.540005561637</v>
       </c>
       <c r="N82" t="n">
-        <v>7359.091681209755</v>
+        <v>7359.090547418432</v>
       </c>
       <c r="O82" t="n">
-        <v>7655.00697822803</v>
+        <v>7655.005607845637</v>
       </c>
     </row>
     <row r="83">
@@ -29122,31 +29122,31 @@
         <v>289.98</v>
       </c>
       <c r="G83" t="n">
-        <v>179.5626627131533</v>
+        <v>179.566248806681</v>
       </c>
       <c r="H83" t="n">
-        <v>7339.893586093529</v>
+        <v>7339.89</v>
       </c>
       <c r="I83" t="n">
-        <v>9925.237337286846</v>
+        <v>9925.233751193318</v>
       </c>
       <c r="J83" t="n">
-        <v>7651.926899033212</v>
+        <v>7651.927603568073</v>
       </c>
       <c r="K83" t="n">
-        <v>9289.850879388801</v>
+        <v>9289.851583923662</v>
       </c>
       <c r="L83" t="n">
-        <v>7349.08929546514</v>
+        <v>7349.090000000001</v>
       </c>
       <c r="M83" t="n">
-        <v>7349.089310138054</v>
+        <v>7349.090014672915</v>
       </c>
       <c r="N83" t="n">
-        <v>7350.117249143468</v>
+        <v>7350.118395618862</v>
       </c>
       <c r="O83" t="n">
-        <v>7740.387974772998</v>
+        <v>7740.388679307859</v>
       </c>
     </row>
     <row r="84">
@@ -29160,31 +29160,31 @@
         <v>289.88</v>
       </c>
       <c r="G84" t="n">
-        <v>99.56178582317989</v>
+        <v>99.56443146862148</v>
       </c>
       <c r="H84" t="n">
-        <v>7330.642645645443</v>
+        <v>7330.64</v>
       </c>
       <c r="I84" t="n">
-        <v>9883.43821417682</v>
+        <v>9883.435568531379</v>
       </c>
       <c r="J84" t="n">
-        <v>7655.489432474846</v>
+        <v>7655.485846381317</v>
       </c>
       <c r="K84" t="n">
-        <v>9104.721067596905</v>
+        <v>9104.717481503376</v>
       </c>
       <c r="L84" t="n">
-        <v>7339.893586093533</v>
+        <v>7339.890000000004</v>
       </c>
       <c r="M84" t="n">
-        <v>7339.893623934777</v>
+        <v>7339.890037841248</v>
       </c>
       <c r="N84" t="n">
-        <v>7341.771001837616</v>
+        <v>7341.768222887571</v>
       </c>
       <c r="O84" t="n">
-        <v>7842.706875425941</v>
+        <v>7842.703289332412</v>
       </c>
     </row>
     <row r="85">
@@ -29198,31 +29198,31 @@
         <v>289.78</v>
       </c>
       <c r="G85" t="n">
-        <v>-15.47270470399417</v>
+        <v>-15.47096713411338</v>
       </c>
       <c r="H85" t="n">
-        <v>7321.531737569881</v>
+        <v>7321.53</v>
       </c>
       <c r="I85" t="n">
-        <v>9858.582704703995</v>
+        <v>9858.580967134114</v>
       </c>
       <c r="J85" t="n">
-        <v>7659.783300022978</v>
+        <v>7659.780654377535</v>
       </c>
       <c r="K85" t="n">
-        <v>8922.173404433561</v>
+        <v>8922.170758788117</v>
       </c>
       <c r="L85" t="n">
-        <v>7330.642645645455</v>
+        <v>7330.640000000012</v>
       </c>
       <c r="M85" t="n">
-        <v>7330.64274104806</v>
+        <v>7330.640095402618</v>
       </c>
       <c r="N85" t="n">
-        <v>7333.995028218351</v>
+        <v>7333.993823837987</v>
       </c>
       <c r="O85" t="n">
-        <v>7959.18971503545</v>
+        <v>7959.187069390007</v>
       </c>
     </row>
     <row r="86">
@@ -29236,31 +29236,31 @@
         <v>289.68</v>
       </c>
       <c r="G86" t="n">
-        <v>-69.7998414672802</v>
+        <v>-69.8025191333054</v>
       </c>
       <c r="H86" t="n">
-        <v>7312.827322333975</v>
+        <v>7312.83</v>
       </c>
       <c r="I86" t="n">
-        <v>9846.819841467281</v>
+        <v>9846.822519133306</v>
       </c>
       <c r="J86" t="n">
-        <v>7665.068150063383</v>
+        <v>7665.066412493501</v>
       </c>
       <c r="K86" t="n">
-        <v>8745.222404557324</v>
+        <v>8745.220666987441</v>
       </c>
       <c r="L86" t="n">
-        <v>7321.531737569921</v>
+        <v>7321.53000000004</v>
       </c>
       <c r="M86" t="n">
-        <v>7321.531972701732</v>
+        <v>7321.530235131851</v>
       </c>
       <c r="N86" t="n">
-        <v>7327.384093438848</v>
+        <v>7327.384871929099</v>
       </c>
       <c r="O86" t="n">
-        <v>8085.281734447817</v>
+        <v>8085.279996877935</v>
       </c>
     </row>
     <row r="87">
@@ -29274,31 +29274,31 @@
         <v>289.58</v>
       </c>
       <c r="G87" t="n">
-        <v>121.5026819448503</v>
+        <v>121.5024412174862</v>
       </c>
       <c r="H87" t="n">
-        <v>7304.409759272638</v>
+        <v>7304.41</v>
       </c>
       <c r="I87" t="n">
-        <v>9841.727318055149</v>
+        <v>9841.727558782513</v>
       </c>
       <c r="J87" t="n">
-        <v>7671.681445185543</v>
+        <v>7671.684122851569</v>
       </c>
       <c r="K87" t="n">
-        <v>8576.415483655326</v>
+        <v>8576.418161321351</v>
       </c>
       <c r="L87" t="n">
-        <v>7312.827322334104</v>
+        <v>7312.830000000129</v>
       </c>
       <c r="M87" t="n">
-        <v>7312.827888872607</v>
+        <v>7312.830566538632</v>
       </c>
       <c r="N87" t="n">
-        <v>7322.814925109359</v>
+        <v>7322.821896671676</v>
       </c>
       <c r="O87" t="n">
-        <v>8214.169916667277</v>
+        <v>8214.172594333302</v>
       </c>
     </row>
     <row r="88">
@@ -29312,31 +29312,31 @@
         <v>289.48</v>
       </c>
       <c r="G88" t="n">
-        <v>93.93060835726465</v>
+        <v>93.92747173100543</v>
       </c>
       <c r="H88" t="n">
-        <v>7295.756863373743</v>
+        <v>7295.76</v>
       </c>
       <c r="I88" t="n">
-        <v>9835.279391642734</v>
+        <v>9835.282528268994</v>
       </c>
       <c r="J88" t="n">
-        <v>7679.581987510937</v>
+        <v>7679.5822282383</v>
       </c>
       <c r="K88" t="n">
-        <v>8417.374494575177</v>
+        <v>8417.374735302539</v>
       </c>
       <c r="L88" t="n">
-        <v>7304.40975927305</v>
+        <v>7304.410000000412</v>
       </c>
       <c r="M88" t="n">
-        <v>7304.41109379222</v>
+        <v>7304.411334519582</v>
       </c>
       <c r="N88" t="n">
-        <v>7321.070882173988</v>
+        <v>7321.07828589486</v>
       </c>
       <c r="O88" t="n">
-        <v>8336.709221272731</v>
+        <v>8336.709462000093</v>
       </c>
     </row>
     <row r="89">
@@ -29350,31 +29350,31 @@
         <v>289.38</v>
       </c>
       <c r="G89" t="n">
-        <v>-213.1135189720462</v>
+        <v>-213.1138420246007</v>
       </c>
       <c r="H89" t="n">
-        <v>7286.869676947443</v>
+        <v>7286.87</v>
       </c>
       <c r="I89" t="n">
-        <v>9820.193518972046</v>
+        <v>9820.193842024601</v>
       </c>
       <c r="J89" t="n">
-        <v>7688.33441992831</v>
+        <v>7688.337556554568</v>
       </c>
       <c r="K89" t="n">
-        <v>8268.804513324814</v>
+        <v>8268.807649951072</v>
       </c>
       <c r="L89" t="n">
-        <v>7295.756863375023</v>
+        <v>7295.760000001281</v>
       </c>
       <c r="M89" t="n">
-        <v>7295.759936695206</v>
+        <v>7295.763073321464</v>
       </c>
       <c r="N89" t="n">
-        <v>7322.921663128759</v>
+        <v>7322.936478516734</v>
       </c>
       <c r="O89" t="n">
-        <v>8442.267894752535</v>
+        <v>8442.271031378792</v>
       </c>
     </row>
     <row r="90">
@@ -29388,31 +29388,31 @@
         <v>289.28</v>
       </c>
       <c r="G90" t="n">
-        <v>-61.85442250845517</v>
+        <v>-61.85567433137658</v>
       </c>
       <c r="H90" t="n">
-        <v>7278.538748177078</v>
+        <v>7278.54</v>
       </c>
       <c r="I90" t="n">
-        <v>9791.824422508455</v>
+        <v>9791.825674331376</v>
       </c>
       <c r="J90" t="n">
-        <v>7698.036083772582</v>
+        <v>7698.036406825139</v>
       </c>
       <c r="K90" t="n">
-        <v>8131.464181048603</v>
+        <v>8131.46450410116</v>
       </c>
       <c r="L90" t="n">
-        <v>7286.869676951334</v>
+        <v>7286.870000003891</v>
       </c>
       <c r="M90" t="n">
-        <v>7286.876596668177</v>
+        <v>7286.876919720734</v>
       </c>
       <c r="N90" t="n">
-        <v>7330.150951703776</v>
+        <v>7330.169882355111</v>
       </c>
       <c r="O90" t="n">
-        <v>8520.926106244109</v>
+        <v>8520.926429296665</v>
       </c>
     </row>
     <row r="91">
@@ -29426,31 +29426,31 @@
         <v>289.18</v>
       </c>
       <c r="G91" t="n">
-        <v>-268.8963580272866</v>
+        <v>-268.8983117834687</v>
       </c>
       <c r="H91" t="n">
-        <v>7270.508046243818</v>
+        <v>7270.51</v>
       </c>
       <c r="I91" t="n">
-        <v>9747.816358027287</v>
+        <v>9747.818311783469</v>
       </c>
       <c r="J91" t="n">
-        <v>7709.584549533365</v>
+        <v>7709.585801356287</v>
       </c>
       <c r="K91" t="n">
-        <v>8006.489147569662</v>
+        <v>8006.490399392585</v>
       </c>
       <c r="L91" t="n">
-        <v>7278.538748188633</v>
+        <v>7278.540000011555</v>
       </c>
       <c r="M91" t="n">
-        <v>7278.553980849276</v>
+        <v>7278.555232672198</v>
       </c>
       <c r="N91" t="n">
-        <v>7345.913871120244</v>
+        <v>7345.944089032136</v>
       </c>
       <c r="O91" t="n">
-        <v>8565.219626275977</v>
+        <v>8565.2208780989</v>
       </c>
     </row>
     <row r="92">
@@ -29464,31 +29464,31 @@
         <v>289.08</v>
       </c>
       <c r="G92" t="n">
-        <v>-67.56371099190801</v>
+        <v>-67.55959087769588</v>
       </c>
       <c r="H92" t="n">
-        <v>7262.664120114212</v>
+        <v>7262.66</v>
       </c>
       <c r="I92" t="n">
-        <v>9690.263710991909</v>
+        <v>9690.259590877697</v>
       </c>
       <c r="J92" t="n">
-        <v>7722.842979753051</v>
+        <v>7722.844933509233</v>
       </c>
       <c r="K92" t="n">
-        <v>7893.619794637685</v>
+        <v>7893.621748393867</v>
       </c>
       <c r="L92" t="n">
-        <v>7270.508046277365</v>
+        <v>7270.510000033547</v>
       </c>
       <c r="M92" t="n">
-        <v>7270.540831551108</v>
+        <v>7270.54278530729</v>
       </c>
       <c r="N92" t="n">
-        <v>7372.955104563839</v>
+        <v>7373.001102627123</v>
       </c>
       <c r="O92" t="n">
-        <v>8569.671286520193</v>
+        <v>8569.673240276376</v>
       </c>
     </row>
     <row r="93">
@@ -29502,31 +29502,31 @@
         <v>288.98</v>
       </c>
       <c r="G93" t="n">
-        <v>-54.04841235934691</v>
+        <v>-54.04632882810074</v>
       </c>
       <c r="H93" t="n">
-        <v>7254.952083531247</v>
+        <v>7254.95</v>
       </c>
       <c r="I93" t="n">
-        <v>9625.788412359347</v>
+        <v>9625.786328828101</v>
       </c>
       <c r="J93" t="n">
-        <v>7737.830966643215</v>
+        <v>7737.826846529003</v>
       </c>
       <c r="K93" t="n">
-        <v>7792.45594888805</v>
+        <v>7792.451828773837</v>
       </c>
       <c r="L93" t="n">
-        <v>7262.664120209403</v>
+        <v>7262.660000095191</v>
       </c>
       <c r="M93" t="n">
-        <v>7262.733113228383</v>
+        <v>7262.728993114171</v>
       </c>
       <c r="N93" t="n">
-        <v>7414.778689470974</v>
+        <v>7414.839966850037</v>
       </c>
       <c r="O93" t="n">
-        <v>8532.901388636023</v>
+        <v>8532.89726852181</v>
       </c>
     </row>
     <row r="94">
@@ -29540,31 +29540,31 @@
         <v>288.88</v>
       </c>
       <c r="G94" t="n">
-        <v>152.5485120782705</v>
+        <v>152.5451417325257</v>
       </c>
       <c r="H94" t="n">
-        <v>7247.056629654255</v>
+        <v>7247.06</v>
       </c>
       <c r="I94" t="n">
-        <v>9564.46148792173</v>
+        <v>9564.464858267474</v>
       </c>
       <c r="J94" t="n">
-        <v>7754.64246973883</v>
+        <v>7754.640386207583</v>
       </c>
       <c r="K94" t="n">
-        <v>7702.436403972754</v>
+        <v>7702.434320441507</v>
       </c>
       <c r="L94" t="n">
-        <v>7254.952083795274</v>
+        <v>7254.950000264027</v>
       </c>
       <c r="M94" t="n">
-        <v>7255.094042209965</v>
+        <v>7255.091958678718</v>
       </c>
       <c r="N94" t="n">
-        <v>7475.426394700118</v>
+        <v>7475.519098061032</v>
       </c>
       <c r="O94" t="n">
-        <v>8457.773202933935</v>
+        <v>8457.771119402689</v>
       </c>
     </row>
     <row r="95">
@@ -29578,31 +29578,31 @@
         <v>288.78</v>
       </c>
       <c r="G95" t="n">
-        <v>2.319246290506271</v>
+        <v>2.321715962005328</v>
       </c>
       <c r="H95" t="n">
-        <v>7238.992469671499</v>
+        <v>7238.99</v>
       </c>
       <c r="I95" t="n">
-        <v>9518.820753709493</v>
+        <v>9518.818284037994</v>
       </c>
       <c r="J95" t="n">
-        <v>7773.129108872109</v>
+        <v>7773.132479217855</v>
       </c>
       <c r="K95" t="n">
-        <v>7622.578779321334</v>
+        <v>7622.58214966708</v>
       </c>
       <c r="L95" t="n">
-        <v>7247.056630370091</v>
+        <v>7247.060000715836</v>
       </c>
       <c r="M95" t="n">
-        <v>7247.342225928729</v>
+        <v>7247.345596274475</v>
       </c>
       <c r="N95" t="n">
-        <v>7558.856570390412</v>
+        <v>7558.993990581703</v>
       </c>
       <c r="O95" t="n">
-        <v>8350.548564791681</v>
+        <v>8350.551935137428</v>
       </c>
     </row>
     <row r="96">
@@ -29616,31 +29616,31 @@
         <v>288.68</v>
       </c>
       <c r="G96" t="n">
-        <v>224.491540730216</v>
+        <v>224.4911601358981</v>
       </c>
       <c r="H96" t="n">
-        <v>7230.979619405682</v>
+        <v>7230.98</v>
       </c>
       <c r="I96" t="n">
-        <v>9501.648459269783</v>
+        <v>9501.648839864101</v>
       </c>
       <c r="J96" t="n">
-        <v>7793.493269850736</v>
+        <v>7793.490800179237</v>
       </c>
       <c r="K96" t="n">
-        <v>7552.122396709961</v>
+        <v>7552.119927038462</v>
       </c>
       <c r="L96" t="n">
-        <v>7238.992471568648</v>
+        <v>7238.990001897149</v>
       </c>
       <c r="M96" t="n">
-        <v>7239.554267443359</v>
+        <v>7239.55179777186</v>
       </c>
       <c r="N96" t="n">
-        <v>7669.031665081263</v>
+        <v>7669.214078984747</v>
       </c>
       <c r="O96" t="n">
-        <v>8220.341465975322</v>
+        <v>8220.338996303824</v>
       </c>
     </row>
     <row r="97">
@@ -29654,31 +29654,31 @@
         <v>288.58</v>
       </c>
       <c r="G97" t="n">
-        <v>89.90738407324716</v>
+        <v>89.91124441632746</v>
       </c>
       <c r="H97" t="n">
-        <v>7222.91386034308</v>
+        <v>7222.91</v>
       </c>
       <c r="I97" t="n">
-        <v>9523.202615926753</v>
+        <v>9523.198755583673</v>
       </c>
       <c r="J97" t="n">
-        <v>7816.166523896773</v>
+        <v>7816.166904491091</v>
       </c>
       <c r="K97" t="n">
-        <v>7490.448686180938</v>
+        <v>7490.449066775256</v>
       </c>
       <c r="L97" t="n">
-        <v>7230.979624320673</v>
+        <v>7230.980004914991</v>
       </c>
       <c r="M97" t="n">
-        <v>7232.060167504988</v>
+        <v>7232.060548099306</v>
       </c>
       <c r="N97" t="n">
-        <v>7809.080898160062</v>
+        <v>7809.329817567258</v>
       </c>
       <c r="O97" t="n">
-        <v>8077.540279569732</v>
+        <v>8077.54066016405</v>
       </c>
     </row>
     <row r="98">
@@ -29692,31 +29692,31 @@
         <v>288.48</v>
       </c>
       <c r="G98" t="n">
-        <v>144.9044519766449</v>
+        <v>144.9004219734652</v>
       </c>
       <c r="H98" t="n">
-        <v>7214.675969996821</v>
+        <v>7214.68</v>
       </c>
       <c r="I98" t="n">
-        <v>9589.535548023356</v>
+        <v>9589.539578026535</v>
       </c>
       <c r="J98" t="n">
-        <v>7841.28378179082</v>
+        <v>7841.27992144774</v>
       </c>
       <c r="K98" t="n">
-        <v>7436.589164296734</v>
+        <v>7436.585303953654</v>
       </c>
       <c r="L98" t="n">
-        <v>7222.913872790737</v>
+        <v>7222.910012447656</v>
       </c>
       <c r="M98" t="n">
-        <v>7224.94594162607</v>
+        <v>7224.942081282989</v>
       </c>
       <c r="N98" t="n">
-        <v>7979.887270760511</v>
+        <v>7980.208850404713</v>
       </c>
       <c r="O98" t="n">
-        <v>7931.849552553917</v>
+        <v>7931.845692210836</v>
       </c>
     </row>
     <row r="99">
@@ -29730,31 +29730,31 @@
         <v>288.38</v>
       </c>
       <c r="G99" t="n">
-        <v>-124.0608705838695</v>
+        <v>-124.0587050643335</v>
       </c>
       <c r="H99" t="n">
-        <v>7206.402165519536</v>
+        <v>7206.4</v>
       </c>
       <c r="I99" t="n">
-        <v>9701.360870583869</v>
+        <v>9701.358705064333</v>
       </c>
       <c r="J99" t="n">
-        <v>7868.996894112758</v>
+        <v>7869.000924115938</v>
       </c>
       <c r="K99" t="n">
-        <v>7389.564762498391</v>
+        <v>7389.568792501571</v>
       </c>
       <c r="L99" t="n">
-        <v>7214.676000814976</v>
+        <v>7214.680030818156</v>
       </c>
       <c r="M99" t="n">
-        <v>7218.412451836015</v>
+        <v>7218.416481839195</v>
       </c>
       <c r="N99" t="n">
-        <v>8179.447899808358</v>
+        <v>8179.866707081448</v>
       </c>
       <c r="O99" t="n">
-        <v>7791.473752830894</v>
+        <v>7791.477782834074</v>
       </c>
     </row>
     <row r="100">
@@ -29768,31 +29768,31 @@
         <v>288.28</v>
       </c>
       <c r="G100" t="n">
-        <v>162.664137709311</v>
+        <v>162.6630919377203</v>
       </c>
       <c r="H100" t="n">
-        <v>7198.118954228412</v>
+        <v>7198.12</v>
       </c>
       <c r="I100" t="n">
-        <v>9853.135862290688</v>
+        <v>9853.136908062279</v>
       </c>
       <c r="J100" t="n">
-        <v>7899.750285724628</v>
+        <v>7899.748120205092</v>
       </c>
       <c r="K100" t="n">
-        <v>7348.679455175978</v>
+        <v>7348.677289656442</v>
       </c>
       <c r="L100" t="n">
-        <v>7206.402240111232</v>
+        <v>7206.400074591696</v>
       </c>
       <c r="M100" t="n">
-        <v>7213.119486740065</v>
+        <v>7213.117321220529</v>
       </c>
       <c r="N100" t="n">
-        <v>8402.310200977061</v>
+        <v>8402.822183366148</v>
       </c>
       <c r="O100" t="n">
-        <v>7662.71678612641</v>
+        <v>7662.714620606874</v>
       </c>
     </row>
     <row r="101">
@@ -29806,31 +29806,31 @@
         <v>288.18</v>
       </c>
       <c r="G101" t="n">
-        <v>155.7199604329871</v>
+        <v>155.7169309258225</v>
       </c>
       <c r="H101" t="n">
-        <v>7189.286970492836</v>
+        <v>7189.29</v>
       </c>
       <c r="I101" t="n">
-        <v>10033.08003956701</v>
+        <v>10033.08306907418</v>
       </c>
       <c r="J101" t="n">
-        <v>7933.921997625853</v>
+        <v>7933.923043397441</v>
       </c>
       <c r="K101" t="n">
-        <v>7313.172089912613</v>
+        <v>7313.173135684201</v>
       </c>
       <c r="L101" t="n">
-        <v>7198.119130730403</v>
+        <v>7198.120176501991</v>
       </c>
       <c r="M101" t="n">
-        <v>7209.925445752404</v>
+        <v>7209.926491523992</v>
       </c>
       <c r="N101" t="n">
-        <v>8638.728206529666</v>
+        <v>8639.348602796654</v>
       </c>
       <c r="O101" t="n">
-        <v>7549.415037078744</v>
+        <v>7549.416082850332</v>
       </c>
     </row>
     <row r="102">
@@ -29844,31 +29844,31 @@
         <v>288.08</v>
       </c>
       <c r="G102" t="n">
-        <v>-13.2853115579619</v>
+        <v>-13.28677121744113</v>
       </c>
       <c r="H102" t="n">
-        <v>7179.44854034052</v>
+        <v>7179.45</v>
       </c>
       <c r="I102" t="n">
-        <v>10225.38531155796</v>
+        <v>10225.38677121744</v>
       </c>
       <c r="J102" t="n">
-        <v>7971.37494009539</v>
+        <v>7971.377969602554</v>
       </c>
       <c r="K102" t="n">
-        <v>7281.771815901842</v>
+        <v>7281.774845409006</v>
       </c>
       <c r="L102" t="n">
-        <v>7189.287378806879</v>
+        <v>7189.290408314043</v>
       </c>
       <c r="M102" t="n">
-        <v>7209.573566051529</v>
+        <v>7209.576595558693</v>
       </c>
       <c r="N102" t="n">
-        <v>8874.340445751166</v>
+        <v>8875.067917853024</v>
       </c>
       <c r="O102" t="n">
-        <v>7452.660422929348</v>
+        <v>7452.663452436512</v>
       </c>
     </row>
     <row r="103">
@@ -29882,31 +29882,31 @@
         <v>287.98</v>
       </c>
       <c r="G103" t="n">
-        <v>-363.8267995403821</v>
+        <v>-363.8231251294037</v>
       </c>
       <c r="H103" t="n">
-        <v>7169.293674410977</v>
+        <v>7169.29</v>
       </c>
       <c r="I103" t="n">
-        <v>10413.82679954038</v>
+        <v>10413.8231251294</v>
       </c>
       <c r="J103" t="n">
-        <v>8012.113380729317</v>
+        <v>8012.114840388797</v>
       </c>
       <c r="K103" t="n">
-        <v>7253.352703564688</v>
+        <v>7253.354163224169</v>
       </c>
       <c r="L103" t="n">
-        <v>7179.449463835662</v>
+        <v>7179.450923495142</v>
       </c>
       <c r="M103" t="n">
-        <v>7213.522564109281</v>
+        <v>7213.524023768761</v>
       </c>
       <c r="N103" t="n">
-        <v>9091.758859430587</v>
+        <v>9092.582464541096</v>
       </c>
       <c r="O103" t="n">
-        <v>7371.86979309759</v>
+        <v>7371.87125275707</v>
       </c>
     </row>
     <row r="104">
@@ -29920,31 +29920,31 @@
         <v>287.88</v>
       </c>
       <c r="G104" t="n">
-        <v>-292.9164992152528</v>
+        <v>-292.9182535354867</v>
       </c>
       <c r="H104" t="n">
-        <v>7159.308245679767</v>
+        <v>7159.31</v>
       </c>
       <c r="I104" t="n">
-        <v>10583.61649921525</v>
+        <v>10583.61825353549</v>
       </c>
       <c r="J104" t="n">
-        <v>8057.359724923398</v>
+        <v>8057.356050512421</v>
       </c>
       <c r="K104" t="n">
-        <v>7228.003090048366</v>
+        <v>7227.999415637389</v>
       </c>
       <c r="L104" t="n">
-        <v>7169.295716525212</v>
+        <v>7169.292042114234</v>
       </c>
       <c r="M104" t="n">
-        <v>7225.232624082671</v>
+        <v>7225.228949671693</v>
       </c>
       <c r="N104" t="n">
-        <v>9273.421320860574</v>
+        <v>9274.3222585074</v>
       </c>
       <c r="O104" t="n">
-        <v>7306.374446345771</v>
+        <v>7306.370771934793</v>
       </c>
     </row>
     <row r="105">
@@ -29958,31 +29958,31 @@
         <v>287.78</v>
       </c>
       <c r="G105" t="n">
-        <v>-323.5693489230343</v>
+        <v>-323.5742777912783</v>
       </c>
       <c r="H105" t="n">
-        <v>7149.115071131755</v>
+        <v>7149.12</v>
       </c>
       <c r="I105" t="n">
-        <v>10724.06934892303</v>
+        <v>10724.07427779128</v>
       </c>
       <c r="J105" t="n">
-        <v>8108.215799235165</v>
+        <v>8108.217553555398</v>
       </c>
       <c r="K105" t="n">
-        <v>7205.674187376588</v>
+        <v>7205.675941696821</v>
       </c>
       <c r="L105" t="n">
-        <v>7159.312660768302</v>
+        <v>7159.314415088535</v>
       </c>
       <c r="M105" t="n">
-        <v>7249.054961856312</v>
+        <v>7249.056716176545</v>
       </c>
       <c r="N105" t="n">
-        <v>9402.676665597752</v>
+        <v>9403.642894733082</v>
       </c>
       <c r="O105" t="n">
-        <v>7254.581119840104</v>
+        <v>7254.582874160337</v>
       </c>
     </row>
     <row r="106">
@@ -29996,31 +29996,31 @@
         <v>287.68</v>
       </c>
       <c r="G106" t="n">
-        <v>-215.9917620037959</v>
+        <v>-215.9939425888024</v>
       </c>
       <c r="H106" t="n">
-        <v>7138.297819414993</v>
+        <v>7138.3</v>
       </c>
       <c r="I106" t="n">
-        <v>10832.1917620038</v>
+        <v>10832.1939425888</v>
       </c>
       <c r="J106" t="n">
-        <v>8165.019937895664</v>
+        <v>8165.024866763909</v>
       </c>
       <c r="K106" t="n">
-        <v>7185.519376408123</v>
+        <v>7185.524305276368</v>
       </c>
       <c r="L106" t="n">
-        <v>7149.124404119235</v>
+        <v>7149.12933298748</v>
       </c>
       <c r="M106" t="n">
-        <v>7289.802859284401</v>
+        <v>7289.807788152646</v>
       </c>
       <c r="N106" t="n">
-        <v>9465.774773050955</v>
+        <v>9466.775686313835</v>
       </c>
       <c r="O106" t="n">
-        <v>7213.743793387267</v>
+        <v>7213.748722255512</v>
       </c>
     </row>
     <row r="107">
@@ -30034,31 +30034,31 @@
         <v>287.58</v>
       </c>
       <c r="G107" t="n">
-        <v>-113.9118586758887</v>
+        <v>-113.9102619924579</v>
       </c>
       <c r="H107" t="n">
-        <v>7126.881596683432</v>
+        <v>7126.88</v>
       </c>
       <c r="I107" t="n">
-        <v>10914.71185867589</v>
+        <v>10914.71026199246</v>
       </c>
       <c r="J107" t="n">
-        <v>8228.190543096243</v>
+        <v>8228.19272368125</v>
       </c>
       <c r="K107" t="n">
-        <v>7166.714724057567</v>
+        <v>7166.716904642574</v>
       </c>
       <c r="L107" t="n">
-        <v>7138.317109338531</v>
+        <v>7138.319289923538</v>
       </c>
       <c r="M107" t="n">
-        <v>7353.738952292074</v>
+        <v>7353.741132877081</v>
       </c>
       <c r="N107" t="n">
-        <v>9454.957521334172</v>
+        <v>9455.955686313813</v>
       </c>
       <c r="O107" t="n">
-        <v>7181.104301325566</v>
+        <v>7181.106481910573</v>
       </c>
     </row>
     <row r="108">
@@ -30072,31 +30072,31 @@
         <v>287.48</v>
       </c>
       <c r="G108" t="n">
-        <v>-89.81217908150757</v>
+        <v>-89.81402340229943</v>
       </c>
       <c r="H108" t="n">
-        <v>7114.76815567921</v>
+        <v>7114.77</v>
       </c>
       <c r="I108" t="n">
-        <v>10987.41217908151</v>
+        <v>10987.4140234023</v>
       </c>
       <c r="J108" t="n">
-        <v>8298.730942240547</v>
+        <v>8298.729345557116</v>
       </c>
       <c r="K108" t="n">
-        <v>7148.935098569995</v>
+        <v>7148.933501886562</v>
       </c>
       <c r="L108" t="n">
-        <v>7126.920579565183</v>
+        <v>7126.918982881752</v>
       </c>
       <c r="M108" t="n">
-        <v>7449.072732944334</v>
+        <v>7449.071136260903</v>
       </c>
       <c r="N108" t="n">
-        <v>9370.250016601354</v>
+        <v>9371.21289473302</v>
       </c>
       <c r="O108" t="n">
-        <v>7154.573818364313</v>
+        <v>7154.572221680881</v>
       </c>
     </row>
     <row r="109">
@@ -30110,31 +30110,31 @@
         <v>287.38</v>
       </c>
       <c r="G109" t="n">
-        <v>194.8379771143373</v>
+        <v>194.8347124955453</v>
       </c>
       <c r="H109" t="n">
-        <v>7102.106735381207</v>
+        <v>7102.11</v>
       </c>
       <c r="I109" t="n">
-        <v>11073.66202288566</v>
+        <v>11073.66528750445</v>
       </c>
       <c r="J109" t="n">
-        <v>8377.694755729846</v>
+        <v>8377.696600050636</v>
       </c>
       <c r="K109" t="n">
-        <v>7131.784259097649</v>
+        <v>7131.786103418439</v>
       </c>
       <c r="L109" t="n">
-        <v>7114.845184626342</v>
+        <v>7114.847028947132</v>
       </c>
       <c r="M109" t="n">
-        <v>7585.164615037929</v>
+        <v>7585.166459358719</v>
       </c>
       <c r="N109" t="n">
-        <v>9218.895802128807</v>
+        <v>9219.8022585074</v>
       </c>
       <c r="O109" t="n">
-        <v>7132.26995278786</v>
+        <v>7132.27179710865</v>
       </c>
     </row>
     <row r="110">
@@ -30148,31 +30148,31 @@
         <v>287.28</v>
       </c>
       <c r="G110" t="n">
-        <v>322.7820957822933</v>
+        <v>322.7850097719293</v>
       </c>
       <c r="H110" t="n">
-        <v>7088.582913989636</v>
+        <v>7088.58</v>
       </c>
       <c r="I110" t="n">
-        <v>11200.41790421771</v>
+        <v>11200.41499022807</v>
       </c>
       <c r="J110" t="n">
-        <v>8466.594452422254</v>
+        <v>8466.597717041046</v>
       </c>
       <c r="K110" t="n">
-        <v>7115.160272130998</v>
+        <v>7115.163536749791</v>
       </c>
       <c r="L110" t="n">
-        <v>7102.255558673015</v>
+        <v>7102.258823291808</v>
       </c>
       <c r="M110" t="n">
-        <v>7772.306246692723</v>
+        <v>7772.309511311516</v>
       </c>
       <c r="N110" t="n">
-        <v>9014.417054471154</v>
+        <v>9015.242464540974</v>
       </c>
       <c r="O110" t="n">
-        <v>7112.915477286767</v>
+        <v>7112.91874190556</v>
       </c>
     </row>
     <row r="111">
@@ -30186,31 +30186,31 @@
         <v>287.18</v>
       </c>
       <c r="G111" t="n">
-        <v>426.8131694298972</v>
+        <v>426.808375200244</v>
       </c>
       <c r="H111" t="n">
-        <v>7073.965205770346</v>
+        <v>7073.97</v>
       </c>
       <c r="I111" t="n">
-        <v>11394.5868305701</v>
+        <v>11394.59162479976</v>
       </c>
       <c r="J111" t="n">
-        <v>8566.737691192107</v>
+        <v>8566.734777202471</v>
       </c>
       <c r="K111" t="n">
-        <v>7098.538904760565</v>
+        <v>7098.535990770929</v>
       </c>
       <c r="L111" t="n">
-        <v>7088.86405344218</v>
+        <v>7088.861139452544</v>
       </c>
       <c r="M111" t="n">
-        <v>8019.962387318742</v>
+        <v>8019.959473329106</v>
       </c>
       <c r="N111" t="n">
-        <v>8773.636389247829</v>
+        <v>8774.357917852889</v>
       </c>
       <c r="O111" t="n">
-        <v>7095.106826973676</v>
+        <v>7095.10391298404</v>
       </c>
     </row>
     <row r="112">
@@ -30224,31 +30224,31 @@
         <v>287.08</v>
       </c>
       <c r="G112" t="n">
-        <v>462.8395058610513</v>
+        <v>462.8380216444748</v>
       </c>
       <c r="H112" t="n">
-        <v>7058.348515783424</v>
+        <v>7058.35</v>
       </c>
       <c r="I112" t="n">
-        <v>11678.86049413895</v>
+        <v>11678.86197835553</v>
       </c>
       <c r="J112" t="n">
-        <v>8679.834143892784</v>
+        <v>8679.838938122437</v>
       </c>
       <c r="K112" t="n">
-        <v>7081.514923855465</v>
+        <v>7081.519718085119</v>
       </c>
       <c r="L112" t="n">
-        <v>7074.484483279996</v>
+        <v>7074.48927750965</v>
       </c>
       <c r="M112" t="n">
-        <v>8335.768442854895</v>
+        <v>8335.773237084548</v>
       </c>
       <c r="N112" t="n">
-        <v>8514.57445807146</v>
+        <v>8515.198602796514</v>
       </c>
       <c r="O112" t="n">
-        <v>7077.814127413258</v>
+        <v>7077.818921642912</v>
       </c>
     </row>
     <row r="113">
@@ -30262,31 +30262,31 @@
         <v>286.98</v>
       </c>
       <c r="G113" t="n">
-        <v>342.6842679772399</v>
+        <v>342.6888237777748</v>
       </c>
       <c r="H113" t="n">
-        <v>7041.634555800534</v>
+        <v>7041.63</v>
       </c>
       <c r="I113" t="n">
-        <v>12067.21573202276</v>
+        <v>12067.21117622222</v>
       </c>
       <c r="J113" t="n">
-        <v>8808.315916334726</v>
+        <v>8808.317400551303</v>
       </c>
       <c r="K113" t="n">
-        <v>7064.040555047337</v>
+        <v>7064.042039263913</v>
       </c>
       <c r="L113" t="n">
-        <v>7059.28627606028</v>
+        <v>7059.287760276857</v>
       </c>
       <c r="M113" t="n">
-        <v>8723.77589471449</v>
+        <v>8723.777378931067</v>
       </c>
       <c r="N113" t="n">
-        <v>8254.256551240813</v>
+        <v>8254.772183366013</v>
       </c>
       <c r="O113" t="n">
-        <v>7060.568307643053</v>
+        <v>7060.56979185963</v>
       </c>
     </row>
     <row r="114">
@@ -30300,31 +30300,31 @@
         <v>286.88</v>
       </c>
       <c r="G114" t="n">
-        <v>140.2131393442742</v>
+        <v>140.2129279799974</v>
       </c>
       <c r="H114" t="n">
-        <v>7023.869788635724</v>
+        <v>7023.87</v>
       </c>
       <c r="I114" t="n">
-        <v>12562.28686065573</v>
+        <v>12562.28707202</v>
       </c>
       <c r="J114" t="n">
-        <v>8954.917125238668</v>
+        <v>8954.912569438133</v>
       </c>
       <c r="K114" t="n">
-        <v>7045.901295875148</v>
+        <v>7045.896740074614</v>
       </c>
       <c r="L114" t="n">
-        <v>7043.290250395168</v>
+        <v>7043.285694594634</v>
       </c>
       <c r="M114" t="n">
-        <v>9181.685271089944</v>
+        <v>9181.680715289411</v>
       </c>
       <c r="N114" t="n">
-        <v>8006.406485612071</v>
+        <v>8006.816707081448</v>
       </c>
       <c r="O114" t="n">
-        <v>7042.886143375633</v>
+        <v>7042.881587575099</v>
       </c>
     </row>
     <row r="115">
@@ -30338,31 +30338,31 @@
         <v>286.78</v>
       </c>
       <c r="G115" t="n">
-        <v>-4.838505962065028</v>
+        <v>-4.842130527320478</v>
       </c>
       <c r="H115" t="n">
-        <v>7005.056375434744</v>
+        <v>7005.06</v>
       </c>
       <c r="I115" t="n">
-        <v>13153.73850596206</v>
+        <v>13153.74213052732</v>
       </c>
       <c r="J115" t="n">
-        <v>9123.14070606986</v>
+        <v>9123.140917434137</v>
       </c>
       <c r="K115" t="n">
-        <v>7027.049701931107</v>
+        <v>7027.049913295383</v>
       </c>
       <c r="L115" t="n">
-        <v>7026.727632527622</v>
+        <v>7026.727843891897</v>
       </c>
       <c r="M115" t="n">
-        <v>9699.062815508729</v>
+        <v>9699.063026873006</v>
       </c>
       <c r="N115" t="n">
-        <v>7780.843199053045</v>
+        <v>7781.168850404602</v>
       </c>
       <c r="O115" t="n">
-        <v>7024.559727457255</v>
+        <v>7024.559938821531</v>
       </c>
     </row>
     <row r="116">
@@ -30376,31 +30376,31 @@
         <v>286.68</v>
       </c>
       <c r="G116" t="n">
-        <v>-34.08988807628157</v>
+        <v>-34.08846503912173</v>
       </c>
       <c r="H116" t="n">
-        <v>6984.851423037162</v>
+        <v>6984.85</v>
       </c>
       <c r="I116" t="n">
-        <v>13818.48988807628</v>
+        <v>13818.48846503912</v>
       </c>
       <c r="J116" t="n">
-        <v>9317.238368799239</v>
+        <v>9317.241993364494</v>
       </c>
       <c r="K116" t="n">
-        <v>7007.412641304823</v>
+        <v>7007.416265870079</v>
       </c>
       <c r="L116" t="n">
-        <v>7009.878418724475</v>
+        <v>7009.882043289731</v>
       </c>
       <c r="M116" t="n">
-        <v>10255.69386214676</v>
+        <v>10255.69748671202</v>
       </c>
       <c r="N116" t="n">
-        <v>7583.157654189032</v>
+        <v>7583.409817567166</v>
       </c>
       <c r="O116" t="n">
-        <v>7005.428233693189</v>
+        <v>7005.431858258446</v>
       </c>
     </row>
     <row r="117">
@@ -30414,31 +30414,31 @@
         <v>286.58</v>
       </c>
       <c r="G117" t="n">
-        <v>-382.5816684364272</v>
+        <v>-382.5774973514108</v>
       </c>
       <c r="H117" t="n">
-        <v>6962.754171085016</v>
+        <v>6962.75</v>
       </c>
       <c r="I117" t="n">
-        <v>14523.68166843643</v>
+        <v>14523.67749735141</v>
       </c>
       <c r="J117" t="n">
-        <v>9542.133685525008</v>
+        <v>9542.132262487848</v>
       </c>
       <c r="K117" t="n">
-        <v>6986.587311918872</v>
+        <v>6986.58588888171</v>
       </c>
       <c r="L117" t="n">
-        <v>6992.804061560997</v>
+        <v>6992.802638523835</v>
       </c>
       <c r="M117" t="n">
-        <v>10821.10417261114</v>
+        <v>10821.10274957397</v>
       </c>
       <c r="N117" t="n">
-        <v>7414.890618446851</v>
+        <v>7415.074078984671</v>
       </c>
       <c r="O117" t="n">
-        <v>6985.047385508388</v>
+        <v>6985.045962471227</v>
       </c>
     </row>
     <row r="118">
@@ -30452,31 +30452,31 @@
         <v>286.48</v>
       </c>
       <c r="G118" t="n">
-        <v>-497.8121908869107</v>
+        <v>-497.812107546004</v>
       </c>
       <c r="H118" t="n">
-        <v>6938.900083340905</v>
+        <v>6938.9</v>
       </c>
       <c r="I118" t="n">
-        <v>15232.51219088691</v>
+        <v>15232.512107546</v>
       </c>
       <c r="J118" t="n">
-        <v>9803.908849888623</v>
+        <v>9803.904678803607</v>
       </c>
       <c r="K118" t="n">
-        <v>6964.025642162357</v>
+        <v>6964.021471077341</v>
       </c>
       <c r="L118" t="n">
-        <v>6975.572123122192</v>
+        <v>6975.567952037176</v>
       </c>
       <c r="M118" t="n">
-        <v>11356.37949665926</v>
+        <v>11356.37532557424</v>
       </c>
       <c r="N118" t="n">
-        <v>7274.554111821115</v>
+        <v>7274.683990581643</v>
       </c>
       <c r="O118" t="n">
-        <v>6962.855143612213</v>
+        <v>6962.850972527197</v>
       </c>
     </row>
     <row r="119">
@@ -30490,31 +30490,31 @@
         <v>286.38</v>
       </c>
       <c r="G119" t="n">
-        <v>-553.5322981622339</v>
+        <v>-553.5298755302429</v>
       </c>
       <c r="H119" t="n">
-        <v>6913.28242263199</v>
+        <v>6913.28</v>
       </c>
       <c r="I119" t="n">
-        <v>15910.33229816223</v>
+        <v>15910.32987553024</v>
       </c>
       <c r="J119" t="n">
-        <v>10111.00418642181</v>
+        <v>10111.0041030809</v>
       </c>
       <c r="K119" t="n">
-        <v>6939.826008727441</v>
+        <v>6939.825925386536</v>
       </c>
       <c r="L119" t="n">
-        <v>6959.087327400956</v>
+        <v>6959.087244060051</v>
       </c>
       <c r="M119" t="n">
-        <v>11818.62741920156</v>
+        <v>11818.62733586066</v>
       </c>
       <c r="N119" t="n">
-        <v>7159.374394509776</v>
+        <v>7159.469098061032</v>
       </c>
       <c r="O119" t="n">
-        <v>6938.95095438398</v>
+        <v>6938.950871043075</v>
       </c>
     </row>
     <row r="120">
@@ -30528,31 +30528,31 @@
         <v>286.28</v>
       </c>
       <c r="G120" t="n">
-        <v>-343.8076690504859</v>
+        <v>-343.8045904848695</v>
       </c>
       <c r="H120" t="n">
-        <v>6885.443078565619</v>
+        <v>6885.44</v>
       </c>
       <c r="I120" t="n">
-        <v>16532.10766905049</v>
+        <v>16532.10459048487</v>
       </c>
       <c r="J120" t="n">
-        <v>10473.9949490476</v>
+        <v>10473.99252641561</v>
       </c>
       <c r="K120" t="n">
-        <v>6913.952813644923</v>
+        <v>6913.950391012933</v>
       </c>
       <c r="L120" t="n">
-        <v>6944.341699928716</v>
+        <v>6944.339277296725</v>
       </c>
       <c r="M120" t="n">
-        <v>12165.61644055388</v>
+        <v>12165.61401792189</v>
       </c>
       <c r="N120" t="n">
-        <v>7065.396991988719</v>
+        <v>7065.459966850004</v>
       </c>
       <c r="O120" t="n">
-        <v>6913.30748223822</v>
+        <v>6913.30505960623</v>
       </c>
     </row>
     <row r="121">
@@ -30566,31 +30566,31 @@
         <v>286.18</v>
       </c>
       <c r="G121" t="n">
-        <v>-529.8038986795109</v>
+        <v>-529.8001899789815</v>
       </c>
       <c r="H121" t="n">
-        <v>6855.083708700529</v>
+        <v>6855.08</v>
       </c>
       <c r="I121" t="n">
-        <v>17090.40389867951</v>
+        <v>17090.40018997898</v>
       </c>
       <c r="J121" t="n">
-        <v>10906.05223794101</v>
+        <v>10906.04915937539</v>
       </c>
       <c r="K121" t="n">
-        <v>6885.925648864069</v>
+        <v>6885.92257029845</v>
       </c>
       <c r="L121" t="n">
-        <v>6932.113817553623</v>
+        <v>6932.110738988004</v>
       </c>
       <c r="M121" t="n">
-        <v>12361.75484665886</v>
+        <v>12361.75176809324</v>
       </c>
       <c r="N121" t="n">
-        <v>6987.890136885616</v>
+        <v>6987.931102627099</v>
       </c>
       <c r="O121" t="n">
-        <v>6885.455148657973</v>
+        <v>6885.452070092354</v>
       </c>
     </row>
     <row r="122">
@@ -30604,31 +30604,31 @@
         <v>286.08</v>
       </c>
       <c r="G122" t="n">
-        <v>-163.7514258055126</v>
+        <v>-163.7546910437486</v>
       </c>
       <c r="H122" t="n">
-        <v>6822.546734761765</v>
+        <v>6822.55</v>
       </c>
       <c r="I122" t="n">
-        <v>17601.55142580551</v>
+        <v>17601.55469104375</v>
       </c>
       <c r="J122" t="n">
-        <v>11424.63677537543</v>
+        <v>11424.6330666749</v>
       </c>
       <c r="K122" t="n">
-        <v>6855.42906752097</v>
+        <v>6855.42535882044</v>
       </c>
       <c r="L122" t="n">
-        <v>6923.552892103214</v>
+        <v>6923.549183402684</v>
       </c>
       <c r="M122" t="n">
-        <v>12384.52233058452</v>
+        <v>12384.51862188399</v>
       </c>
       <c r="N122" t="n">
-        <v>6922.458831643679</v>
+        <v>6922.484089032119</v>
       </c>
       <c r="O122" t="n">
-        <v>6855.089392965074</v>
+        <v>6855.085684264544</v>
       </c>
     </row>
     <row r="123">
@@ -30642,31 +30642,31 @@
         <v>285.98</v>
       </c>
       <c r="G123" t="n">
-        <v>-2.603356038041966</v>
+        <v>-2.599254649125214</v>
       </c>
       <c r="H123" t="n">
-        <v>6787.674101388919</v>
+        <v>6787.67</v>
       </c>
       <c r="I123" t="n">
-        <v>18107.70335603804</v>
+        <v>18107.69925464912</v>
       </c>
       <c r="J123" t="n">
-        <v>12053.5239304921</v>
+        <v>12053.52719573034</v>
       </c>
       <c r="K123" t="n">
-        <v>6822.792463119637</v>
+        <v>6822.795728357872</v>
       </c>
       <c r="L123" t="n">
-        <v>6920.579855379372</v>
+        <v>6920.583120617607</v>
       </c>
       <c r="M123" t="n">
-        <v>12228.87197070883</v>
+        <v>12228.87523594706</v>
       </c>
       <c r="N123" t="n">
-        <v>6865.828009518087</v>
+        <v>6865.8498823551</v>
       </c>
       <c r="O123" t="n">
-        <v>6822.549352091011</v>
+        <v>6822.552617329246</v>
       </c>
     </row>
     <row r="124">
@@ -30680,31 +30680,31 @@
         <v>285.88</v>
       </c>
       <c r="G124" t="n">
-        <v>-90.21186874834893</v>
+        <v>-90.21161201065115</v>
       </c>
       <c r="H124" t="n">
-        <v>6750.140256737697</v>
+        <v>6750.14</v>
       </c>
       <c r="I124" t="n">
-        <v>18678.01186874835</v>
+        <v>18678.01161201065</v>
       </c>
       <c r="J124" t="n">
-        <v>12823.89817635221</v>
+        <v>12823.89407496329</v>
       </c>
       <c r="K124" t="n">
-        <v>6787.847926234871</v>
+        <v>6787.843824845952</v>
       </c>
       <c r="L124" t="n">
-        <v>6924.59729504974</v>
+        <v>6924.593193660821</v>
       </c>
       <c r="M124" t="n">
-        <v>11907.06583496975</v>
+        <v>11907.06173358083</v>
       </c>
       <c r="N124" t="n">
-        <v>6814.838901143935</v>
+        <v>6814.846478516734</v>
       </c>
       <c r="O124" t="n">
-        <v>6787.675279685716</v>
+        <v>6787.671178296798</v>
       </c>
     </row>
     <row r="125">
@@ -30718,31 +30718,31 @@
         <v>285.78</v>
       </c>
       <c r="G125" t="n">
-        <v>603.1278906178122</v>
+        <v>603.1304205666893</v>
       </c>
       <c r="H125" t="n">
-        <v>6710.272529948879</v>
+        <v>6710.27</v>
       </c>
       <c r="I125" t="n">
-        <v>19409.17210938219</v>
+        <v>19409.16957943331</v>
       </c>
       <c r="J125" t="n">
-        <v>13777.97506141676</v>
+        <v>13777.97480467906</v>
       </c>
       <c r="K125" t="n">
-        <v>6750.262503474127</v>
+        <v>6750.26224673643</v>
       </c>
       <c r="L125" t="n">
-        <v>6936.595381316779</v>
+        <v>6936.595124579082</v>
       </c>
       <c r="M125" t="n">
-        <v>11446.77170067261</v>
+        <v>11446.77144393491</v>
       </c>
       <c r="N125" t="n">
-        <v>6766.801379639043</v>
+        <v>6766.808285894856</v>
       </c>
       <c r="O125" t="n">
-        <v>6750.140775363711</v>
+        <v>6750.140518626014</v>
       </c>
     </row>
     <row r="126">
@@ -30756,31 +30756,31 @@
         <v>285.68</v>
       </c>
       <c r="G126" t="n">
-        <v>811.4329002271297</v>
+        <v>811.4281063331291</v>
       </c>
       <c r="H126" t="n">
-        <v>6666.745206106001</v>
+        <v>6666.75</v>
       </c>
       <c r="I126" t="n">
-        <v>20423.96709977287</v>
+        <v>20423.97189366687</v>
       </c>
       <c r="J126" t="n">
-        <v>14974.73980639917</v>
+        <v>14974.73727645029</v>
       </c>
       <c r="K126" t="n">
-        <v>6710.358002854901</v>
+        <v>6710.355472906022</v>
       </c>
       <c r="L126" t="n">
-        <v>6957.671559811476</v>
+        <v>6957.669029862597</v>
       </c>
       <c r="M126" t="n">
-        <v>10887.04483498662</v>
+        <v>10887.04230503774</v>
       </c>
       <c r="N126" t="n">
-        <v>6720.26013272426</v>
+        <v>6720.261896671674</v>
       </c>
       <c r="O126" t="n">
-        <v>6710.272753124895</v>
+        <v>6710.270223176016</v>
       </c>
     </row>
     <row r="127">
@@ -30794,31 +30794,31 @@
         <v>285.58</v>
       </c>
       <c r="G127" t="n">
-        <v>566.0369777126834</v>
+        <v>566.0385985376633</v>
       </c>
       <c r="H127" t="n">
-        <v>6618.56162082498</v>
+        <v>6618.56</v>
       </c>
       <c r="I127" t="n">
-        <v>21878.26302228732</v>
+        <v>21878.26140146234</v>
       </c>
       <c r="J127" t="n">
-        <v>16495.1169506068</v>
+        <v>16495.1217445008</v>
       </c>
       <c r="K127" t="n">
-        <v>6666.804619221082</v>
+        <v>6666.809413115081</v>
       </c>
       <c r="L127" t="n">
-        <v>6986.376476255376</v>
+        <v>6986.381270149374</v>
       </c>
       <c r="M127" t="n">
-        <v>10269.83761586576</v>
+        <v>10269.84240975976</v>
       </c>
       <c r="N127" t="n">
-        <v>6672.597561974966</v>
+        <v>6672.604871929097</v>
       </c>
       <c r="O127" t="n">
-        <v>6666.745299997071</v>
+        <v>6666.75009389107</v>
       </c>
     </row>
     <row r="128">
@@ -30832,31 +30832,31 @@
         <v>285.48</v>
       </c>
       <c r="G128" t="n">
-        <v>330.5781198992008</v>
+        <v>330.5818389408014</v>
       </c>
       <c r="H128" t="n">
-        <v>6565.773719041601</v>
+        <v>6565.77</v>
       </c>
       <c r="I128" t="n">
-        <v>23974.6218801008</v>
+        <v>23974.6181610592</v>
       </c>
       <c r="J128" t="n">
-        <v>18455.49127856958</v>
+        <v>18455.4896577446</v>
       </c>
       <c r="K128" t="n">
-        <v>6618.602678625904</v>
+        <v>6618.601057800924</v>
       </c>
       <c r="L128" t="n">
-        <v>7020.353685407464</v>
+        <v>7020.352064582484</v>
       </c>
       <c r="M128" t="n">
-        <v>9635.900993903871</v>
+        <v>9635.899373078892</v>
       </c>
       <c r="N128" t="n">
-        <v>6621.914003397887</v>
+        <v>6621.913823837986</v>
       </c>
       <c r="O128" t="n">
-        <v>6618.561659441599</v>
+        <v>6618.560038616619</v>
       </c>
     </row>
     <row r="129">
@@ -30870,31 +30870,31 @@
         <v>285.38</v>
       </c>
       <c r="G129" t="n">
-        <v>-54.51538638257625</v>
+        <v>-54.51591465593447</v>
       </c>
       <c r="H129" t="n">
-        <v>6506.939471726639</v>
+        <v>6506.94</v>
       </c>
       <c r="I129" t="n">
-        <v>26985.11538638257</v>
+        <v>26985.11591465593</v>
       </c>
       <c r="J129" t="n">
-        <v>21026.46422915679</v>
+        <v>21026.46051011519</v>
       </c>
       <c r="K129" t="n">
-        <v>6565.801926592933</v>
+        <v>6565.798207551333</v>
       </c>
       <c r="L129" t="n">
-        <v>7056.802394132438</v>
+        <v>7056.798675090838</v>
       </c>
       <c r="M129" t="n">
-        <v>9020.713820903853</v>
+        <v>9020.710101862252</v>
       </c>
       <c r="N129" t="n">
-        <v>6567.651134785688</v>
+        <v>6567.648222887571</v>
       </c>
       <c r="O129" t="n">
-        <v>6565.773734568576</v>
+        <v>6565.770015526976</v>
       </c>
     </row>
     <row r="130">
@@ -30908,31 +30908,31 @@
         <v>285.28</v>
       </c>
       <c r="G130" t="n">
-        <v>-1009.011310866699</v>
+        <v>-1009.007992402043</v>
       </c>
       <c r="H130" t="n">
-        <v>6439.473318464657</v>
+        <v>6439.47</v>
       </c>
       <c r="I130" t="n">
-        <v>31295.2113108667</v>
+        <v>31295.20799240204</v>
       </c>
       <c r="J130" t="n">
-        <v>24458.68118009762</v>
+        <v>24458.68170837098</v>
       </c>
       <c r="K130" t="n">
-        <v>6506.958737580429</v>
+        <v>6506.959265853789</v>
       </c>
       <c r="L130" t="n">
-        <v>7089.859353575767</v>
+        <v>7089.859881849128</v>
       </c>
       <c r="M130" t="n">
-        <v>8449.084699278817</v>
+        <v>8449.085227552179</v>
       </c>
       <c r="N130" t="n">
-        <v>6507.967425404968</v>
+        <v>6507.968395618861</v>
       </c>
       <c r="O130" t="n">
-        <v>6506.939477829755</v>
+        <v>6506.940006103116</v>
       </c>
     </row>
     <row r="131">
@@ -30946,31 +30946,31 @@
         <v>285.18</v>
       </c>
       <c r="G131" t="n">
-        <v>-1682.269897602717</v>
+        <v>-1682.26711195078</v>
       </c>
       <c r="H131" t="n">
-        <v>6360.042785651938</v>
+        <v>6360.04</v>
       </c>
       <c r="I131" t="n">
-        <v>37471.66989760272</v>
+        <v>37471.66711195078</v>
       </c>
       <c r="J131" t="n">
-        <v>29127.44760196243</v>
+        <v>29127.44428349777</v>
       </c>
       <c r="K131" t="n">
-        <v>6439.486400072886</v>
+        <v>6439.483081608229</v>
       </c>
       <c r="L131" t="n">
-        <v>7111.143478676378</v>
+        <v>7111.140160211721</v>
       </c>
       <c r="M131" t="n">
-        <v>7934.643492626878</v>
+        <v>7934.640174162219</v>
       </c>
       <c r="N131" t="n">
-        <v>6440.02362929202</v>
+        <v>6440.020547418432</v>
       </c>
       <c r="O131" t="n">
-        <v>6439.473320809739</v>
+        <v>6439.470002345081</v>
       </c>
     </row>
     <row r="132">
@@ -30984,31 +30984,31 @@
         <v>285.08</v>
       </c>
       <c r="G132" t="n">
-        <v>-2026.010416937817</v>
+        <v>-2026.010361217166</v>
       </c>
       <c r="H132" t="n">
-        <v>6262.250055720649</v>
+        <v>6262.25</v>
       </c>
       <c r="I132" t="n">
-        <v>46349.61041693782</v>
+        <v>46349.61036121716</v>
       </c>
       <c r="J132" t="n">
-        <v>35599.3995414595</v>
+        <v>35599.39675580756</v>
       </c>
       <c r="K132" t="n">
-        <v>6360.051616062035</v>
+        <v>6360.048830410096</v>
       </c>
       <c r="L132" t="n">
-        <v>7110.664060136663</v>
+        <v>7110.661274484724</v>
       </c>
       <c r="M132" t="n">
-        <v>7481.000718214415</v>
+        <v>7480.997932562477</v>
       </c>
       <c r="N132" t="n">
-        <v>6360.330839400497</v>
+        <v>6360.328177589379</v>
       </c>
       <c r="O132" t="n">
-        <v>6360.042786532775</v>
+        <v>6360.040000880836</v>
       </c>
     </row>
     <row r="133">
@@ -31022,31 +31022,31 @@
         <v>284.98</v>
       </c>
       <c r="G133" t="n">
-        <v>-1322.548807195519</v>
+        <v>-1322.552041129027</v>
       </c>
       <c r="H133" t="n">
-        <v>6134.846766066486</v>
+        <v>6134.85</v>
       </c>
       <c r="I133" t="n">
-        <v>59098.34880719552</v>
+        <v>59098.35204112903</v>
       </c>
       <c r="J133" t="n">
-        <v>44717.0068556998</v>
+        <v>44717.00679997915</v>
       </c>
       <c r="K133" t="n">
-        <v>6262.255981484461</v>
+        <v>6262.255925763812</v>
       </c>
       <c r="L133" t="n">
-        <v>7075.304502894335</v>
+        <v>7075.304447173687</v>
       </c>
       <c r="M133" t="n">
-        <v>7081.224510724392</v>
+        <v>7081.224455003743</v>
       </c>
       <c r="N133" t="n">
-        <v>6262.397481998398</v>
+        <v>6262.397489659639</v>
       </c>
       <c r="O133" t="n">
-        <v>6262.250056044059</v>
+        <v>6262.25000032341</v>
       </c>
     </row>
     <row r="134">
@@ -31060,31 +31060,31 @@
         <v>284.88</v>
       </c>
       <c r="G134" t="n">
-        <v>574.1885921624635</v>
+        <v>574.1845555854961</v>
       </c>
       <c r="H134" t="n">
-        <v>5960.075963423033</v>
+        <v>5960.08</v>
       </c>
       <c r="I134" t="n">
-        <v>77068.31140783754</v>
+        <v>77068.3154444145</v>
       </c>
       <c r="J134" t="n">
-        <v>57661.23265638603</v>
+        <v>57661.23589031953</v>
       </c>
       <c r="K134" t="n">
-        <v>6134.850719263278</v>
+        <v>6134.853953196792</v>
       </c>
       <c r="L134" t="n">
-        <v>6988.010248197375</v>
+        <v>6988.013482130889</v>
       </c>
       <c r="M134" t="n">
-        <v>6718.283620770493</v>
+        <v>6718.286854704007</v>
       </c>
       <c r="N134" t="n">
-        <v>6134.920541775871</v>
+        <v>6134.923807427232</v>
       </c>
       <c r="O134" t="n">
-        <v>6134.846766182557</v>
+        <v>6134.850000116071</v>
       </c>
     </row>
     <row r="135">
@@ -31098,31 +31098,31 @@
         <v>284.78</v>
       </c>
       <c r="G135" t="n">
-        <v>2760.544751813868</v>
+        <v>2760.548453118085</v>
       </c>
       <c r="H135" t="n">
-        <v>5712.92370130422</v>
+        <v>5712.92</v>
       </c>
       <c r="I135" t="n">
-        <v>100811.4552481861</v>
+        <v>100811.4515468819</v>
       </c>
       <c r="J135" t="n">
-        <v>75795.33420386154</v>
+        <v>75795.3382404385</v>
       </c>
       <c r="K135" t="n">
-        <v>5960.078585165937</v>
+        <v>5960.082621742903</v>
       </c>
       <c r="L135" t="n">
-        <v>6827.075963423033</v>
+        <v>6827.08</v>
       </c>
       <c r="M135" t="n">
-        <v>6365.571973214682</v>
+        <v>6365.576009791648</v>
       </c>
       <c r="N135" t="n">
-        <v>5960.112061767033</v>
+        <v>5960.116113863493</v>
       </c>
       <c r="O135" t="n">
-        <v>5960.075963463752</v>
+        <v>5960.080000040719</v>
       </c>
     </row>
     <row r="136">
@@ -31136,31 +31136,31 @@
         <v>284.68</v>
       </c>
       <c r="G136" t="n">
-        <v>1521.271502195654</v>
+        <v>1521.276344688114</v>
       </c>
       <c r="H136" t="n">
-        <v>5369.084842492464</v>
+        <v>5369.08</v>
       </c>
       <c r="I136" t="n">
-        <v>127258.7284978043</v>
+        <v>127258.7236553119</v>
       </c>
       <c r="J136" t="n">
-        <v>99682.76936434275</v>
+        <v>99682.76566303853</v>
       </c>
       <c r="K136" t="n">
-        <v>5712.92542979201</v>
+        <v>5712.92172848779</v>
       </c>
       <c r="L136" t="n">
-        <v>6566.087183435109</v>
+        <v>6566.083482130889</v>
       </c>
       <c r="M136" t="n">
-        <v>5987.993486104028</v>
+        <v>5987.989784799808</v>
       </c>
       <c r="N136" t="n">
-        <v>5712.940971309778</v>
+        <v>5712.937277430324</v>
       </c>
       <c r="O136" t="n">
-        <v>5712.923701318183</v>
+        <v>5712.920000013963</v>
       </c>
     </row>
     <row r="137">
@@ -31174,31 +31174,31 @@
         <v>284.58</v>
       </c>
       <c r="G137" t="n">
-        <v>-1906.677872622473</v>
+        <v>-1906.68157899924</v>
       </c>
       <c r="H137" t="n">
-        <v>4926.11629362323</v>
+        <v>4926.12</v>
       </c>
       <c r="I137" t="n">
-        <v>146321.6778726225</v>
+        <v>146321.6815789992</v>
       </c>
       <c r="J137" t="n">
-        <v>126263.0617899481</v>
+        <v>126263.0569474556</v>
       </c>
       <c r="K137" t="n">
-        <v>5369.085975346873</v>
+        <v>5369.081132854409</v>
       </c>
       <c r="L137" t="n">
-        <v>6182.139289666151</v>
+        <v>6182.134447173687</v>
       </c>
       <c r="M137" t="n">
-        <v>5551.275815116463</v>
+        <v>5551.270972623999</v>
       </c>
       <c r="N137" t="n">
-        <v>5369.092920850026</v>
+        <v>5369.08808183063</v>
       </c>
       <c r="O137" t="n">
-        <v>5369.084842497144</v>
+        <v>5369.080000004679</v>
       </c>
     </row>
     <row r="138">
@@ -31212,31 +31212,31 @@
         <v>284.48</v>
       </c>
       <c r="G138" t="n">
-        <v>-2212.401902578044</v>
+        <v>-2212.401698549627</v>
       </c>
       <c r="H138" t="n">
-        <v>4422.930204028402</v>
+        <v>4422.93</v>
       </c>
       <c r="I138" t="n">
-        <v>145047.401902578</v>
+        <v>145047.4016985496</v>
       </c>
       <c r="J138" t="n">
-        <v>145452.810103079</v>
+        <v>145452.8138094558</v>
       </c>
       <c r="K138" t="n">
-        <v>4926.117031715264</v>
+        <v>4926.120738092033</v>
       </c>
       <c r="L138" t="n">
-        <v>5676.737568107955</v>
+        <v>5676.741274484724</v>
       </c>
       <c r="M138" t="n">
-        <v>5043.978649438857</v>
+        <v>5043.982355815627</v>
       </c>
       <c r="N138" t="n">
-        <v>4926.119988259807</v>
+        <v>4926.123696224984</v>
       </c>
       <c r="O138" t="n">
-        <v>4926.116293624763</v>
+        <v>4926.120000001532</v>
       </c>
     </row>
     <row r="139">
@@ -31250,31 +31250,31 @@
         <v>284.38</v>
       </c>
       <c r="G139" t="n">
-        <v>194.5566976725531</v>
+        <v>194.5616292276391</v>
       </c>
       <c r="H139" t="n">
-        <v>3937.29493155508</v>
+        <v>3937.29</v>
       </c>
       <c r="I139" t="n">
-        <v>120842.4433023274</v>
+        <v>120842.4383707724</v>
       </c>
       <c r="J139" t="n">
-        <v>144300.8999501001</v>
+        <v>144300.8997460717</v>
       </c>
       <c r="K139" t="n">
-        <v>4422.930682077704</v>
+        <v>4422.930478049302</v>
       </c>
       <c r="L139" t="n">
-        <v>5094.600364240123</v>
+        <v>5094.600160211721</v>
       </c>
       <c r="M139" t="n">
-        <v>4497.420545106985</v>
+        <v>4497.420341078583</v>
       </c>
       <c r="N139" t="n">
-        <v>4422.931856104398</v>
+        <v>4422.931652786262</v>
       </c>
       <c r="O139" t="n">
-        <v>4422.930204028893</v>
+        <v>4422.930000000491</v>
       </c>
     </row>
     <row r="140">
@@ -31288,31 +31288,31 @@
         <v>284.28</v>
       </c>
       <c r="G140" t="n">
-        <v>2636.306287984975</v>
+        <v>2636.304828945955</v>
       </c>
       <c r="H140" t="n">
-        <v>3541.438540960987</v>
+        <v>3541.44</v>
       </c>
       <c r="I140" t="n">
-        <v>89393.89371201502</v>
+        <v>89393.89517105404</v>
       </c>
       <c r="J140" t="n">
-        <v>120213.2245059838</v>
+        <v>120213.2195744287</v>
       </c>
       <c r="K140" t="n">
-        <v>3937.295239347398</v>
+        <v>3937.290307792319</v>
       </c>
       <c r="L140" t="n">
-        <v>4520.214813404208</v>
+        <v>4520.209881849129</v>
       </c>
       <c r="M140" t="n">
-        <v>3983.298599988512</v>
+        <v>3983.293668433433</v>
       </c>
       <c r="N140" t="n">
-        <v>3937.295653807063</v>
+        <v>3937.290722562496</v>
       </c>
       <c r="O140" t="n">
-        <v>3937.294931555233</v>
+        <v>3937.290000000154</v>
       </c>
     </row>
     <row r="141">
@@ -31326,31 +31326,31 @@
         <v>284.18</v>
       </c>
       <c r="G141" t="n">
-        <v>2241.870893403466</v>
+        <v>2241.87063380795</v>
       </c>
       <c r="H141" t="n">
-        <v>3256.479740404487</v>
+        <v>3256.48</v>
       </c>
       <c r="I141" t="n">
-        <v>62940.62910659653</v>
+        <v>62940.62936619205</v>
       </c>
       <c r="J141" t="n">
-        <v>88874.85007656901</v>
+        <v>88874.85153560803</v>
       </c>
       <c r="K141" t="n">
-        <v>3541.438737959525</v>
+        <v>3541.440196998539</v>
       </c>
       <c r="L141" t="n">
-        <v>4032.467216051824</v>
+        <v>4032.468675090838</v>
       </c>
       <c r="M141" t="n">
-        <v>3569.20531829998</v>
+        <v>3569.206777338994</v>
       </c>
       <c r="N141" t="n">
-        <v>3541.438849662034</v>
+        <v>3541.440308833764</v>
       </c>
       <c r="O141" t="n">
-        <v>3541.438540961034</v>
+        <v>3541.440000000047</v>
       </c>
     </row>
     <row r="142">
@@ -31364,31 +31364,31 @@
         <v>284.08</v>
       </c>
       <c r="G142" t="n">
-        <v>636.4515485497468</v>
+        <v>636.4491909250719</v>
       </c>
       <c r="H142" t="n">
-        <v>3065.087642375328</v>
+        <v>3065.09</v>
       </c>
       <c r="I142" t="n">
-        <v>44192.74845145025</v>
+        <v>44192.75080907493</v>
       </c>
       <c r="J142" t="n">
-        <v>62522.25261062951</v>
+        <v>62522.25287022503</v>
       </c>
       <c r="K142" t="n">
-        <v>3256.479865743318</v>
+        <v>3256.480125338832</v>
       </c>
       <c r="L142" t="n">
-        <v>3658.27180498697</v>
+        <v>3658.272064582483</v>
       </c>
       <c r="M142" t="n">
-        <v>3272.861343058509</v>
+        <v>3272.861602654022</v>
       </c>
       <c r="N142" t="n">
-        <v>3256.479869398015</v>
+        <v>3256.480129048985</v>
       </c>
       <c r="O142" t="n">
-        <v>3256.479740404501</v>
+        <v>3256.480000000014</v>
       </c>
     </row>
     <row r="143">
@@ -31402,31 +31402,31 @@
         <v>283.98</v>
       </c>
       <c r="G143" t="n">
-        <v>-776.2048710909949</v>
+        <v>-776.2087360784681</v>
       </c>
       <c r="H143" t="n">
-        <v>2939.586135012528</v>
+        <v>2939.59</v>
       </c>
       <c r="I143" t="n">
-        <v>31675.104871091</v>
+        <v>31675.10873607847</v>
       </c>
       <c r="J143" t="n">
-        <v>43863.50817461625</v>
+        <v>43863.51053224092</v>
       </c>
       <c r="K143" t="n">
-        <v>3065.087721647913</v>
+        <v>3065.090079272585</v>
       </c>
       <c r="L143" t="n">
-        <v>3384.718912524702</v>
+        <v>3384.721270149375</v>
       </c>
       <c r="M143" t="n">
-        <v>3074.535418036349</v>
+        <v>3074.537775661021</v>
       </c>
       <c r="N143" t="n">
-        <v>3065.087695070131</v>
+        <v>3065.090052717458</v>
       </c>
       <c r="O143" t="n">
-        <v>3065.087642375333</v>
+        <v>3065.090000000004</v>
       </c>
     </row>
     <row r="144">
@@ -31440,31 +31440,31 @@
         <v>283.88</v>
       </c>
       <c r="G144" t="n">
-        <v>-1334.186032396519</v>
+        <v>-1334.182425836683</v>
       </c>
       <c r="H144" t="n">
-        <v>2856.393606559836</v>
+        <v>2856.39</v>
       </c>
       <c r="I144" t="n">
-        <v>23391.08603239652</v>
+        <v>23391.08242583668</v>
       </c>
       <c r="J144" t="n">
-        <v>31422.25415683916</v>
+        <v>31422.25802182663</v>
       </c>
       <c r="K144" t="n">
-        <v>2939.586184851894</v>
+        <v>2939.590049839367</v>
       </c>
       <c r="L144" t="n">
-        <v>3186.985164875125</v>
+        <v>3186.989029862597</v>
       </c>
       <c r="M144" t="n">
-        <v>2944.913084284083</v>
+        <v>2944.916949271555</v>
       </c>
       <c r="N144" t="n">
-        <v>2939.586156056473</v>
+        <v>2939.590021052992</v>
       </c>
       <c r="O144" t="n">
-        <v>2939.586135012529</v>
+        <v>2939.590000000002</v>
       </c>
     </row>
     <row r="145">
@@ -31478,31 +31478,31 @@
         <v>283.78</v>
       </c>
       <c r="G145" t="n">
-        <v>-1274.584800493001</v>
+        <v>-1274.588235708143</v>
       </c>
       <c r="H145" t="n">
-        <v>2799.106564784858</v>
+        <v>2799.11</v>
       </c>
       <c r="I145" t="n">
-        <v>17836.884800493</v>
+        <v>17836.88823570814</v>
       </c>
       <c r="J145" t="n">
-        <v>23201.60044361517</v>
+        <v>23201.59683705533</v>
       </c>
       <c r="K145" t="n">
-        <v>2856.393637707937</v>
+        <v>2856.3900311481</v>
       </c>
       <c r="L145" t="n">
-        <v>3042.848731138918</v>
+        <v>3042.845124579082</v>
       </c>
       <c r="M145" t="n">
-        <v>2859.330092328704</v>
+        <v>2859.326485768867</v>
       </c>
       <c r="N145" t="n">
-        <v>2856.393614775364</v>
+        <v>2856.39000821906</v>
       </c>
       <c r="O145" t="n">
-        <v>2856.393606559837</v>
+        <v>2856.39</v>
       </c>
     </row>
     <row r="146">
@@ -31516,31 +31516,31 @@
         <v>283.68</v>
       </c>
       <c r="G146" t="n">
-        <v>-1112.932611870283</v>
+        <v>-1112.934754753438</v>
       </c>
       <c r="H146" t="n">
-        <v>2757.937857116845</v>
+        <v>2757.94</v>
       </c>
       <c r="I146" t="n">
-        <v>14032.73261187028</v>
+        <v>14032.73475475344</v>
       </c>
       <c r="J146" t="n">
-        <v>17698.30992257877</v>
+        <v>17698.31335779391</v>
       </c>
       <c r="K146" t="n">
-        <v>2799.106584135602</v>
+        <v>2799.110019350744</v>
       </c>
       <c r="L146" t="n">
-        <v>2936.02975844568</v>
+        <v>2936.033193660822</v>
       </c>
       <c r="M146" t="n">
-        <v>2800.689250741764</v>
+        <v>2800.692685956906</v>
       </c>
       <c r="N146" t="n">
-        <v>2799.106567920181</v>
+        <v>2799.110003136671</v>
       </c>
       <c r="O146" t="n">
-        <v>2799.106564784858</v>
+        <v>2799.11</v>
       </c>
     </row>
     <row r="147">
@@ -31554,31 +31554,31 @@
         <v>283.58</v>
       </c>
       <c r="G147" t="n">
-        <v>-1036.069026587646</v>
+        <v>-1036.072886421203</v>
       </c>
       <c r="H147" t="n">
-        <v>2727.556140166441</v>
+        <v>2727.56</v>
       </c>
       <c r="I147" t="n">
-        <v>11365.76902658765</v>
+        <v>11365.7728864212</v>
       </c>
       <c r="J147" t="n">
-        <v>13933.81605130218</v>
+        <v>13933.81819418534</v>
       </c>
       <c r="K147" t="n">
-        <v>2757.937869066858</v>
+        <v>2757.940011950013</v>
       </c>
       <c r="L147" t="n">
-        <v>2855.970977734452</v>
+        <v>2855.973120617607</v>
       </c>
       <c r="M147" t="n">
-        <v>2758.771903542455</v>
+        <v>2758.77404642561</v>
       </c>
       <c r="N147" t="n">
-        <v>2757.937858286498</v>
+        <v>2757.940001170156</v>
       </c>
       <c r="O147" t="n">
-        <v>2757.937857116845</v>
+        <v>2757.94</v>
       </c>
     </row>
     <row r="148">
@@ -31592,31 +31592,31 @@
         <v>283.48</v>
       </c>
       <c r="G148" t="n">
-        <v>-805.3621926252545</v>
+        <v>-805.3615438620382</v>
       </c>
       <c r="H148" t="n">
-        <v>2704.490648763215</v>
+        <v>2704.49</v>
       </c>
       <c r="I148" t="n">
-        <v>9452.772192625254</v>
+        <v>9452.771543862038</v>
       </c>
       <c r="J148" t="n">
-        <v>11296.83559430622</v>
+        <v>11296.83945413978</v>
       </c>
       <c r="K148" t="n">
-        <v>2727.556147502136</v>
+        <v>2727.560007335695</v>
       </c>
       <c r="L148" t="n">
-        <v>2796.025323569126</v>
+        <v>2796.029183402684</v>
       </c>
       <c r="M148" t="n">
-        <v>2727.985894776427</v>
+        <v>2727.989754609986</v>
       </c>
       <c r="N148" t="n">
-        <v>2727.556140592972</v>
+        <v>2727.560000426713</v>
       </c>
       <c r="O148" t="n">
-        <v>2727.556140166441</v>
+        <v>2727.56</v>
       </c>
     </row>
     <row r="149">
@@ -31630,31 +31630,31 @@
         <v>283.38</v>
       </c>
       <c r="G149" t="n">
-        <v>-660.08731755588</v>
+        <v>-660.0904716827572</v>
       </c>
       <c r="H149" t="n">
-        <v>2686.416845873123</v>
+        <v>2686.42</v>
       </c>
       <c r="I149" t="n">
-        <v>8050.79731755588</v>
+        <v>8050.800471682757</v>
       </c>
       <c r="J149" t="n">
-        <v>9405.861428043809</v>
+        <v>9405.860779280592</v>
       </c>
       <c r="K149" t="n">
-        <v>2704.490653239462</v>
+        <v>2704.490004476246</v>
       </c>
       <c r="L149" t="n">
-        <v>2751.16138775122</v>
+        <v>2751.160738988005</v>
       </c>
       <c r="M149" t="n">
-        <v>2704.70716374886</v>
+        <v>2704.706514985644</v>
       </c>
       <c r="N149" t="n">
-        <v>2704.490648915253</v>
+        <v>2704.490000152102</v>
       </c>
       <c r="O149" t="n">
-        <v>2704.490648763215</v>
+        <v>2704.49</v>
       </c>
     </row>
     <row r="150">
@@ -31668,31 +31668,31 @@
         <v>283.28</v>
       </c>
       <c r="G150" t="n">
-        <v>-440.4387596373708</v>
+        <v>-440.4400376609738</v>
       </c>
       <c r="H150" t="n">
-        <v>2671.858721976397</v>
+        <v>2671.86</v>
       </c>
       <c r="I150" t="n">
-        <v>7002.87875963737</v>
+        <v>7002.880037660973</v>
       </c>
       <c r="J150" t="n">
-        <v>8019.615737312689</v>
+        <v>8019.618891439566</v>
       </c>
       <c r="K150" t="n">
-        <v>2686.416848588213</v>
+        <v>2686.420002715091</v>
       </c>
       <c r="L150" t="n">
-        <v>2717.476123169849</v>
+        <v>2717.479277296726</v>
       </c>
       <c r="M150" t="n">
-        <v>2686.523503412566</v>
+        <v>2686.526657539443</v>
       </c>
       <c r="N150" t="n">
-        <v>2686.416845926095</v>
+        <v>2686.420000052995</v>
       </c>
       <c r="O150" t="n">
-        <v>2686.416845873123</v>
+        <v>2686.42</v>
       </c>
     </row>
     <row r="151">
@@ -31706,31 +31706,31 @@
         <v>283.18</v>
       </c>
       <c r="G151" t="n">
-        <v>-481.1343148771621</v>
+        <v>-481.1309031489836</v>
       </c>
       <c r="H151" t="n">
-        <v>2660.093411728178</v>
+        <v>2660.09</v>
       </c>
       <c r="I151" t="n">
-        <v>6205.644314877162</v>
+        <v>6205.640903148984</v>
       </c>
       <c r="J151" t="n">
-        <v>6982.629974943815</v>
+        <v>6982.631252967418</v>
       </c>
       <c r="K151" t="n">
-        <v>2671.858723613401</v>
+        <v>2671.860001637005</v>
       </c>
       <c r="L151" t="n">
-        <v>2692.045966036449</v>
+        <v>2692.047244060052</v>
       </c>
       <c r="M151" t="n">
-        <v>2671.910094146395</v>
+        <v>2671.911372169999</v>
       </c>
       <c r="N151" t="n">
-        <v>2671.858721994437</v>
+        <v>2671.860000018048</v>
       </c>
       <c r="O151" t="n">
-        <v>2671.858721976397</v>
+        <v>2671.86</v>
       </c>
     </row>
     <row r="152">
@@ -31744,31 +31744,31 @@
         <v>283.08</v>
       </c>
       <c r="G152" t="n">
-        <v>-451.8632462536225</v>
+        <v>-451.8625198590453</v>
       </c>
       <c r="H152" t="n">
-        <v>2650.710726394577</v>
+        <v>2650.71</v>
       </c>
       <c r="I152" t="n">
-        <v>5589.473246253622</v>
+        <v>5589.472519859045</v>
       </c>
       <c r="J152" t="n">
-        <v>6192.795713424136</v>
+        <v>6192.792301695958</v>
       </c>
       <c r="K152" t="n">
-        <v>2660.093412709268</v>
+        <v>2660.09000098109</v>
       </c>
       <c r="L152" t="n">
-        <v>2672.911363765354</v>
+        <v>2672.907952037176</v>
       </c>
       <c r="M152" t="n">
-        <v>2660.117604832582</v>
+        <v>2660.114193104404</v>
       </c>
       <c r="N152" t="n">
-        <v>2660.093411734183</v>
+        <v>2660.090000006007</v>
       </c>
       <c r="O152" t="n">
-        <v>2660.093411728178</v>
+        <v>2660.09</v>
       </c>
     </row>
     <row r="153">
@@ -31782,31 +31782,31 @@
         <v>282.98</v>
       </c>
       <c r="G153" t="n">
-        <v>-528.2939462793902</v>
+        <v>-528.2903301061415</v>
       </c>
       <c r="H153" t="n">
-        <v>2643.243616173248</v>
+        <v>2643.24</v>
       </c>
       <c r="I153" t="n">
-        <v>5106.29394627939</v>
+        <v>5106.290330106141</v>
       </c>
       <c r="J153" t="n">
-        <v>5581.505462368146</v>
+        <v>5581.504735973569</v>
       </c>
       <c r="K153" t="n">
-        <v>2650.710726979042</v>
+        <v>2650.710000584465</v>
       </c>
       <c r="L153" t="n">
-        <v>2658.663364918412</v>
+        <v>2658.662638523835</v>
       </c>
       <c r="M153" t="n">
-        <v>2650.721866150516</v>
+        <v>2650.721139755939</v>
       </c>
       <c r="N153" t="n">
-        <v>2650.710726396531</v>
+        <v>2650.710000001955</v>
       </c>
       <c r="O153" t="n">
-        <v>2650.710726394577</v>
+        <v>2650.71</v>
       </c>
     </row>
     <row r="154">
@@ -31820,31 +31820,31 @@
         <v>282.88</v>
       </c>
       <c r="G154" t="n">
-        <v>-500.1932497957687</v>
+        <v>-500.1893711723624</v>
       </c>
       <c r="H154" t="n">
-        <v>2637.303878623407</v>
+        <v>2637.3</v>
       </c>
       <c r="I154" t="n">
-        <v>4722.363249795769</v>
+        <v>4722.359371172362</v>
       </c>
       <c r="J154" t="n">
-        <v>5101.464459231839</v>
+        <v>5101.46084305859</v>
       </c>
       <c r="K154" t="n">
-        <v>2643.243616519345</v>
+        <v>2643.240000346096</v>
       </c>
       <c r="L154" t="n">
-        <v>2648.06565946298</v>
+        <v>2648.062043289731</v>
       </c>
       <c r="M154" t="n">
-        <v>2643.248631185696</v>
+        <v>2643.245015012447</v>
       </c>
       <c r="N154" t="n">
-        <v>2643.24361617387</v>
+        <v>2643.240000000621</v>
       </c>
       <c r="O154" t="n">
-        <v>2643.243616173248</v>
+        <v>2643.24</v>
       </c>
     </row>
     <row r="155">
@@ -31858,31 +31858,31 @@
         <v>282.78</v>
       </c>
       <c r="G155" t="n">
-        <v>-575.6940358988913</v>
+        <v>-575.6964249499824</v>
       </c>
       <c r="H155" t="n">
-        <v>2632.597610948909</v>
+        <v>2632.6</v>
       </c>
       <c r="I155" t="n">
-        <v>4413.614035898891</v>
+        <v>4413.616424949983</v>
       </c>
       <c r="J155" t="n">
-        <v>4719.501759138249</v>
+        <v>4719.497880514843</v>
       </c>
       <c r="K155" t="n">
-        <v>2637.303878827122</v>
+        <v>2637.300000203715</v>
       </c>
       <c r="L155" t="n">
-        <v>2640.161722515305</v>
+        <v>2640.157843891898</v>
       </c>
       <c r="M155" t="n">
-        <v>2637.306085975513</v>
+        <v>2637.302207352106</v>
       </c>
       <c r="N155" t="n">
-        <v>2637.3038786236</v>
+        <v>2637.300000000193</v>
       </c>
       <c r="O155" t="n">
-        <v>2637.303878623407</v>
+        <v>2637.3</v>
       </c>
     </row>
     <row r="156">
@@ -31896,31 +31896,31 @@
         <v>282.68</v>
       </c>
       <c r="G156" t="n">
-        <v>-591.5143696287068</v>
+        <v>-591.5179253975311</v>
       </c>
       <c r="H156" t="n">
-        <v>2628.976444231175</v>
+        <v>2628.98</v>
       </c>
       <c r="I156" t="n">
-        <v>4162.684369628707</v>
+        <v>4162.687925397531</v>
       </c>
       <c r="J156" t="n">
-        <v>4411.956557510839</v>
+        <v>4411.95894656193</v>
       </c>
       <c r="K156" t="n">
-        <v>2632.597611068097</v>
+        <v>2632.600000119188</v>
       </c>
       <c r="L156" t="n">
-        <v>2634.253305543542</v>
+        <v>2634.255694594633</v>
       </c>
       <c r="M156" t="n">
-        <v>2632.598560820365</v>
+        <v>2632.600949871456</v>
       </c>
       <c r="N156" t="n">
-        <v>2632.597610948967</v>
+        <v>2632.600000000059</v>
       </c>
       <c r="O156" t="n">
-        <v>2632.597610948909</v>
+        <v>2632.6</v>
       </c>
     </row>
     <row r="157">
@@ -31934,31 +31934,31 @@
         <v>282.58</v>
       </c>
       <c r="G157" t="n">
-        <v>-517.714889634964</v>
+        <v>-517.7158517188086</v>
       </c>
       <c r="H157" t="n">
-        <v>2626.019037916155</v>
+        <v>2626.02</v>
       </c>
       <c r="I157" t="n">
-        <v>3956.504889634964</v>
+        <v>3956.505851718809</v>
       </c>
       <c r="J157" t="n">
-        <v>4161.745737416482</v>
+        <v>4161.749293185307</v>
       </c>
       <c r="K157" t="n">
-        <v>2628.97644430049</v>
+        <v>2628.980000069315</v>
       </c>
       <c r="L157" t="n">
-        <v>2629.914204508032</v>
+        <v>2629.917760276857</v>
       </c>
       <c r="M157" t="n">
-        <v>2628.976843846011</v>
+        <v>2628.980399614836</v>
       </c>
       <c r="N157" t="n">
-        <v>2628.976444231193</v>
+        <v>2628.980000000017</v>
       </c>
       <c r="O157" t="n">
-        <v>2628.976444231175</v>
+        <v>2628.98</v>
       </c>
     </row>
     <row r="158">
@@ -31972,31 +31972,31 @@
         <v>282.48</v>
       </c>
       <c r="G158" t="n">
-        <v>-539.7100937021755</v>
+        <v>-539.708663329578</v>
       </c>
       <c r="H158" t="n">
-        <v>2623.601430372598</v>
+        <v>2623.6</v>
       </c>
       <c r="I158" t="n">
-        <v>3785.530093702176</v>
+        <v>3785.528663329578</v>
       </c>
       <c r="J158" t="n">
-        <v>3955.98518622234</v>
+        <v>3955.986148306184</v>
       </c>
       <c r="K158" t="n">
-        <v>2626.019037956224</v>
+        <v>2626.020000040068</v>
       </c>
       <c r="L158" t="n">
-        <v>2626.538315425806</v>
+        <v>2626.53927750965</v>
       </c>
       <c r="M158" t="n">
-        <v>2626.019202274423</v>
+        <v>2626.020164358268</v>
       </c>
       <c r="N158" t="n">
-        <v>2626.01903791616</v>
+        <v>2626.020000000005</v>
       </c>
       <c r="O158" t="n">
-        <v>2626.019037916155</v>
+        <v>2626.02</v>
       </c>
     </row>
     <row r="159">
@@ -32010,31 +32010,31 @@
         <v>282.38</v>
       </c>
       <c r="G159" t="n">
-        <v>-353.6073834311214</v>
+        <v>-353.6075716154396</v>
       </c>
       <c r="H159" t="n">
-        <v>2621.429811815682</v>
+        <v>2621.43</v>
       </c>
       <c r="I159" t="n">
-        <v>3642.357383431121</v>
+        <v>3642.35757161544</v>
       </c>
       <c r="J159" t="n">
-        <v>3785.24874656182</v>
+        <v>3785.247316189222</v>
       </c>
       <c r="K159" t="n">
-        <v>2623.60143039562</v>
+        <v>2623.600000023022</v>
       </c>
       <c r="L159" t="n">
-        <v>2623.882569825142</v>
+        <v>2623.881139452544</v>
       </c>
       <c r="M159" t="n">
-        <v>2623.601496457794</v>
+        <v>2623.600066085196</v>
       </c>
       <c r="N159" t="n">
-        <v>2623.601430372599</v>
+        <v>2623.600000000001</v>
       </c>
       <c r="O159" t="n">
-        <v>2623.601430372598</v>
+        <v>2623.6</v>
       </c>
     </row>
     <row r="160">
@@ -32048,31 +32048,31 @@
         <v>282.28</v>
       </c>
       <c r="G160" t="n">
-        <v>-546.8914540082205</v>
+        <v>-546.8938174532123</v>
       </c>
       <c r="H160" t="n">
-        <v>2619.707636555008</v>
+        <v>2619.71</v>
       </c>
       <c r="I160" t="n">
-        <v>3521.76145400822</v>
+        <v>3521.763817453212</v>
       </c>
       <c r="J160" t="n">
-        <v>3642.208459204268</v>
+        <v>3642.208647388587</v>
       </c>
       <c r="K160" t="n">
-        <v>2621.42981182883</v>
+        <v>2621.430000013148</v>
       </c>
       <c r="L160" t="n">
-        <v>2621.57863510749</v>
+        <v>2621.578823291808</v>
       </c>
       <c r="M160" t="n">
-        <v>2621.429837791482</v>
+        <v>2621.4300259758</v>
       </c>
       <c r="N160" t="n">
-        <v>2621.429811815682</v>
+        <v>2621.43</v>
       </c>
       <c r="O160" t="n">
-        <v>2621.429811815682</v>
+        <v>2621.43</v>
       </c>
     </row>
     <row r="161">
@@ -32086,31 +32086,31 @@
         <v>282.18</v>
       </c>
       <c r="G161" t="n">
-        <v>-421.8350989335099</v>
+        <v>-421.834534248725</v>
       </c>
       <c r="H161" t="n">
-        <v>2618.470564684784</v>
+        <v>2618.47</v>
       </c>
       <c r="I161" t="n">
-        <v>3419.58509893351</v>
+        <v>3419.584534248725</v>
       </c>
       <c r="J161" t="n">
-        <v>3521.684376281548</v>
+        <v>3521.68673972654</v>
       </c>
       <c r="K161" t="n">
-        <v>2619.707636562473</v>
+        <v>2619.710000007464</v>
       </c>
       <c r="L161" t="n">
-        <v>2619.78466550214</v>
+        <v>2619.787028947132</v>
       </c>
       <c r="M161" t="n">
-        <v>2619.707646536036</v>
+        <v>2619.710009981028</v>
       </c>
       <c r="N161" t="n">
-        <v>2619.707636555008</v>
+        <v>2619.71</v>
       </c>
       <c r="O161" t="n">
-        <v>2619.707636555008</v>
+        <v>2619.71</v>
       </c>
     </row>
     <row r="162">
@@ -32124,31 +32124,31 @@
         <v>282.08</v>
       </c>
       <c r="G162" t="n">
-        <v>-473.4024965610952</v>
+        <v>-473.4069812447533</v>
       </c>
       <c r="H162" t="n">
-        <v>2617.425515316342</v>
+        <v>2617.43</v>
       </c>
       <c r="I162" t="n">
-        <v>3332.262496561095</v>
+        <v>3332.266981244753</v>
       </c>
       <c r="J162" t="n">
-        <v>3419.546092667179</v>
+        <v>3419.545527982394</v>
       </c>
       <c r="K162" t="n">
-        <v>2618.470564688996</v>
+        <v>2618.470000004212</v>
       </c>
       <c r="L162" t="n">
-        <v>2618.509547566536</v>
+        <v>2618.508982881751</v>
       </c>
       <c r="M162" t="n">
-        <v>2618.470568433761</v>
+        <v>2618.470003748977</v>
       </c>
       <c r="N162" t="n">
-        <v>2618.470564684784</v>
+        <v>2618.47</v>
       </c>
       <c r="O162" t="n">
-        <v>2618.470564684784</v>
+        <v>2618.47</v>
       </c>
     </row>
     <row r="163">
@@ -32162,31 +32162,31 @@
         <v>281.98</v>
       </c>
       <c r="G163" t="n">
-        <v>-500.3137900588777</v>
+        <v>-500.3113000562394</v>
       </c>
       <c r="H163" t="n">
-        <v>2616.782490002638</v>
+        <v>2616.78</v>
       </c>
       <c r="I163" t="n">
-        <v>3257.423790058878</v>
+        <v>3257.421300056239</v>
       </c>
       <c r="J163" t="n">
-        <v>3332.243195544504</v>
+        <v>3332.247680228163</v>
       </c>
       <c r="K163" t="n">
-        <v>2617.425515318705</v>
+        <v>2617.430000002362</v>
       </c>
       <c r="L163" t="n">
-        <v>2617.444805239881</v>
+        <v>2617.449289923538</v>
       </c>
       <c r="M163" t="n">
-        <v>2617.425516692826</v>
+        <v>2617.430001376484</v>
       </c>
       <c r="N163" t="n">
-        <v>2617.425515316342</v>
+        <v>2617.43</v>
       </c>
       <c r="O163" t="n">
-        <v>2617.425515316342</v>
+        <v>2617.43</v>
       </c>
     </row>
     <row r="164">
@@ -32200,31 +32200,31 @@
         <v>281.88</v>
       </c>
       <c r="G164" t="n">
-        <v>-538.0463305913545</v>
+        <v>-538.0450589683851</v>
       </c>
       <c r="H164" t="n">
-        <v>2616.481271622969</v>
+        <v>2616.48</v>
       </c>
       <c r="I164" t="n">
-        <v>3192.956330591354</v>
+        <v>3192.955058968385</v>
       </c>
       <c r="J164" t="n">
-        <v>3257.414451876072</v>
+        <v>3257.411961873434</v>
       </c>
       <c r="K164" t="n">
-        <v>2616.782490003955</v>
+        <v>2616.780000001317</v>
       </c>
       <c r="L164" t="n">
-        <v>2616.791822990118</v>
+        <v>2616.789332987481</v>
       </c>
       <c r="M164" t="n">
-        <v>2616.782490496653</v>
+        <v>2616.780000494015</v>
       </c>
       <c r="N164" t="n">
-        <v>2616.782490002638</v>
+        <v>2616.78</v>
       </c>
       <c r="O164" t="n">
-        <v>2616.782490002638</v>
+        <v>2616.78</v>
       </c>
     </row>
     <row r="165">
@@ -32238,31 +32238,31 @@
         <v>281.78</v>
       </c>
       <c r="G165" t="n">
-        <v>-543.7865970987968</v>
+        <v>-543.7914231644818</v>
       </c>
       <c r="H165" t="n">
-        <v>2616.455173934315</v>
+        <v>2616.46</v>
       </c>
       <c r="I165" t="n">
-        <v>3137.146597098797</v>
+        <v>3137.151423164482</v>
       </c>
       <c r="J165" t="n">
-        <v>3192.951913105395</v>
+        <v>3192.950641482425</v>
       </c>
       <c r="K165" t="n">
-        <v>2616.481271623699</v>
+        <v>2616.48000000073</v>
       </c>
       <c r="L165" t="n">
-        <v>2616.485686711504</v>
+        <v>2616.484415088534</v>
       </c>
       <c r="M165" t="n">
-        <v>2616.481271796274</v>
+        <v>2616.480000173305</v>
       </c>
       <c r="N165" t="n">
-        <v>2616.481271622969</v>
+        <v>2616.48</v>
       </c>
       <c r="O165" t="n">
-        <v>2616.481271622969</v>
+        <v>2616.48</v>
       </c>
     </row>
     <row r="166">
@@ -32276,31 +32276,31 @@
         <v>281.68</v>
       </c>
       <c r="G166" t="n">
-        <v>-444.2959409586906</v>
+        <v>-444.2984723470599</v>
       </c>
       <c r="H166" t="n">
-        <v>2616.44746861163</v>
+        <v>2616.45</v>
       </c>
       <c r="I166" t="n">
-        <v>3088.405940958691</v>
+        <v>3088.40847234706</v>
       </c>
       <c r="J166" t="n">
-        <v>3137.144553896348</v>
+        <v>3137.149379962033</v>
       </c>
       <c r="K166" t="n">
-        <v>2616.455173934717</v>
+        <v>2616.460000000402</v>
       </c>
       <c r="L166" t="n">
-        <v>2616.45721604855</v>
+        <v>2616.462042114234</v>
       </c>
       <c r="M166" t="n">
-        <v>2616.455173993741</v>
+        <v>2616.460000059426</v>
       </c>
       <c r="N166" t="n">
-        <v>2616.455173934315</v>
+        <v>2616.46</v>
       </c>
       <c r="O166" t="n">
-        <v>2616.455173934315</v>
+        <v>2616.46</v>
       </c>
     </row>
     <row r="167">
@@ -32314,31 +32314,31 @@
         <v>281.58</v>
       </c>
       <c r="G167" t="n">
-        <v>-449.6162940255899</v>
+        <v>-449.6209996333755</v>
       </c>
       <c r="H167" t="n">
-        <v>2616.435294392214</v>
+        <v>2616.44</v>
       </c>
       <c r="I167" t="n">
-        <v>3045.62629402559</v>
+        <v>3045.630999633376</v>
       </c>
       <c r="J167" t="n">
-        <v>3088.40501697835</v>
+        <v>3088.407548366719</v>
       </c>
       <c r="K167" t="n">
-        <v>2616.447468611851</v>
+        <v>2616.45000000022</v>
       </c>
       <c r="L167" t="n">
-        <v>2616.448392106773</v>
+        <v>2616.450923495142</v>
       </c>
       <c r="M167" t="n">
-        <v>2616.447468631547</v>
+        <v>2616.450000019916</v>
       </c>
       <c r="N167" t="n">
-        <v>2616.44746861163</v>
+        <v>2616.45</v>
       </c>
       <c r="O167" t="n">
-        <v>2616.44746861163</v>
+        <v>2616.45</v>
       </c>
     </row>
     <row r="168">
@@ -32361,22 +32361,22 @@
         <v>3012.77871026653</v>
       </c>
       <c r="J168" t="n">
-        <v>3045.625885499281</v>
+        <v>3045.630591107066</v>
       </c>
       <c r="K168" t="n">
-        <v>2616.435294392334</v>
+        <v>2616.44000000012</v>
       </c>
       <c r="L168" t="n">
-        <v>2616.435702706257</v>
+        <v>2616.440408314043</v>
       </c>
       <c r="M168" t="n">
-        <v>2616.435294398739</v>
+        <v>2616.440000006524</v>
       </c>
       <c r="N168" t="n">
-        <v>2616.435294392214</v>
+        <v>2616.44</v>
       </c>
       <c r="O168" t="n">
-        <v>2616.435294392214</v>
+        <v>2616.44</v>
       </c>
     </row>
     <row r="169">
@@ -33496,13 +33496,13 @@
       </c>
       <c r="Z2" s="8" t="inlineStr">
         <is>
-          <t>1222.88</t>
+          <t>1222.83</t>
         </is>
       </c>
       <c r="AA2" s="8" t="inlineStr"/>
       <c r="AB2" s="8" t="inlineStr">
         <is>
-          <t>22.60</t>
+          <t>23.10</t>
         </is>
       </c>
       <c r="AC2" s="8" t="inlineStr">
@@ -33523,7 +33523,7 @@
       </c>
       <c r="AG2" s="8" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="AH2" s="8" t="inlineStr"/>

--- a/DATA/UKSAF/Hard_carbon_Thermo_Kfitting.xlsx
+++ b/DATA/UKSAF/Hard_carbon_Thermo_Kfitting.xlsx
@@ -425,7 +425,7 @@
       <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8905875" cy="4848225"/>
+    <ext cx="7210425" cy="4067175"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -458,10 +458,10 @@
       <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5743575" cy="4086225"/>
+    <ext cx="5695950" cy="4067175"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="2" name="Image 1" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
@@ -471,9 +471,7 @@
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <avLst/>
-        </a:prstGeom>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
         <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
@@ -42157,190 +42155,190 @@
   </sheetPr>
   <dimension ref="A1:AP192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="11" t="inlineStr">
         <is>
           <t>Binding Energy</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="11" t="inlineStr">
         <is>
           <t>Raw Data</t>
         </is>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr"/>
+      <c r="D1" s="11" t="inlineStr"/>
+      <c r="E1" s="11" t="inlineStr"/>
+      <c r="F1" s="11" t="inlineStr">
         <is>
           <t>BE</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>Residuals</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="11" t="inlineStr">
         <is>
           <t>Background</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="11" t="inlineStr">
         <is>
           <t>Calculated Fit</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="11" t="inlineStr">
         <is>
           <t>C1s C=C</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="11" t="inlineStr">
         <is>
           <t>C1s $\pi$-$\pi$*</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="11" t="inlineStr">
         <is>
           <t>C1s C-C</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="11" t="inlineStr">
         <is>
           <t>C1s C-O</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="11" t="inlineStr">
         <is>
           <t>C1s C=O</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="11" t="inlineStr">
         <is>
           <t>C1s O-C=O</t>
         </is>
       </c>
-      <c r="P1" s="1" t="n"/>
-      <c r="Q1" s="1" t="n"/>
-      <c r="R1" s="1" t="n"/>
-      <c r="S1" s="1" t="n"/>
-      <c r="T1" s="1" t="n"/>
-      <c r="U1" s="1" t="n"/>
-      <c r="V1" s="1" t="n"/>
-      <c r="W1" s="1" t="n"/>
-      <c r="X1" s="2" t="inlineStr">
+      <c r="P1" s="11" t="inlineStr"/>
+      <c r="Q1" s="11" t="inlineStr"/>
+      <c r="R1" s="11" t="inlineStr"/>
+      <c r="S1" s="11" t="inlineStr"/>
+      <c r="T1" s="11" t="inlineStr"/>
+      <c r="U1" s="11" t="inlineStr"/>
+      <c r="V1" s="11" t="inlineStr"/>
+      <c r="W1" s="11" t="inlineStr"/>
+      <c r="X1" s="12" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="Y1" s="3" t="inlineStr">
+      <c r="Y1" s="13" t="inlineStr">
         <is>
           <t>Peak
 Label</t>
         </is>
       </c>
-      <c r="Z1" s="3" t="inlineStr">
+      <c r="Z1" s="13" t="inlineStr">
         <is>
           <t>Position
 (eV)</t>
         </is>
       </c>
-      <c r="AA1" s="3" t="inlineStr">
+      <c r="AA1" s="13" t="inlineStr">
         <is>
           <t>Height
 (CPS)</t>
         </is>
       </c>
-      <c r="AB1" s="3" t="inlineStr">
+      <c r="AB1" s="13" t="inlineStr">
         <is>
           <t>FWHM
 (eV)</t>
         </is>
       </c>
-      <c r="AC1" s="3" t="inlineStr">
+      <c r="AC1" s="13" t="inlineStr">
         <is>
           <t xml:space="preserve">σ/γ (%)
 L/G 
 </t>
         </is>
       </c>
-      <c r="AD1" s="3" t="inlineStr">
+      <c r="AD1" s="13" t="inlineStr">
         <is>
           <t>Area
 (CPS.eV)</t>
         </is>
       </c>
-      <c r="AE1" s="3" t="inlineStr">
+      <c r="AE1" s="13" t="inlineStr">
         <is>
           <t>σ
 W_g</t>
         </is>
       </c>
-      <c r="AF1" s="3" t="inlineStr">
+      <c r="AF1" s="13" t="inlineStr">
         <is>
           <t>γ
 W_l</t>
         </is>
       </c>
-      <c r="AG1" s="3" t="inlineStr">
+      <c r="AG1" s="13" t="inlineStr">
         <is>
           <t>W_g
 Skew</t>
         </is>
       </c>
-      <c r="AH1" s="3" t="inlineStr">
+      <c r="AH1" s="13" t="inlineStr">
         <is>
           <t>Conc.
 (%)</t>
         </is>
       </c>
-      <c r="AI1" s="3" t="inlineStr">
+      <c r="AI1" s="13" t="inlineStr">
         <is>
           <t>A/Aᴀ</t>
         </is>
       </c>
-      <c r="AJ1" s="3" t="inlineStr">
+      <c r="AJ1" s="13" t="inlineStr">
         <is>
           <t>Split
 (eV)</t>
         </is>
       </c>
-      <c r="AK1" s="3" t="inlineStr">
+      <c r="AK1" s="13" t="inlineStr">
         <is>
           <t>Fitting Model</t>
         </is>
       </c>
-      <c r="AL1" s="3" t="inlineStr">
+      <c r="AL1" s="13" t="inlineStr">
         <is>
           <t>Bkg Type</t>
         </is>
       </c>
-      <c r="AM1" s="3" t="inlineStr">
+      <c r="AM1" s="13" t="inlineStr">
         <is>
           <t>Bkg Low
 (eV)</t>
         </is>
       </c>
-      <c r="AN1" s="3" t="inlineStr">
+      <c r="AN1" s="13" t="inlineStr">
         <is>
           <t>Bkg High
 (eV)</t>
         </is>
       </c>
-      <c r="AO1" s="3" t="inlineStr">
+      <c r="AO1" s="13" t="inlineStr">
         <is>
           <t>Bkg Offset Low
 (CPS)</t>
         </is>
       </c>
-      <c r="AP1" s="4" t="inlineStr">
+      <c r="AP1" s="14" t="inlineStr">
         <is>
           <t>Bkg Offset High
 (CPS)</t>
@@ -42358,19 +42356,19 @@
         <v>298.08</v>
       </c>
       <c r="G2" t="n">
-        <v>-34.79081573417989</v>
+        <v>-33.43796771093366</v>
       </c>
       <c r="H2" t="n">
         <v>5951.92</v>
       </c>
       <c r="I2" t="n">
-        <v>5986.71081573418</v>
+        <v>5985.357967710934</v>
       </c>
       <c r="J2" t="n">
-        <v>5986.710592899744</v>
+        <v>5985.357940737157</v>
       </c>
       <c r="K2" t="n">
-        <v>5951.92022285748</v>
+        <v>5951.920026976649</v>
       </c>
       <c r="L2" t="n">
         <v>5951.92</v>
@@ -42384,97 +42382,97 @@
       <c r="O2" t="n">
         <v>5951.92</v>
       </c>
-      <c r="X2" s="5" t="inlineStr">
+      <c r="X2" s="16" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="Y2" s="6" t="inlineStr">
+      <c r="Y2" s="17" t="inlineStr">
         <is>
           <t>C1s C=C</t>
         </is>
       </c>
-      <c r="Z2" s="6" t="inlineStr">
+      <c r="Z2" s="17" t="inlineStr">
         <is>
           <t>284.53</t>
         </is>
       </c>
-      <c r="AA2" s="6" t="inlineStr">
+      <c r="AA2" s="17" t="inlineStr">
         <is>
-          <t>137080</t>
+          <t>135369</t>
         </is>
       </c>
-      <c r="AB2" s="6" t="inlineStr">
+      <c r="AB2" s="17" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.62</t>
         </is>
       </c>
-      <c r="AC2" s="6" t="inlineStr">
+      <c r="AC2" s="17" t="inlineStr">
         <is>
-          <t>44.96</t>
+          <t>45.00</t>
         </is>
       </c>
-      <c r="AD2" s="6" t="inlineStr">
+      <c r="AD2" s="17" t="inlineStr">
         <is>
-          <t>118787</t>
+          <t>119078</t>
         </is>
       </c>
-      <c r="AE2" s="6" t="inlineStr">
+      <c r="AE2" s="17" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.15</t>
         </is>
       </c>
-      <c r="AF2" s="6" t="inlineStr">
+      <c r="AF2" s="17" t="inlineStr">
         <is>
           <t>1.40</t>
         </is>
       </c>
-      <c r="AG2" s="6" t="inlineStr">
+      <c r="AG2" s="17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AH2" s="6" t="inlineStr">
+      <c r="AH2" s="17" t="inlineStr">
         <is>
-          <t>78.1</t>
+          <t>78.3</t>
         </is>
       </c>
-      <c r="AI2" s="6" t="inlineStr">
+      <c r="AI2" s="17" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="AJ2" s="6" t="inlineStr">
+      <c r="AJ2" s="17" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="AK2" s="6" t="inlineStr">
+      <c r="AK2" s="17" t="inlineStr">
         <is>
           <t>LA (Area, σ/γ, γ)</t>
         </is>
       </c>
-      <c r="AL2" s="6" t="inlineStr">
+      <c r="AL2" s="17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AM2" s="6" t="inlineStr">
+      <c r="AM2" s="17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AN2" s="6" t="inlineStr">
+      <c r="AN2" s="17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AO2" s="6" t="inlineStr">
+      <c r="AO2" s="17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AP2" s="7" t="inlineStr">
+      <c r="AP2" s="18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -42491,19 +42489,19 @@
         <v>297.98</v>
       </c>
       <c r="G3" t="n">
-        <v>-35.38308709319062</v>
+        <v>-34.01213361169266</v>
       </c>
       <c r="H3" t="n">
         <v>6095.35</v>
       </c>
       <c r="I3" t="n">
-        <v>6130.733087093191</v>
+        <v>6129.362133611693</v>
       </c>
       <c r="J3" t="n">
-        <v>6130.732745427747</v>
+        <v>6129.362089608833</v>
       </c>
       <c r="K3" t="n">
-        <v>6095.350341700779</v>
+        <v>6095.350044007545</v>
       </c>
       <c r="L3" t="n">
         <v>6095.35</v>
@@ -42517,57 +42515,57 @@
       <c r="O3" t="n">
         <v>6095.35</v>
       </c>
-      <c r="X3" s="8" t="n"/>
-      <c r="Y3" s="9" t="n"/>
-      <c r="Z3" s="9" t="inlineStr">
+      <c r="X3" s="19" t="inlineStr"/>
+      <c r="Y3" s="20" t="inlineStr"/>
+      <c r="Z3" s="20" t="inlineStr">
         <is>
           <t>279.08,298.08</t>
         </is>
       </c>
-      <c r="AA3" s="9" t="inlineStr">
+      <c r="AA3" s="20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AB3" s="9" t="inlineStr">
+      <c r="AB3" s="20" t="inlineStr">
         <is>
           <t>0.3:3.5</t>
         </is>
       </c>
-      <c r="AC3" s="9" t="inlineStr">
+      <c r="AC3" s="20" t="inlineStr">
         <is>
           <t>30:45</t>
         </is>
       </c>
-      <c r="AD3" s="9" t="inlineStr">
+      <c r="AD3" s="20" t="inlineStr">
         <is>
           <t>1:1e7</t>
         </is>
       </c>
-      <c r="AE3" s="9" t="inlineStr">
+      <c r="AE3" s="20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AF3" s="9" t="inlineStr">
+      <c r="AF3" s="20" t="inlineStr">
         <is>
           <t>0.01:1.4</t>
         </is>
       </c>
-      <c r="AG3" s="9" t="inlineStr">
+      <c r="AG3" s="20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AH3" s="9" t="n"/>
-      <c r="AI3" s="9" t="n"/>
-      <c r="AJ3" s="9" t="n"/>
-      <c r="AK3" s="9" t="n"/>
-      <c r="AL3" s="9" t="n"/>
-      <c r="AM3" s="9" t="n"/>
-      <c r="AN3" s="9" t="n"/>
-      <c r="AO3" s="9" t="n"/>
-      <c r="AP3" s="10" t="n"/>
+      <c r="AH3" s="20" t="inlineStr"/>
+      <c r="AI3" s="20" t="inlineStr"/>
+      <c r="AJ3" s="20" t="inlineStr"/>
+      <c r="AK3" s="20" t="inlineStr"/>
+      <c r="AL3" s="20" t="inlineStr"/>
+      <c r="AM3" s="20" t="inlineStr"/>
+      <c r="AN3" s="20" t="inlineStr"/>
+      <c r="AO3" s="20" t="inlineStr"/>
+      <c r="AP3" s="21" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -42580,19 +42578,19 @@
         <v>297.88</v>
       </c>
       <c r="G4" t="n">
-        <v>-35.99002393714181</v>
+        <v>-34.60055765221023</v>
       </c>
       <c r="H4" t="n">
         <v>5928.65</v>
       </c>
       <c r="I4" t="n">
-        <v>5964.640023937141</v>
+        <v>5963.25055765221</v>
       </c>
       <c r="J4" t="n">
-        <v>5964.63950293923</v>
+        <v>5963.250486328983</v>
       </c>
       <c r="K4" t="n">
-        <v>5928.650521051792</v>
+        <v>5928.65007133082</v>
       </c>
       <c r="L4" t="n">
         <v>5928.65</v>
@@ -42606,89 +42604,89 @@
       <c r="O4" t="n">
         <v>5928.65</v>
       </c>
-      <c r="X4" s="5" t="inlineStr">
+      <c r="X4" s="16" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="Y4" s="6" t="inlineStr">
+      <c r="Y4" s="17" t="inlineStr">
         <is>
           <t>C1s $\pi$-$\pi$*</t>
         </is>
       </c>
-      <c r="Z4" s="6" t="inlineStr">
+      <c r="Z4" s="17" t="inlineStr">
         <is>
-          <t>291.09</t>
+          <t>291.16</t>
         </is>
       </c>
-      <c r="AA4" s="6" t="inlineStr">
+      <c r="AA4" s="17" t="inlineStr">
         <is>
-          <t>2992</t>
+          <t>3012</t>
         </is>
       </c>
-      <c r="AB4" s="6" t="inlineStr">
+      <c r="AB4" s="17" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2.40</t>
         </is>
       </c>
-      <c r="AC4" s="6" t="inlineStr">
+      <c r="AC4" s="17" t="inlineStr">
         <is>
           <t>30.00</t>
         </is>
       </c>
-      <c r="AD4" s="6" t="inlineStr">
+      <c r="AD4" s="17" t="inlineStr">
         <is>
-          <t>8248</t>
+          <t>7694</t>
         </is>
       </c>
-      <c r="AE4" s="6" t="n"/>
-      <c r="AF4" s="6" t="n"/>
-      <c r="AG4" s="6" t="inlineStr">
+      <c r="AE4" s="17" t="inlineStr"/>
+      <c r="AF4" s="17" t="inlineStr"/>
+      <c r="AG4" s="17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AH4" s="6" t="inlineStr">
+      <c r="AH4" s="17" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>5.1</t>
         </is>
       </c>
-      <c r="AI4" s="6" t="inlineStr">
+      <c r="AI4" s="17" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>6.5</t>
         </is>
       </c>
-      <c r="AJ4" s="6" t="inlineStr">
+      <c r="AJ4" s="17" t="inlineStr">
         <is>
-          <t>6.56</t>
+          <t>6.63</t>
         </is>
       </c>
-      <c r="AK4" s="6" t="inlineStr">
+      <c r="AK4" s="17" t="inlineStr">
         <is>
           <t>GL (Area)</t>
         </is>
       </c>
-      <c r="AL4" s="6" t="inlineStr">
+      <c r="AL4" s="17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AM4" s="6" t="inlineStr">
+      <c r="AM4" s="17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AN4" s="6" t="inlineStr">
+      <c r="AN4" s="17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AO4" s="6" t="inlineStr">
+      <c r="AO4" s="17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AP4" s="7" t="inlineStr">
+      <c r="AP4" s="18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -42705,19 +42703,19 @@
         <v>297.78</v>
       </c>
       <c r="G5" t="n">
-        <v>-36.61212904513013</v>
+        <v>-35.20370985689988</v>
       </c>
       <c r="H5" t="n">
         <v>6010.47</v>
       </c>
       <c r="I5" t="n">
-        <v>6047.08212904513</v>
+        <v>6045.6737098569</v>
       </c>
       <c r="J5" t="n">
-        <v>6047.081338931482</v>
+        <v>6045.673594990017</v>
       </c>
       <c r="K5" t="n">
-        <v>6010.47079019536</v>
+        <v>6010.470114879114</v>
       </c>
       <c r="L5" t="n">
         <v>6010.47</v>
@@ -42731,49 +42729,49 @@
       <c r="O5" t="n">
         <v>6010.47</v>
       </c>
-      <c r="X5" s="8" t="n"/>
-      <c r="Y5" s="9" t="n"/>
-      <c r="Z5" s="9" t="inlineStr">
+      <c r="X5" s="19" t="inlineStr"/>
+      <c r="Y5" s="20" t="inlineStr"/>
+      <c r="Z5" s="20" t="inlineStr">
         <is>
           <t>A+6.41#0.4</t>
         </is>
       </c>
-      <c r="AA5" s="9" t="inlineStr">
+      <c r="AA5" s="20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AB5" s="9" t="inlineStr">
+      <c r="AB5" s="20" t="inlineStr">
         <is>
           <t>2.72#0.3</t>
         </is>
       </c>
-      <c r="AC5" s="9" t="inlineStr">
+      <c r="AC5" s="20" t="inlineStr">
         <is>
           <t>Fixed</t>
         </is>
       </c>
-      <c r="AD5" s="9" t="inlineStr">
+      <c r="AD5" s="20" t="inlineStr">
         <is>
           <t>A*0.072#0.01</t>
         </is>
       </c>
-      <c r="AE5" s="9" t="n"/>
-      <c r="AF5" s="9" t="n"/>
-      <c r="AG5" s="9" t="inlineStr">
+      <c r="AE5" s="20" t="inlineStr"/>
+      <c r="AF5" s="20" t="inlineStr"/>
+      <c r="AG5" s="20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AH5" s="9" t="n"/>
-      <c r="AI5" s="9" t="n"/>
-      <c r="AJ5" s="9" t="n"/>
-      <c r="AK5" s="9" t="n"/>
-      <c r="AL5" s="9" t="n"/>
-      <c r="AM5" s="9" t="n"/>
-      <c r="AN5" s="9" t="n"/>
-      <c r="AO5" s="9" t="n"/>
-      <c r="AP5" s="10" t="n"/>
+      <c r="AH5" s="20" t="inlineStr"/>
+      <c r="AI5" s="20" t="inlineStr"/>
+      <c r="AJ5" s="20" t="inlineStr"/>
+      <c r="AK5" s="20" t="inlineStr"/>
+      <c r="AL5" s="20" t="inlineStr"/>
+      <c r="AM5" s="20" t="inlineStr"/>
+      <c r="AN5" s="20" t="inlineStr"/>
+      <c r="AO5" s="20" t="inlineStr"/>
+      <c r="AP5" s="21" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -42786,19 +42784,19 @@
         <v>297.68</v>
       </c>
       <c r="G6" t="n">
-        <v>-37.24993767230262</v>
+        <v>-35.82208226703642</v>
       </c>
       <c r="H6" t="n">
         <v>6059.93</v>
       </c>
       <c r="I6" t="n">
-        <v>6097.179937672303</v>
+        <v>6095.752082267037</v>
       </c>
       <c r="J6" t="n">
-        <v>6097.178745979471</v>
+        <v>6095.751898454392</v>
       </c>
       <c r="K6" t="n">
-        <v>6059.931191816073</v>
+        <v>6059.930183832215</v>
       </c>
       <c r="L6" t="n">
         <v>6059.93</v>
@@ -42812,89 +42810,89 @@
       <c r="O6" t="n">
         <v>6059.93</v>
       </c>
-      <c r="X6" s="5" t="inlineStr">
+      <c r="X6" s="16" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="Y6" s="6" t="inlineStr">
+      <c r="Y6" s="17" t="inlineStr">
         <is>
           <t>C1s C-C</t>
         </is>
       </c>
-      <c r="Z6" s="6" t="inlineStr">
+      <c r="Z6" s="17" t="inlineStr">
         <is>
-          <t>284.83</t>
+          <t>284.87</t>
         </is>
       </c>
-      <c r="AA6" s="6" t="inlineStr">
+      <c r="AA6" s="17" t="inlineStr">
         <is>
-          <t>5932</t>
+          <t>5888</t>
         </is>
       </c>
-      <c r="AB6" s="6" t="inlineStr">
+      <c r="AB6" s="17" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.90</t>
         </is>
       </c>
-      <c r="AC6" s="6" t="inlineStr">
+      <c r="AC6" s="17" t="inlineStr">
         <is>
-          <t>34.68</t>
+          <t>28.33</t>
         </is>
       </c>
-      <c r="AD6" s="6" t="inlineStr">
+      <c r="AD6" s="17" t="inlineStr">
         <is>
-          <t>11871</t>
+          <t>11908</t>
         </is>
       </c>
-      <c r="AE6" s="6" t="n"/>
-      <c r="AF6" s="6" t="n"/>
-      <c r="AG6" s="6" t="inlineStr">
+      <c r="AE6" s="17" t="inlineStr"/>
+      <c r="AF6" s="17" t="inlineStr"/>
+      <c r="AG6" s="17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AH6" s="6" t="inlineStr">
+      <c r="AH6" s="17" t="inlineStr">
         <is>
           <t>7.8</t>
         </is>
       </c>
-      <c r="AI6" s="6" t="inlineStr">
+      <c r="AI6" s="17" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="AJ6" s="6" t="inlineStr">
+      <c r="AJ6" s="17" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.34</t>
         </is>
       </c>
-      <c r="AK6" s="6" t="inlineStr">
+      <c r="AK6" s="17" t="inlineStr">
         <is>
           <t>GL (Area)</t>
         </is>
       </c>
-      <c r="AL6" s="6" t="inlineStr">
+      <c r="AL6" s="17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AM6" s="6" t="inlineStr">
+      <c r="AM6" s="17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AN6" s="6" t="inlineStr">
+      <c r="AN6" s="17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AO6" s="6" t="inlineStr">
+      <c r="AO6" s="17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AP6" s="7" t="inlineStr">
+      <c r="AP6" s="18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -42911,19 +42909,19 @@
         <v>297.58</v>
       </c>
       <c r="G7" t="n">
-        <v>-37.9040242260171</v>
+        <v>-36.45619152790277</v>
       </c>
       <c r="H7" t="n">
         <v>5923.3</v>
       </c>
       <c r="I7" t="n">
-        <v>5961.204024226017</v>
+        <v>5959.756191527903</v>
       </c>
       <c r="J7" t="n">
-        <v>5961.202236656906</v>
+        <v>5959.755899263722</v>
       </c>
       <c r="K7" t="n">
-        <v>5923.301787753977</v>
+        <v>5923.300292295298</v>
       </c>
       <c r="L7" t="n">
         <v>5923.3</v>
@@ -42937,49 +42935,49 @@
       <c r="O7" t="n">
         <v>5923.3</v>
       </c>
-      <c r="X7" s="8" t="n"/>
-      <c r="Y7" s="9" t="n"/>
-      <c r="Z7" s="9" t="inlineStr">
+      <c r="X7" s="19" t="inlineStr"/>
+      <c r="Y7" s="20" t="inlineStr"/>
+      <c r="Z7" s="20" t="inlineStr">
         <is>
           <t>A+0.5#0.2</t>
         </is>
       </c>
-      <c r="AA7" s="9" t="inlineStr">
+      <c r="AA7" s="20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AB7" s="9" t="inlineStr">
+      <c r="AB7" s="20" t="inlineStr">
         <is>
           <t>1.3:1.9</t>
         </is>
       </c>
-      <c r="AC7" s="9" t="inlineStr">
+      <c r="AC7" s="20" t="inlineStr">
         <is>
           <t>20.0:40.0</t>
         </is>
       </c>
-      <c r="AD7" s="9" t="inlineStr">
+      <c r="AD7" s="20" t="inlineStr">
         <is>
           <t>A*0.1</t>
         </is>
       </c>
-      <c r="AE7" s="9" t="n"/>
-      <c r="AF7" s="9" t="n"/>
-      <c r="AG7" s="9" t="inlineStr">
+      <c r="AE7" s="20" t="inlineStr"/>
+      <c r="AF7" s="20" t="inlineStr"/>
+      <c r="AG7" s="20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AH7" s="9" t="n"/>
-      <c r="AI7" s="9" t="n"/>
-      <c r="AJ7" s="9" t="n"/>
-      <c r="AK7" s="9" t="n"/>
-      <c r="AL7" s="9" t="n"/>
-      <c r="AM7" s="9" t="n"/>
-      <c r="AN7" s="9" t="n"/>
-      <c r="AO7" s="9" t="n"/>
-      <c r="AP7" s="10" t="n"/>
+      <c r="AH7" s="20" t="inlineStr"/>
+      <c r="AI7" s="20" t="inlineStr"/>
+      <c r="AJ7" s="20" t="inlineStr"/>
+      <c r="AK7" s="20" t="inlineStr"/>
+      <c r="AL7" s="20" t="inlineStr"/>
+      <c r="AM7" s="20" t="inlineStr"/>
+      <c r="AN7" s="20" t="inlineStr"/>
+      <c r="AO7" s="20" t="inlineStr"/>
+      <c r="AP7" s="21" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -42992,19 +42990,19 @@
         <v>297.48</v>
       </c>
       <c r="G8" t="n">
-        <v>-38.57501129246975</v>
+        <v>-37.10658234034236</v>
       </c>
       <c r="H8" t="n">
         <v>5905.73</v>
       </c>
       <c r="I8" t="n">
-        <v>5944.305011292469</v>
+        <v>5942.836582340342</v>
       </c>
       <c r="J8" t="n">
-        <v>5944.302344509215</v>
+        <v>5942.836120599272</v>
       </c>
       <c r="K8" t="n">
-        <v>5905.732667059045</v>
+        <v>5905.730461790231</v>
       </c>
       <c r="L8" t="n">
         <v>5905.73</v>
@@ -43018,89 +43016,89 @@
       <c r="O8" t="n">
         <v>5905.73</v>
       </c>
-      <c r="X8" s="5" t="inlineStr">
+      <c r="X8" s="16" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="Y8" s="6" t="inlineStr">
+      <c r="Y8" s="17" t="inlineStr">
         <is>
           <t>C1s C-O</t>
         </is>
       </c>
-      <c r="Z8" s="6" t="inlineStr">
+      <c r="Z8" s="17" t="inlineStr">
         <is>
-          <t>286.32</t>
+          <t>286.37</t>
         </is>
       </c>
-      <c r="AA8" s="6" t="inlineStr">
+      <c r="AA8" s="17" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>3709</t>
         </is>
       </c>
-      <c r="AB8" s="6" t="inlineStr">
+      <c r="AB8" s="17" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.90</t>
         </is>
       </c>
-      <c r="AC8" s="6" t="inlineStr">
+      <c r="AC8" s="17" t="inlineStr">
         <is>
-          <t>34.68</t>
+          <t>28.33</t>
         </is>
       </c>
-      <c r="AD8" s="6" t="inlineStr">
+      <c r="AD8" s="17" t="inlineStr">
         <is>
-          <t>7427</t>
+          <t>7501</t>
         </is>
       </c>
-      <c r="AE8" s="6" t="n"/>
-      <c r="AF8" s="6" t="n"/>
-      <c r="AG8" s="6" t="inlineStr">
+      <c r="AE8" s="17" t="inlineStr"/>
+      <c r="AF8" s="17" t="inlineStr"/>
+      <c r="AG8" s="17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AH8" s="6" t="inlineStr">
+      <c r="AH8" s="17" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
       </c>
-      <c r="AI8" s="6" t="inlineStr">
+      <c r="AI8" s="17" t="inlineStr">
         <is>
           <t>6.3</t>
         </is>
       </c>
-      <c r="AJ8" s="6" t="inlineStr">
+      <c r="AJ8" s="17" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.84</t>
         </is>
       </c>
-      <c r="AK8" s="6" t="inlineStr">
+      <c r="AK8" s="17" t="inlineStr">
         <is>
           <t>GL (Area)</t>
         </is>
       </c>
-      <c r="AL8" s="6" t="inlineStr">
+      <c r="AL8" s="17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AM8" s="6" t="inlineStr">
+      <c r="AM8" s="17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AN8" s="6" t="inlineStr">
+      <c r="AN8" s="17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AO8" s="6" t="inlineStr">
+      <c r="AO8" s="17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AP8" s="7" t="inlineStr">
+      <c r="AP8" s="18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -43117,19 +43115,19 @@
         <v>297.38</v>
       </c>
       <c r="G9" t="n">
-        <v>-39.26358185916342</v>
+        <v>-37.7738321456618</v>
       </c>
       <c r="H9" t="n">
         <v>5966.18</v>
       </c>
       <c r="I9" t="n">
-        <v>6005.443581859164</v>
+        <v>6003.953832145662</v>
       </c>
       <c r="J9" t="n">
-        <v>6005.43962508183</v>
+        <v>6003.953107297205</v>
       </c>
       <c r="K9" t="n">
-        <v>5966.183957186533</v>
+        <v>5966.180724925634</v>
       </c>
       <c r="L9" t="n">
         <v>5966.18</v>
@@ -43143,49 +43141,49 @@
       <c r="O9" t="n">
         <v>5966.18</v>
       </c>
-      <c r="X9" s="8" t="n"/>
-      <c r="Y9" s="9" t="n"/>
-      <c r="Z9" s="9" t="inlineStr">
+      <c r="X9" s="19" t="inlineStr"/>
+      <c r="Y9" s="20" t="inlineStr"/>
+      <c r="Z9" s="20" t="inlineStr">
         <is>
           <t>C+1.2#0.3</t>
         </is>
       </c>
-      <c r="AA9" s="9" t="inlineStr">
+      <c r="AA9" s="20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AB9" s="9" t="inlineStr">
+      <c r="AB9" s="20" t="inlineStr">
         <is>
           <t>C*1</t>
         </is>
       </c>
-      <c r="AC9" s="9" t="inlineStr">
+      <c r="AC9" s="20" t="inlineStr">
         <is>
           <t>C*1</t>
         </is>
       </c>
-      <c r="AD9" s="9" t="inlineStr">
+      <c r="AD9" s="20" t="inlineStr">
         <is>
           <t>1:1e7</t>
         </is>
       </c>
-      <c r="AE9" s="9" t="n"/>
-      <c r="AF9" s="9" t="n"/>
-      <c r="AG9" s="9" t="inlineStr">
+      <c r="AE9" s="20" t="inlineStr"/>
+      <c r="AF9" s="20" t="inlineStr"/>
+      <c r="AG9" s="20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AH9" s="9" t="n"/>
-      <c r="AI9" s="9" t="n"/>
-      <c r="AJ9" s="9" t="n"/>
-      <c r="AK9" s="9" t="n"/>
-      <c r="AL9" s="9" t="n"/>
-      <c r="AM9" s="9" t="n"/>
-      <c r="AN9" s="9" t="n"/>
-      <c r="AO9" s="9" t="n"/>
-      <c r="AP9" s="10" t="n"/>
+      <c r="AH9" s="20" t="inlineStr"/>
+      <c r="AI9" s="20" t="inlineStr"/>
+      <c r="AJ9" s="20" t="inlineStr"/>
+      <c r="AK9" s="20" t="inlineStr"/>
+      <c r="AL9" s="20" t="inlineStr"/>
+      <c r="AM9" s="20" t="inlineStr"/>
+      <c r="AN9" s="20" t="inlineStr"/>
+      <c r="AO9" s="20" t="inlineStr"/>
+      <c r="AP9" s="21" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -43198,19 +43196,19 @@
         <v>297.28</v>
       </c>
       <c r="G10" t="n">
-        <v>-39.97049585582135</v>
+        <v>-38.45855756354376</v>
       </c>
       <c r="H10" t="n">
         <v>6080.73</v>
       </c>
       <c r="I10" t="n">
-        <v>6120.700495855821</v>
+        <v>6119.188557563543</v>
       </c>
       <c r="J10" t="n">
-        <v>6120.694657007351</v>
+        <v>6119.187426922108</v>
       </c>
       <c r="K10" t="n">
-        <v>6080.735839452307</v>
+        <v>6080.731130761816</v>
       </c>
       <c r="L10" t="n">
         <v>6080.73</v>
@@ -43224,89 +43222,89 @@
       <c r="O10" t="n">
         <v>6080.73</v>
       </c>
-      <c r="X10" s="5" t="inlineStr">
+      <c r="X10" s="16" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="Y10" s="6" t="inlineStr">
+      <c r="Y10" s="17" t="inlineStr">
         <is>
           <t>C1s C=O</t>
         </is>
       </c>
-      <c r="Z10" s="6" t="inlineStr">
+      <c r="Z10" s="17" t="inlineStr">
         <is>
-          <t>287.73</t>
+          <t>287.80</t>
         </is>
       </c>
-      <c r="AA10" s="6" t="inlineStr">
+      <c r="AA10" s="17" t="inlineStr">
         <is>
-          <t>1731</t>
+          <t>1524</t>
         </is>
       </c>
-      <c r="AB10" s="6" t="inlineStr">
+      <c r="AB10" s="17" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.90</t>
         </is>
       </c>
-      <c r="AC10" s="6" t="inlineStr">
+      <c r="AC10" s="17" t="inlineStr">
         <is>
-          <t>34.68</t>
+          <t>28.33</t>
         </is>
       </c>
-      <c r="AD10" s="6" t="inlineStr">
+      <c r="AD10" s="17" t="inlineStr">
         <is>
-          <t>3464</t>
+          <t>3082</t>
         </is>
       </c>
-      <c r="AE10" s="6" t="n"/>
-      <c r="AF10" s="6" t="n"/>
-      <c r="AG10" s="6" t="inlineStr">
+      <c r="AE10" s="17" t="inlineStr"/>
+      <c r="AF10" s="17" t="inlineStr"/>
+      <c r="AG10" s="17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AH10" s="6" t="inlineStr">
+      <c r="AH10" s="17" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.0</t>
         </is>
       </c>
-      <c r="AI10" s="6" t="inlineStr">
+      <c r="AI10" s="17" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>2.6</t>
         </is>
       </c>
-      <c r="AJ10" s="6" t="inlineStr">
+      <c r="AJ10" s="17" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.27</t>
         </is>
       </c>
-      <c r="AK10" s="6" t="inlineStr">
+      <c r="AK10" s="17" t="inlineStr">
         <is>
           <t>GL (Area)</t>
         </is>
       </c>
-      <c r="AL10" s="6" t="inlineStr">
+      <c r="AL10" s="17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AM10" s="6" t="inlineStr">
+      <c r="AM10" s="17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AN10" s="6" t="inlineStr">
+      <c r="AN10" s="17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AO10" s="6" t="inlineStr">
+      <c r="AO10" s="17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AP10" s="7" t="inlineStr">
+      <c r="AP10" s="18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -43323,19 +43321,19 @@
         <v>297.18</v>
       </c>
       <c r="G11" t="n">
-        <v>-40.69661249245019</v>
+        <v>-39.16142330880211</v>
       </c>
       <c r="H11" t="n">
         <v>6024.29</v>
       </c>
       <c r="I11" t="n">
-        <v>6064.98661249245</v>
+        <v>6063.451423308802</v>
       </c>
       <c r="J11" t="n">
-        <v>6064.978043155477</v>
+        <v>6063.449670902693</v>
       </c>
       <c r="K11" t="n">
-        <v>6024.298570223188</v>
+        <v>6024.291752592691</v>
       </c>
       <c r="L11" t="n">
         <v>6024.29</v>
@@ -43347,51 +43345,51 @@
         <v>6024.29</v>
       </c>
       <c r="O11" t="n">
-        <v>6024.290000000001</v>
-      </c>
-      <c r="X11" s="8" t="n"/>
-      <c r="Y11" s="9" t="n"/>
-      <c r="Z11" s="9" t="inlineStr">
+        <v>6024.29</v>
+      </c>
+      <c r="X11" s="19" t="inlineStr"/>
+      <c r="Y11" s="20" t="inlineStr"/>
+      <c r="Z11" s="20" t="inlineStr">
         <is>
           <t>A+3.5#0.3</t>
         </is>
       </c>
-      <c r="AA11" s="9" t="inlineStr">
+      <c r="AA11" s="20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AB11" s="9" t="inlineStr">
+      <c r="AB11" s="20" t="inlineStr">
         <is>
           <t>C*1</t>
         </is>
       </c>
-      <c r="AC11" s="9" t="inlineStr">
+      <c r="AC11" s="20" t="inlineStr">
         <is>
           <t>C*1</t>
         </is>
       </c>
-      <c r="AD11" s="9" t="inlineStr">
+      <c r="AD11" s="20" t="inlineStr">
         <is>
           <t>1:1e7</t>
         </is>
       </c>
-      <c r="AE11" s="9" t="n"/>
-      <c r="AF11" s="9" t="n"/>
-      <c r="AG11" s="9" t="inlineStr">
+      <c r="AE11" s="20" t="inlineStr"/>
+      <c r="AF11" s="20" t="inlineStr"/>
+      <c r="AG11" s="20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AH11" s="9" t="n"/>
-      <c r="AI11" s="9" t="n"/>
-      <c r="AJ11" s="9" t="n"/>
-      <c r="AK11" s="9" t="n"/>
-      <c r="AL11" s="9" t="n"/>
-      <c r="AM11" s="9" t="n"/>
-      <c r="AN11" s="9" t="n"/>
-      <c r="AO11" s="9" t="n"/>
-      <c r="AP11" s="10" t="n"/>
+      <c r="AH11" s="20" t="inlineStr"/>
+      <c r="AI11" s="20" t="inlineStr"/>
+      <c r="AJ11" s="20" t="inlineStr"/>
+      <c r="AK11" s="20" t="inlineStr"/>
+      <c r="AL11" s="20" t="inlineStr"/>
+      <c r="AM11" s="20" t="inlineStr"/>
+      <c r="AN11" s="20" t="inlineStr"/>
+      <c r="AO11" s="20" t="inlineStr"/>
+      <c r="AP11" s="21" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -43404,19 +43402,19 @@
         <v>297.08</v>
       </c>
       <c r="G12" t="n">
-        <v>-41.44292032618159</v>
+        <v>-39.88315459200749</v>
       </c>
       <c r="H12" t="n">
         <v>5908.56</v>
       </c>
       <c r="I12" t="n">
-        <v>5950.002920326182</v>
+        <v>5948.443154592008</v>
       </c>
       <c r="J12" t="n">
-        <v>5949.990411849844</v>
+        <v>5948.440455733728</v>
       </c>
       <c r="K12" t="n">
-        <v>5908.572509769928</v>
+        <v>5908.562699145631</v>
       </c>
       <c r="L12" t="n">
         <v>5908.56</v>
@@ -43428,91 +43426,91 @@
         <v>5908.56</v>
       </c>
       <c r="O12" t="n">
-        <v>5908.560000000001</v>
-      </c>
-      <c r="X12" s="5" t="inlineStr">
+        <v>5908.56</v>
+      </c>
+      <c r="X12" s="16" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="Y12" s="6" t="inlineStr">
+      <c r="Y12" s="17" t="inlineStr">
         <is>
           <t>C1s O-C=O</t>
         </is>
       </c>
-      <c r="Z12" s="6" t="inlineStr">
+      <c r="Z12" s="17" t="inlineStr">
         <is>
-          <t>289.28</t>
+          <t>289.32</t>
         </is>
       </c>
-      <c r="AA12" s="6" t="inlineStr">
+      <c r="AA12" s="17" t="inlineStr">
         <is>
-          <t>1144</t>
+          <t>1410</t>
         </is>
       </c>
-      <c r="AB12" s="6" t="inlineStr">
+      <c r="AB12" s="17" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.90</t>
         </is>
       </c>
-      <c r="AC12" s="6" t="inlineStr">
+      <c r="AC12" s="17" t="inlineStr">
         <is>
-          <t>34.68</t>
+          <t>28.33</t>
         </is>
       </c>
-      <c r="AD12" s="6" t="inlineStr">
+      <c r="AD12" s="17" t="inlineStr">
         <is>
-          <t>2289</t>
+          <t>2852</t>
         </is>
       </c>
-      <c r="AE12" s="6" t="n"/>
-      <c r="AF12" s="6" t="n"/>
-      <c r="AG12" s="6" t="inlineStr">
+      <c r="AE12" s="17" t="inlineStr"/>
+      <c r="AF12" s="17" t="inlineStr"/>
+      <c r="AG12" s="17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AH12" s="6" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-      <c r="AI12" s="6" t="inlineStr">
+      <c r="AH12" s="17" t="inlineStr">
         <is>
           <t>1.9</t>
         </is>
       </c>
-      <c r="AJ12" s="6" t="inlineStr">
+      <c r="AI12" s="17" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>2.4</t>
         </is>
       </c>
-      <c r="AK12" s="6" t="inlineStr">
+      <c r="AJ12" s="17" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="AK12" s="17" t="inlineStr">
         <is>
           <t>GL (Area)</t>
         </is>
       </c>
-      <c r="AL12" s="6" t="inlineStr">
+      <c r="AL12" s="17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AM12" s="6" t="inlineStr">
+      <c r="AM12" s="17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AN12" s="6" t="inlineStr">
+      <c r="AN12" s="17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AO12" s="6" t="inlineStr">
+      <c r="AO12" s="17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AP12" s="7" t="inlineStr">
+      <c r="AP12" s="18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -43529,19 +43527,19 @@
         <v>296.98</v>
       </c>
       <c r="G13" t="n">
-        <v>-42.21057755863694</v>
+        <v>-40.62455438314646</v>
       </c>
       <c r="H13" t="n">
         <v>6024.11</v>
       </c>
       <c r="I13" t="n">
-        <v>6066.320577558637</v>
+        <v>6064.734554383146</v>
       </c>
       <c r="J13" t="n">
-        <v>6066.30241815623</v>
+        <v>6064.73042424868</v>
       </c>
       <c r="K13" t="n">
-        <v>6024.128161280396</v>
+        <v>6024.114130574206</v>
       </c>
       <c r="L13" t="n">
         <v>6024.11</v>
@@ -43553,51 +43551,51 @@
         <v>6024.11</v>
       </c>
       <c r="O13" t="n">
-        <v>6024.110000000002</v>
-      </c>
-      <c r="X13" s="8" t="n"/>
-      <c r="Y13" s="9" t="n"/>
-      <c r="Z13" s="9" t="inlineStr">
+        <v>6024.110000000001</v>
+      </c>
+      <c r="X13" s="19" t="inlineStr"/>
+      <c r="Y13" s="20" t="inlineStr"/>
+      <c r="Z13" s="20" t="inlineStr">
         <is>
           <t>A+4.5#0.5</t>
         </is>
       </c>
-      <c r="AA13" s="9" t="inlineStr">
+      <c r="AA13" s="20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AB13" s="9" t="inlineStr">
+      <c r="AB13" s="20" t="inlineStr">
         <is>
           <t>C*1</t>
         </is>
       </c>
-      <c r="AC13" s="9" t="inlineStr">
+      <c r="AC13" s="20" t="inlineStr">
         <is>
           <t>C*1</t>
         </is>
       </c>
-      <c r="AD13" s="9" t="inlineStr">
+      <c r="AD13" s="20" t="inlineStr">
         <is>
           <t>1:1e7</t>
         </is>
       </c>
-      <c r="AE13" s="9" t="n"/>
-      <c r="AF13" s="9" t="n"/>
-      <c r="AG13" s="9" t="inlineStr">
+      <c r="AE13" s="20" t="inlineStr"/>
+      <c r="AF13" s="20" t="inlineStr"/>
+      <c r="AG13" s="20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AH13" s="9" t="n"/>
-      <c r="AI13" s="9" t="n"/>
-      <c r="AJ13" s="9" t="n"/>
-      <c r="AK13" s="9" t="n"/>
-      <c r="AL13" s="9" t="n"/>
-      <c r="AM13" s="9" t="n"/>
-      <c r="AN13" s="9" t="n"/>
-      <c r="AO13" s="9" t="n"/>
-      <c r="AP13" s="10" t="n"/>
+      <c r="AH13" s="20" t="inlineStr"/>
+      <c r="AI13" s="20" t="inlineStr"/>
+      <c r="AJ13" s="20" t="inlineStr"/>
+      <c r="AK13" s="20" t="inlineStr"/>
+      <c r="AL13" s="20" t="inlineStr"/>
+      <c r="AM13" s="20" t="inlineStr"/>
+      <c r="AN13" s="20" t="inlineStr"/>
+      <c r="AO13" s="20" t="inlineStr"/>
+      <c r="AP13" s="21" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -43610,19 +43608,19 @@
         <v>296.88</v>
       </c>
       <c r="G14" t="n">
-        <v>-43.00096577545901</v>
+        <v>-41.3865274136333</v>
       </c>
       <c r="H14" t="n">
         <v>6021.14</v>
       </c>
       <c r="I14" t="n">
-        <v>6064.140965775459</v>
+        <v>6062.526527413634</v>
       </c>
       <c r="J14" t="n">
-        <v>6064.11474524694</v>
+        <v>6062.520246967822</v>
       </c>
       <c r="K14" t="n">
-        <v>6021.166223240164</v>
+        <v>6021.146281114497</v>
       </c>
       <c r="L14" t="n">
         <v>6021.14</v>
@@ -43634,7 +43632,7 @@
         <v>6021.14</v>
       </c>
       <c r="O14" t="n">
-        <v>6021.140000000007</v>
+        <v>6021.140000000002</v>
       </c>
     </row>
     <row r="15">
@@ -43648,19 +43646,19 @@
         <v>296.78</v>
       </c>
       <c r="G15" t="n">
-        <v>-43.81576121384933</v>
+        <v>-42.17011344248931</v>
       </c>
       <c r="H15" t="n">
         <v>6150.22</v>
       </c>
       <c r="I15" t="n">
-        <v>6194.03576121385</v>
+        <v>6192.39011344249</v>
       </c>
       <c r="J15" t="n">
-        <v>6193.998105846516</v>
+        <v>6192.380623526895</v>
       </c>
       <c r="K15" t="n">
-        <v>6150.257659261527</v>
+        <v>6150.229490925994</v>
       </c>
       <c r="L15" t="n">
         <v>6150.22</v>
@@ -43672,7 +43670,7 @@
         <v>6150.22</v>
       </c>
       <c r="O15" t="n">
-        <v>6150.220000000016</v>
+        <v>6150.220000000004</v>
       </c>
     </row>
     <row r="16">
@@ -43686,19 +43684,19 @@
         <v>296.68</v>
       </c>
       <c r="G16" t="n">
-        <v>-44.65702870719088</v>
+        <v>-42.97653315583284</v>
       </c>
       <c r="H16" t="n">
         <v>6057.63</v>
       </c>
       <c r="I16" t="n">
-        <v>6102.287028707191</v>
+        <v>6100.606533155833</v>
       </c>
       <c r="J16" t="n">
-        <v>6102.233243764346</v>
+        <v>6100.592284191907</v>
       </c>
       <c r="K16" t="n">
-        <v>6057.683790505096</v>
+        <v>6057.644250481022</v>
       </c>
       <c r="L16" t="n">
         <v>6057.63</v>
@@ -43710,7 +43708,7 @@
         <v>6057.63</v>
       </c>
       <c r="O16" t="n">
-        <v>6057.630000000033</v>
+        <v>6057.630000000009</v>
       </c>
     </row>
     <row r="17">
@@ -43724,19 +43722,19 @@
         <v>296.58</v>
       </c>
       <c r="G17" t="n">
-        <v>-45.52734473299188</v>
+        <v>-43.80725114885718</v>
       </c>
       <c r="H17" t="n">
         <v>6147.73</v>
       </c>
       <c r="I17" t="n">
-        <v>6193.257344732991</v>
+        <v>6191.537251148857</v>
       </c>
       <c r="J17" t="n">
-        <v>6193.180935520153</v>
+        <v>6191.515991465973</v>
       </c>
       <c r="K17" t="n">
-        <v>6147.806417114786</v>
+        <v>6147.75126194641</v>
       </c>
       <c r="L17" t="n">
         <v>6147.73</v>
@@ -43748,7 +43746,7 @@
         <v>6147.73</v>
       </c>
       <c r="O17" t="n">
-        <v>6147.730000000071</v>
+        <v>6147.73000000002</v>
       </c>
     </row>
     <row r="18">
@@ -43762,19 +43760,19 @@
         <v>296.48</v>
       </c>
       <c r="G18" t="n">
-        <v>-46.42995750283808</v>
+        <v>-44.66406180541526</v>
       </c>
       <c r="H18" t="n">
         <v>6214.59</v>
       </c>
       <c r="I18" t="n">
-        <v>6261.019957502838</v>
+        <v>6259.254061805415</v>
       </c>
       <c r="J18" t="n">
-        <v>6260.911992068814</v>
+        <v>6259.222541794609</v>
       </c>
       <c r="K18" t="n">
-        <v>6214.697976599341</v>
+        <v>6214.621523366737</v>
       </c>
       <c r="L18" t="n">
         <v>6214.59</v>
@@ -43786,7 +43784,7 @@
         <v>6214.59</v>
       </c>
       <c r="O18" t="n">
-        <v>6214.590000000156</v>
+        <v>6214.590000000046</v>
       </c>
     </row>
     <row r="19">
@@ -43800,19 +43798,19 @@
         <v>296.38</v>
       </c>
       <c r="G19" t="n">
-        <v>-47.36899379766237</v>
+        <v>-45.54920559495804</v>
       </c>
       <c r="H19" t="n">
         <v>6119.2</v>
       </c>
       <c r="I19" t="n">
-        <v>6166.568993797662</v>
+        <v>6164.749205594958</v>
       </c>
       <c r="J19" t="n">
-        <v>6166.417260631477</v>
+        <v>6164.702767376429</v>
       </c>
       <c r="K19" t="n">
-        <v>6119.351748857657</v>
+        <v>6119.246443162762</v>
       </c>
       <c r="L19" t="n">
         <v>6119.2</v>
@@ -43824,7 +43822,7 @@
         <v>6119.2</v>
       </c>
       <c r="O19" t="n">
-        <v>6119.200000000333</v>
+        <v>6119.200000000103</v>
       </c>
     </row>
     <row r="20">
@@ -43838,19 +43836,19 @@
         <v>296.28</v>
       </c>
       <c r="G20" t="n">
-        <v>-48.34972427556568</v>
+        <v>-46.46552540363427</v>
       </c>
       <c r="H20" t="n">
         <v>6140.58</v>
       </c>
       <c r="I20" t="n">
-        <v>6188.929724275566</v>
+        <v>6187.045525403634</v>
       </c>
       <c r="J20" t="n">
-        <v>6188.717626640485</v>
+        <v>6186.977538086669</v>
       </c>
       <c r="K20" t="n">
-        <v>6140.7921195689</v>
+        <v>6140.647994555434</v>
       </c>
       <c r="L20" t="n">
         <v>6140.58</v>
@@ -43862,7 +43860,7 @@
         <v>6140.58</v>
       </c>
       <c r="O20" t="n">
-        <v>6140.580000000705</v>
+        <v>6140.580000000228</v>
       </c>
     </row>
     <row r="21">
@@ -43876,19 +43874,19 @@
         <v>296.18</v>
       </c>
       <c r="G21" t="n">
-        <v>-49.37890125712966</v>
+        <v>-47.41667505713485</v>
       </c>
       <c r="H21" t="n">
         <v>6278.47</v>
       </c>
       <c r="I21" t="n">
-        <v>6327.84890125713</v>
+        <v>6325.886675057135</v>
       </c>
       <c r="J21" t="n">
-        <v>6327.554015806218</v>
+        <v>6325.78776352163</v>
       </c>
       <c r="K21" t="n">
-        <v>6278.764915945637</v>
+        <v>6278.568922066241</v>
       </c>
       <c r="L21" t="n">
         <v>6278.47</v>
@@ -43900,7 +43898,7 @@
         <v>6278.47</v>
       </c>
       <c r="O21" t="n">
-        <v>6278.470000001477</v>
+        <v>6278.470000000503</v>
       </c>
     </row>
     <row r="22">
@@ -43914,19 +43912,19 @@
         <v>296.08</v>
       </c>
       <c r="G22" t="n">
-        <v>-50.465185499992</v>
+        <v>-48.40739521974228</v>
       </c>
       <c r="H22" t="n">
         <v>6266.49</v>
       </c>
       <c r="I22" t="n">
-        <v>6316.955185499992</v>
+        <v>6314.897395219742</v>
       </c>
       <c r="J22" t="n">
-        <v>6316.547396314618</v>
+        <v>6314.754395172746</v>
       </c>
       <c r="K22" t="n">
-        <v>6266.89783135469</v>
+        <v>6266.633015271301</v>
       </c>
       <c r="L22" t="n">
         <v>6266.49</v>
@@ -43938,7 +43936,7 @@
         <v>6266.49</v>
       </c>
       <c r="O22" t="n">
-        <v>6266.490000003063</v>
+        <v>6266.490000001094</v>
       </c>
     </row>
     <row r="23">
@@ -43952,19 +43950,19 @@
         <v>295.98</v>
       </c>
       <c r="G23" t="n">
-        <v>-51.61968116079424</v>
+        <v>-49.44387539386389</v>
       </c>
       <c r="H23" t="n">
         <v>6208.4</v>
       </c>
       <c r="I23" t="n">
-        <v>6260.019681160794</v>
+        <v>6257.843875393864</v>
       </c>
       <c r="J23" t="n">
-        <v>6259.458781164877</v>
+        <v>6257.638428739686</v>
       </c>
       <c r="K23" t="n">
-        <v>6208.960957996282</v>
+        <v>6208.605468525991</v>
       </c>
       <c r="L23" t="n">
         <v>6208.4</v>
@@ -43976,7 +43974,7 @@
         <v>6208.4</v>
       </c>
       <c r="O23" t="n">
-        <v>6208.400000006292</v>
+        <v>6208.400000002354</v>
       </c>
     </row>
     <row r="24">
@@ -43990,19 +43988,19 @@
         <v>295.88</v>
       </c>
       <c r="G24" t="n">
-        <v>-52.85660092661965</v>
+        <v>-50.53422479736855</v>
       </c>
       <c r="H24" t="n">
         <v>6218.54</v>
       </c>
       <c r="I24" t="n">
-        <v>6271.39660092662</v>
+        <v>6269.074224797369</v>
       </c>
       <c r="J24" t="n">
-        <v>6270.629230657539</v>
+        <v>6268.780906592714</v>
       </c>
       <c r="K24" t="n">
-        <v>6219.3074496155</v>
+        <v>6218.833349429606</v>
       </c>
       <c r="L24" t="n">
         <v>6218.54</v>
@@ -44014,7 +44012,7 @@
         <v>6218.54</v>
       </c>
       <c r="O24" t="n">
-        <v>6218.540000012798</v>
+        <v>6218.540000005014</v>
       </c>
     </row>
     <row r="25">
@@ -44028,19 +44026,19 @@
         <v>295.78</v>
       </c>
       <c r="G25" t="n">
-        <v>-54.19408605768876</v>
+        <v>-51.68907942431542</v>
       </c>
       <c r="H25" t="n">
         <v>6392.95</v>
       </c>
       <c r="I25" t="n">
-        <v>6447.144086057689</v>
+        <v>6444.639079424315</v>
       </c>
       <c r="J25" t="n">
-        <v>6446.099855044114</v>
+        <v>6444.222920395318</v>
       </c>
       <c r="K25" t="n">
-        <v>6393.994338979158</v>
+        <v>6393.366203327417</v>
       </c>
       <c r="L25" t="n">
         <v>6392.95</v>
@@ -44052,7 +44050,7 @@
         <v>6392.95</v>
       </c>
       <c r="O25" t="n">
-        <v>6392.950000025775</v>
+        <v>6392.950000010564</v>
       </c>
     </row>
     <row r="26">
@@ -44066,19 +44064,19 @@
         <v>295.68</v>
       </c>
       <c r="G26" t="n">
-        <v>-55.65520864787413</v>
+        <v>-52.92237750645563</v>
       </c>
       <c r="H26" t="n">
         <v>6493.71</v>
       </c>
       <c r="I26" t="n">
-        <v>6549.365208647874</v>
+        <v>6546.632377506456</v>
       </c>
       <c r="J26" t="n">
-        <v>6547.951817350253</v>
+        <v>6546.045613899109</v>
       </c>
       <c r="K26" t="n">
-        <v>6495.123537415069</v>
+        <v>6494.296826058796</v>
       </c>
       <c r="L26" t="n">
         <v>6493.71</v>
@@ -44087,10 +44085,10 @@
         <v>6493.71</v>
       </c>
       <c r="N26" t="n">
-        <v>6493.710000000001</v>
+        <v>6493.71</v>
       </c>
       <c r="O26" t="n">
-        <v>6493.7100000514</v>
+        <v>6493.710000022022</v>
       </c>
     </row>
     <row r="27">
@@ -44104,19 +44102,19 @@
         <v>295.58</v>
       </c>
       <c r="G27" t="n">
-        <v>-57.26918555225075</v>
+        <v>-54.25234072531202</v>
       </c>
       <c r="H27" t="n">
         <v>6516.06</v>
       </c>
       <c r="I27" t="n">
-        <v>6573.329185552251</v>
+        <v>6570.312340725312</v>
       </c>
       <c r="J27" t="n">
-        <v>6571.426336385498</v>
+        <v>6569.490185923924</v>
       </c>
       <c r="K27" t="n">
-        <v>6517.963045852428</v>
+        <v>6516.882242291833</v>
       </c>
       <c r="L27" t="n">
         <v>6516.06</v>
@@ -44125,10 +44123,10 @@
         <v>6516.06</v>
       </c>
       <c r="N27" t="n">
-        <v>6516.060000000001</v>
+        <v>6516.06</v>
       </c>
       <c r="O27" t="n">
-        <v>6516.060000101496</v>
+        <v>6516.060000045425</v>
       </c>
     </row>
     <row r="28">
@@ -44142,19 +44140,19 @@
         <v>295.48</v>
       </c>
       <c r="G28" t="n">
-        <v>-59.07283485998505</v>
+        <v>-55.70270362427618</v>
       </c>
       <c r="H28" t="n">
         <v>6640.56</v>
       </c>
       <c r="I28" t="n">
-        <v>6699.632834859985</v>
+        <v>6696.262703624277</v>
       </c>
       <c r="J28" t="n">
-        <v>6697.08468995377</v>
+        <v>6695.117893537257</v>
       </c>
       <c r="K28" t="n">
-        <v>6643.108408229556</v>
+        <v>6641.704931883692</v>
       </c>
       <c r="L28" t="n">
         <v>6640.56</v>
@@ -44163,10 +44161,10 @@
         <v>6640.56</v>
       </c>
       <c r="N28" t="n">
-        <v>6640.560000000003</v>
+        <v>6640.560000000001</v>
       </c>
       <c r="O28" t="n">
-        <v>6640.560000198457</v>
+        <v>6640.560000092709</v>
       </c>
     </row>
     <row r="29">
@@ -44180,19 +44178,19 @@
         <v>295.38</v>
       </c>
       <c r="G29" t="n">
-        <v>-61.11230614357828</v>
+        <v>-57.30423837235867</v>
       </c>
       <c r="H29" t="n">
         <v>6621.08</v>
       </c>
       <c r="I29" t="n">
-        <v>6682.192306143578</v>
+        <v>6678.384238372359</v>
       </c>
       <c r="J29" t="n">
-        <v>6678.79821827997</v>
+        <v>6676.800055448269</v>
       </c>
       <c r="K29" t="n">
-        <v>6624.474438486136</v>
+        <v>6622.664351406825</v>
       </c>
       <c r="L29" t="n">
         <v>6621.08</v>
@@ -44201,10 +44199,10 @@
         <v>6621.08</v>
       </c>
       <c r="N29" t="n">
-        <v>6621.080000000007</v>
+        <v>6621.080000000002</v>
       </c>
       <c r="O29" t="n">
-        <v>6621.080000384251</v>
+        <v>6621.080000187216</v>
       </c>
     </row>
     <row r="30">
@@ -44218,19 +44216,19 @@
         <v>295.28</v>
       </c>
       <c r="G30" t="n">
-        <v>-63.44511455468</v>
+        <v>-59.09662583922091</v>
       </c>
       <c r="H30" t="n">
         <v>6830.07</v>
       </c>
       <c r="I30" t="n">
-        <v>6893.51511455468</v>
+        <v>6889.166625839221</v>
       </c>
       <c r="J30" t="n">
-        <v>6889.018327669353</v>
+        <v>6886.988055633021</v>
       </c>
       <c r="K30" t="n">
-        <v>6834.567251193338</v>
+        <v>6832.248801787202</v>
       </c>
       <c r="L30" t="n">
         <v>6830.07</v>
@@ -44239,10 +44237,10 @@
         <v>6830.07</v>
       </c>
       <c r="N30" t="n">
-        <v>6830.070000000015</v>
+        <v>6830.070000000003</v>
       </c>
       <c r="O30" t="n">
-        <v>6830.070000736728</v>
+        <v>6830.070000374084</v>
       </c>
     </row>
     <row r="31">
@@ -44256,19 +44254,19 @@
         <v>295.18</v>
       </c>
       <c r="G31" t="n">
-        <v>-66.14250564898794</v>
+        <v>-61.13072620728053</v>
       </c>
       <c r="H31" t="n">
         <v>6676.06</v>
       </c>
       <c r="I31" t="n">
-        <v>6742.202505648988</v>
+        <v>6737.190726207281</v>
       </c>
       <c r="J31" t="n">
-        <v>6736.27649441787</v>
+        <v>6734.213347208984</v>
       </c>
       <c r="K31" t="n">
-        <v>6681.986622683373</v>
+        <v>6679.037695263893</v>
       </c>
       <c r="L31" t="n">
         <v>6676.06</v>
@@ -44277,10 +44275,10 @@
         <v>6676.06</v>
       </c>
       <c r="N31" t="n">
-        <v>6676.060000000034</v>
+        <v>6676.060000000009</v>
       </c>
       <c r="O31" t="n">
-        <v>6676.06000139876</v>
+        <v>6676.06000073961</v>
       </c>
     </row>
     <row r="32">
@@ -44294,19 +44292,19 @@
         <v>295.08</v>
       </c>
       <c r="G32" t="n">
-        <v>-69.29217202228483</v>
+        <v>-63.47130225711953</v>
       </c>
       <c r="H32" t="n">
         <v>6740.41</v>
       </c>
       <c r="I32" t="n">
-        <v>6809.702172022285</v>
+        <v>6803.881302257119</v>
       </c>
       <c r="J32" t="n">
-        <v>6801.934268993176</v>
+        <v>6799.837456578501</v>
       </c>
       <c r="K32" t="n">
-        <v>6748.178703733445</v>
+        <v>6744.454274784815</v>
       </c>
       <c r="L32" t="n">
         <v>6740.41</v>
@@ -44315,10 +44313,10 @@
         <v>6740.41</v>
       </c>
       <c r="N32" t="n">
-        <v>6740.410000000074</v>
+        <v>6740.410000000018</v>
       </c>
       <c r="O32" t="n">
-        <v>6740.410002629839</v>
+        <v>6740.410001446927</v>
       </c>
     </row>
     <row r="33">
@@ -44332,19 +44330,19 @@
         <v>294.98</v>
       </c>
       <c r="G33" t="n">
-        <v>-73.00133377823386</v>
+        <v>-66.20024502794058</v>
       </c>
       <c r="H33" t="n">
         <v>7052.57</v>
       </c>
       <c r="I33" t="n">
-        <v>7125.571333778234</v>
+        <v>7118.77024502794</v>
       </c>
       <c r="J33" t="n">
-        <v>7115.443280507873</v>
+        <v>7113.311987862625</v>
       </c>
       <c r="K33" t="n">
-        <v>7062.69909578817</v>
+        <v>7058.028835511382</v>
       </c>
       <c r="L33" t="n">
         <v>7052.57</v>
@@ -44353,10 +44351,10 @@
         <v>7052.57</v>
       </c>
       <c r="N33" t="n">
-        <v>7052.570000000161</v>
+        <v>7052.570000000042</v>
       </c>
       <c r="O33" t="n">
-        <v>7052.570004896333</v>
+        <v>7052.570002800959</v>
       </c>
     </row>
     <row r="34">
@@ -44370,19 +44368,19 @@
         <v>294.88</v>
       </c>
       <c r="G34" t="n">
-        <v>-77.40018183079792</v>
+        <v>-69.42034361256719</v>
       </c>
       <c r="H34" t="n">
         <v>7105.22</v>
       </c>
       <c r="I34" t="n">
-        <v>7182.620181830798</v>
+        <v>7174.640343612567</v>
       </c>
       <c r="J34" t="n">
-        <v>7169.485241508379</v>
+        <v>7167.318627648679</v>
       </c>
       <c r="K34" t="n">
-        <v>7118.356289672563</v>
+        <v>7112.542490149955</v>
       </c>
       <c r="L34" t="n">
         <v>7105.22</v>
@@ -44391,10 +44389,10 @@
         <v>7105.22</v>
       </c>
       <c r="N34" t="n">
-        <v>7105.220000000346</v>
+        <v>7105.220000000095</v>
       </c>
       <c r="O34" t="n">
-        <v>7105.220009027631</v>
+        <v>7105.220005365222</v>
       </c>
     </row>
     <row r="35">
@@ -44408,19 +44406,19 @@
         <v>294.78</v>
       </c>
       <c r="G35" t="n">
-        <v>-82.64566535426275</v>
+        <v>-73.25962707288727</v>
       </c>
       <c r="H35" t="n">
         <v>7076.22</v>
       </c>
       <c r="I35" t="n">
-        <v>7158.865665354263</v>
+        <v>7149.479627072888</v>
       </c>
       <c r="J35" t="n">
-        <v>7141.92195310502</v>
+        <v>7139.719150077016</v>
       </c>
       <c r="K35" t="n">
-        <v>7093.165448035977</v>
+        <v>7085.981506034674</v>
       </c>
       <c r="L35" t="n">
         <v>7076.22</v>
@@ -44429,10 +44427,10 @@
         <v>7076.22</v>
       </c>
       <c r="N35" t="n">
-        <v>7076.220000000734</v>
+        <v>7076.220000000211</v>
       </c>
       <c r="O35" t="n">
-        <v>7076.220016483279</v>
+        <v>7076.220010169385</v>
       </c>
     </row>
     <row r="36">
@@ -44446,19 +44444,19 @@
         <v>294.68</v>
       </c>
       <c r="G36" t="n">
-        <v>-88.92558163037393</v>
+        <v>-77.876285405423</v>
       </c>
       <c r="H36" t="n">
         <v>7197</v>
       </c>
       <c r="I36" t="n">
-        <v>7285.925581630374</v>
+        <v>7274.876285405423</v>
       </c>
       <c r="J36" t="n">
-        <v>7264.185310471265</v>
+        <v>7261.945422294794</v>
       </c>
       <c r="K36" t="n">
-        <v>7218.742489670544</v>
+        <v>7209.93222079817</v>
       </c>
       <c r="L36" t="n">
         <v>7197</v>
@@ -44467,10 +44465,10 @@
         <v>7197</v>
       </c>
       <c r="N36" t="n">
-        <v>7197.000000001546</v>
+        <v>7197.000000000465</v>
       </c>
       <c r="O36" t="n">
-        <v>7197.000029804813</v>
+        <v>7197.000019073613</v>
       </c>
     </row>
     <row r="37">
@@ -44484,19 +44482,19 @@
         <v>294.58</v>
       </c>
       <c r="G37" t="n">
-        <v>-96.46289746609455</v>
+        <v>-83.46414662013194</v>
       </c>
       <c r="H37" t="n">
         <v>7234.56</v>
       </c>
       <c r="I37" t="n">
-        <v>7331.022897466095</v>
+        <v>7318.024146620132</v>
       </c>
       <c r="J37" t="n">
-        <v>7303.277308742585</v>
+        <v>7300.999410307179</v>
       </c>
       <c r="K37" t="n">
-        <v>7262.308404720679</v>
+        <v>7251.586513549702</v>
       </c>
       <c r="L37" t="n">
         <v>7234.56</v>
@@ -44505,10 +44503,10 @@
         <v>7234.56</v>
       </c>
       <c r="N37" t="n">
-        <v>7234.560000003223</v>
+        <v>7234.560000001014</v>
       </c>
       <c r="O37" t="n">
-        <v>7234.560053371378</v>
+        <v>7234.560035400382</v>
       </c>
     </row>
     <row r="38">
@@ -44522,19 +44520,19 @@
         <v>294.48</v>
       </c>
       <c r="G38" t="n">
-        <v>-105.5201957518793</v>
+        <v>-90.25864679516599</v>
       </c>
       <c r="H38" t="n">
         <v>7320.83</v>
       </c>
       <c r="I38" t="n">
-        <v>7426.350195751879</v>
+        <v>7411.088646795166</v>
       </c>
       <c r="J38" t="n">
-        <v>7391.13004934829</v>
+        <v>7388.813185259171</v>
       </c>
       <c r="K38" t="n">
-        <v>7356.053694119279</v>
+        <v>7343.107768200475</v>
       </c>
       <c r="L38" t="n">
         <v>7320.83</v>
@@ -44543,10 +44541,10 @@
         <v>7320.83</v>
       </c>
       <c r="N38" t="n">
-        <v>7320.830000006652</v>
+        <v>7320.830000002185</v>
       </c>
       <c r="O38" t="n">
-        <v>7320.830094649006</v>
+        <v>7320.83006501674</v>
       </c>
     </row>
     <row r="39">
@@ -44560,31 +44558,31 @@
         <v>294.38</v>
       </c>
       <c r="G39" t="n">
-        <v>-116.4040982858423</v>
+        <v>-98.54317802660898</v>
       </c>
       <c r="H39" t="n">
         <v>7286.22</v>
       </c>
       <c r="I39" t="n">
-        <v>7402.624098285843</v>
+        <v>7384.763178026609</v>
       </c>
       <c r="J39" t="n">
-        <v>7358.155746812862</v>
+        <v>7355.798930184531</v>
       </c>
       <c r="K39" t="n">
-        <v>7330.692784025043</v>
+        <v>7315.187213507949</v>
       </c>
       <c r="L39" t="n">
         <v>7286.22</v>
       </c>
       <c r="M39" t="n">
-        <v>7286.220000000001</v>
+        <v>7286.22</v>
       </c>
       <c r="N39" t="n">
-        <v>7286.220000013596</v>
+        <v>7286.220000004663</v>
       </c>
       <c r="O39" t="n">
-        <v>7286.220166232529</v>
+        <v>7286.220118165428</v>
       </c>
     </row>
     <row r="40">
@@ -44598,31 +44596,31 @@
         <v>294.28</v>
       </c>
       <c r="G40" t="n">
-        <v>-129.4694666861469</v>
+        <v>-108.6556343550546</v>
       </c>
       <c r="H40" t="n">
         <v>7418.05</v>
       </c>
       <c r="I40" t="n">
-        <v>7547.519466686147</v>
+        <v>7526.705634355055</v>
       </c>
       <c r="J40" t="n">
-        <v>7491.676736066735</v>
+        <v>7489.278947261562</v>
       </c>
       <c r="K40" t="n">
-        <v>7473.898216558066</v>
+        <v>7455.48045938191</v>
       </c>
       <c r="L40" t="n">
         <v>7418.05</v>
       </c>
       <c r="M40" t="n">
-        <v>7418.050000000001</v>
+        <v>7418.05</v>
       </c>
       <c r="N40" t="n">
-        <v>7418.050000027516</v>
+        <v>7418.050000009845</v>
       </c>
       <c r="O40" t="n">
-        <v>7418.050289144638</v>
+        <v>7418.050212524739</v>
       </c>
     </row>
     <row r="41">
@@ -44636,31 +44634,31 @@
         <v>294.18</v>
       </c>
       <c r="G41" t="n">
-        <v>-145.1231274484144</v>
+        <v>-120.9948973201053</v>
       </c>
       <c r="H41" t="n">
         <v>7458.22</v>
       </c>
       <c r="I41" t="n">
-        <v>7603.343127448415</v>
+        <v>7579.214897320106</v>
       </c>
       <c r="J41" t="n">
-        <v>7533.59548031039</v>
+        <v>7531.155665619586</v>
       </c>
       <c r="K41" t="n">
-        <v>7527.974362107607</v>
+        <v>7506.28397027077</v>
       </c>
       <c r="L41" t="n">
         <v>7458.22</v>
       </c>
       <c r="M41" t="n">
-        <v>7458.220000000003</v>
+        <v>7458.220000000001</v>
       </c>
       <c r="N41" t="n">
-        <v>7458.220000055143</v>
+        <v>7458.220000020568</v>
       </c>
       <c r="O41" t="n">
-        <v>7458.220498104598</v>
+        <v>7458.220378258199</v>
       </c>
     </row>
     <row r="42">
@@ -44674,31 +44672,31 @@
         <v>294.08</v>
       </c>
       <c r="G42" t="n">
-        <v>-163.8268059215861</v>
+        <v>-136.0269107514814</v>
       </c>
       <c r="H42" t="n">
         <v>7332.81</v>
       </c>
       <c r="I42" t="n">
-        <v>7496.636805921587</v>
+        <v>7468.836910751482</v>
       </c>
       <c r="J42" t="n">
-        <v>7409.994579479846</v>
+        <v>7407.511649744013</v>
       </c>
       <c r="K42" t="n">
-        <v>7419.460336826103</v>
+        <v>7394.141123961218</v>
       </c>
       <c r="L42" t="n">
         <v>7332.81</v>
       </c>
       <c r="M42" t="n">
-        <v>7332.810000000007</v>
+        <v>7332.810000000001</v>
       </c>
       <c r="N42" t="n">
-        <v>7332.810000109424</v>
+        <v>7332.810000042515</v>
       </c>
       <c r="O42" t="n">
-        <v>7332.810849844681</v>
+        <v>7332.810666243697</v>
       </c>
     </row>
     <row r="43">
@@ -44712,31 +44710,31 @@
         <v>293.98</v>
       </c>
       <c r="G43" t="n">
-        <v>-186.0988888342863</v>
+        <v>-154.2898897091545</v>
       </c>
       <c r="H43" t="n">
         <v>7381.26</v>
       </c>
       <c r="I43" t="n">
-        <v>7567.358888834287</v>
+        <v>7535.549889709155</v>
       </c>
       <c r="J43" t="n">
-        <v>7460.316779366409</v>
+        <v>7457.789608532769</v>
       </c>
       <c r="K43" t="n">
-        <v>7488.311743238963</v>
+        <v>7459.027398768643</v>
       </c>
       <c r="L43" t="n">
         <v>7381.26</v>
       </c>
       <c r="M43" t="n">
-        <v>7381.260000000014</v>
+        <v>7381.260000000003</v>
       </c>
       <c r="N43" t="n">
-        <v>7381.260000215011</v>
+        <v>7381.260000086953</v>
       </c>
       <c r="O43" t="n">
-        <v>7381.261436083595</v>
+        <v>7381.261161314899</v>
       </c>
     </row>
     <row r="44">
@@ -44750,31 +44748,31 @@
         <v>293.88</v>
       </c>
       <c r="G44" t="n">
-        <v>-212.5145685679681</v>
+        <v>-176.39809341814</v>
       </c>
       <c r="H44" t="n">
         <v>7374.18</v>
       </c>
       <c r="I44" t="n">
-        <v>7586.694568567968</v>
+        <v>7550.57809341814</v>
       </c>
       <c r="J44" t="n">
-        <v>7455.174981448765</v>
+        <v>7452.602405062072</v>
       </c>
       <c r="K44" t="n">
-        <v>7505.710784691173</v>
+        <v>7472.164116061499</v>
       </c>
       <c r="L44" t="n">
         <v>7374.18</v>
       </c>
       <c r="M44" t="n">
-        <v>7374.18000000003</v>
+        <v>7374.180000000007</v>
       </c>
       <c r="N44" t="n">
-        <v>7374.180000418354</v>
+        <v>7374.180000175968</v>
       </c>
       <c r="O44" t="n">
-        <v>7374.182403525913</v>
+        <v>7374.182003296957</v>
       </c>
     </row>
     <row r="45">
@@ -44788,31 +44786,31 @@
         <v>293.78</v>
       </c>
       <c r="G45" t="n">
-        <v>-243.7038583259618</v>
+        <v>-203.0434706340775</v>
       </c>
       <c r="H45" t="n">
         <v>7472.41</v>
       </c>
       <c r="I45" t="n">
-        <v>7716.113858325962</v>
+        <v>7675.453470634077</v>
       </c>
       <c r="J45" t="n">
-        <v>7555.412253501353</v>
+        <v>7552.793067125323</v>
       </c>
       <c r="K45" t="n">
-        <v>7633.124239221514</v>
+        <v>7595.080042256288</v>
       </c>
       <c r="L45" t="n">
         <v>7472.41</v>
       </c>
       <c r="M45" t="n">
-        <v>7472.410000000067</v>
+        <v>7472.410000000015</v>
       </c>
       <c r="N45" t="n">
-        <v>7472.410000806055</v>
+        <v>7472.410000352353</v>
       </c>
       <c r="O45" t="n">
-        <v>7472.413984325573</v>
+        <v>7472.413419995451</v>
       </c>
     </row>
     <row r="46">
@@ -44826,31 +44824,31 @@
         <v>293.68</v>
       </c>
       <c r="G46" t="n">
-        <v>-132.0763702112554</v>
+        <v>-86.72436439115336</v>
       </c>
       <c r="H46" t="n">
-        <v>7473.4394594749</v>
+        <v>7473.44</v>
       </c>
       <c r="I46" t="n">
-        <v>7753.786370211255</v>
+        <v>7708.434364391153</v>
       </c>
       <c r="J46" t="n">
-        <v>7558.52130052438</v>
+        <v>7555.854798615504</v>
       </c>
       <c r="K46" t="n">
-        <v>7668.718179824384</v>
+        <v>7626.03003095126</v>
       </c>
       <c r="L46" t="n">
-        <v>7473.4394594749</v>
+        <v>7473.44</v>
       </c>
       <c r="M46" t="n">
-        <v>7473.439459475047</v>
+        <v>7473.440000000035</v>
       </c>
       <c r="N46" t="n">
-        <v>7473.439461012798</v>
+        <v>7473.440000698118</v>
       </c>
       <c r="O46" t="n">
-        <v>7473.446001405957</v>
+        <v>7473.44577825993</v>
       </c>
     </row>
     <row r="47">
@@ -44864,31 +44862,31 @@
         <v>293.58</v>
       </c>
       <c r="G47" t="n">
-        <v>-250.7341402954926</v>
+        <v>-200.6603505871954</v>
       </c>
       <c r="H47" t="n">
-        <v>7473.188110387882</v>
+        <v>7473.19</v>
       </c>
       <c r="I47" t="n">
-        <v>7796.354140295492</v>
+        <v>7746.280350587195</v>
       </c>
       <c r="J47" t="n">
-        <v>7560.42529013672</v>
+        <v>7557.710991828602</v>
       </c>
       <c r="K47" t="n">
-        <v>7709.130718101213</v>
+        <v>7661.769770602509</v>
       </c>
       <c r="L47" t="n">
-        <v>7473.188110387882</v>
+        <v>7473.19</v>
       </c>
       <c r="M47" t="n">
-        <v>7473.188110388201</v>
+        <v>7473.19000000008</v>
       </c>
       <c r="N47" t="n">
-        <v>7473.188113293498</v>
+        <v>7473.190001368644</v>
       </c>
       <c r="O47" t="n">
-        <v>7473.198749629159</v>
+        <v>7473.199661988151</v>
       </c>
     </row>
     <row r="48">
@@ -44902,31 +44900,31 @@
         <v>293.48</v>
       </c>
       <c r="G48" t="n">
-        <v>-244.3163019244839</v>
+        <v>-189.6321938273377</v>
       </c>
       <c r="H48" t="n">
-        <v>7472.812554881651</v>
+        <v>7472.81</v>
       </c>
       <c r="I48" t="n">
-        <v>7845.726301924484</v>
+        <v>7791.042193827338</v>
       </c>
       <c r="J48" t="n">
-        <v>7562.284463656832</v>
+        <v>7559.515240773712</v>
       </c>
       <c r="K48" t="n">
-        <v>7756.266562764074</v>
+        <v>7704.345608324386</v>
       </c>
       <c r="L48" t="n">
-        <v>7472.812554881651</v>
+        <v>7472.81</v>
       </c>
       <c r="M48" t="n">
-        <v>7472.812554882336</v>
+        <v>7472.810000000181</v>
       </c>
       <c r="N48" t="n">
-        <v>7472.812560317925</v>
+        <v>7472.810002655016</v>
       </c>
       <c r="O48" t="n">
-        <v>7472.829693567296</v>
+        <v>7472.825989701452</v>
       </c>
     </row>
     <row r="49">
@@ -44940,31 +44938,31 @@
         <v>293.38</v>
       </c>
       <c r="G49" t="n">
-        <v>-255.6961423586999</v>
+        <v>-196.7058508827431</v>
       </c>
       <c r="H49" t="n">
-        <v>7472.469799388761</v>
+        <v>7472.47</v>
       </c>
       <c r="I49" t="n">
-        <v>7902.8261423587</v>
+        <v>7843.835850882743</v>
       </c>
       <c r="J49" t="n">
-        <v>7564.259684707701</v>
+        <v>7561.441355584484</v>
       </c>
       <c r="K49" t="n">
-        <v>7811.043914774678</v>
+        <v>7754.868362250966</v>
       </c>
       <c r="L49" t="n">
-        <v>7472.469799388761</v>
+        <v>7472.47</v>
       </c>
       <c r="M49" t="n">
-        <v>7472.469799390222</v>
+        <v>7472.470000000404</v>
       </c>
       <c r="N49" t="n">
-        <v>7472.469809460928</v>
+        <v>7472.470005096399</v>
       </c>
       <c r="O49" t="n">
-        <v>7472.49714674271</v>
+        <v>7472.49618937689</v>
       </c>
     </row>
     <row r="50">
@@ -44978,31 +44976,31 @@
         <v>293.28</v>
       </c>
       <c r="G50" t="n">
-        <v>-242.7151310587378</v>
+        <v>-179.9194580900794</v>
       </c>
       <c r="H50" t="n">
-        <v>7471.952871029349</v>
+        <v>7471.95</v>
       </c>
       <c r="I50" t="n">
-        <v>7968.205131058738</v>
+        <v>7905.409458090079</v>
       </c>
       <c r="J50" t="n">
-        <v>7566.148071318934</v>
+        <v>7563.273378136664</v>
       </c>
       <c r="K50" t="n">
-        <v>7874.008269590792</v>
+        <v>7814.08003420116</v>
       </c>
       <c r="L50" t="n">
-        <v>7471.952871029349</v>
+        <v>7471.95</v>
       </c>
       <c r="M50" t="n">
-        <v>7471.952871032427</v>
+        <v>7471.950000000893</v>
       </c>
       <c r="N50" t="n">
-        <v>7471.952889509627</v>
+        <v>7471.95000968021</v>
       </c>
       <c r="O50" t="n">
-        <v>7471.996095828698</v>
+        <v>7471.992454858371</v>
       </c>
     </row>
     <row r="51">
@@ -45016,31 +45014,31 @@
         <v>293.18</v>
       </c>
       <c r="G51" t="n">
-        <v>-126.9872968569944</v>
+        <v>-61.13232994556347</v>
       </c>
       <c r="H51" t="n">
-        <v>7471.222331541179</v>
+        <v>7471.22</v>
       </c>
       <c r="I51" t="n">
-        <v>8042.547296856995</v>
+        <v>7976.692329945564</v>
       </c>
       <c r="J51" t="n">
-        <v>7567.914526887055</v>
+        <v>7564.985598987756</v>
       </c>
       <c r="K51" t="n">
-        <v>7945.836480264087</v>
+        <v>7882.902416789602</v>
       </c>
       <c r="L51" t="n">
-        <v>7471.222331541179</v>
+        <v>7471.22</v>
       </c>
       <c r="M51" t="n">
-        <v>7471.222331547601</v>
+        <v>7471.220000001954</v>
       </c>
       <c r="N51" t="n">
-        <v>7471.222365119893</v>
+        <v>7471.220018194344</v>
       </c>
       <c r="O51" t="n">
-        <v>7471.290008305442</v>
+        <v>7471.288116667704</v>
       </c>
     </row>
     <row r="52">
@@ -45054,31 +45052,31 @@
         <v>293.08</v>
       </c>
       <c r="G52" t="n">
-        <v>-158.3027064215185</v>
+        <v>-90.38520258027711</v>
       </c>
       <c r="H52" t="n">
-        <v>7470.032683067948</v>
+        <v>7470.03</v>
       </c>
       <c r="I52" t="n">
-        <v>8126.262706421518</v>
+        <v>8058.345202580277</v>
       </c>
       <c r="J52" t="n">
-        <v>7569.31816444867</v>
+        <v>7566.332575767467</v>
       </c>
       <c r="K52" t="n">
-        <v>8026.929803395781</v>
+        <v>7961.986784937167</v>
       </c>
       <c r="L52" t="n">
-        <v>7470.032683067948</v>
+        <v>7470.03</v>
       </c>
       <c r="M52" t="n">
-        <v>7470.032683081217</v>
+        <v>7470.030000004227</v>
       </c>
       <c r="N52" t="n">
-        <v>7470.032743490025</v>
+        <v>7470.030033839473</v>
       </c>
       <c r="O52" t="n">
-        <v>7470.137648002548</v>
+        <v>7470.138170620988</v>
       </c>
     </row>
     <row r="53">
@@ -45092,31 +45090,31 @@
         <v>292.98</v>
       </c>
       <c r="G53" t="n">
-        <v>-150.2837610176684</v>
+        <v>-81.57131178673535</v>
       </c>
       <c r="H53" t="n">
-        <v>7468.427335725982</v>
+        <v>7468.43</v>
       </c>
       <c r="I53" t="n">
-        <v>8219.943761017668</v>
+        <v>8151.231311786735</v>
       </c>
       <c r="J53" t="n">
-        <v>7570.407294329529</v>
+        <v>7567.369153161824</v>
       </c>
       <c r="K53" t="n">
-        <v>8117.869606381037</v>
+        <v>8052.184204902256</v>
       </c>
       <c r="L53" t="n">
-        <v>7468.427335725982</v>
+        <v>7468.43</v>
       </c>
       <c r="M53" t="n">
-        <v>7468.42733575313</v>
+        <v>7468.43000000905</v>
       </c>
       <c r="N53" t="n">
-        <v>7468.427443399688</v>
+        <v>7468.430062280479</v>
       </c>
       <c r="O53" t="n">
-        <v>7468.588606659103</v>
+        <v>7468.600020421748</v>
       </c>
     </row>
     <row r="54">
@@ -45130,31 +45128,31 @@
         <v>292.88</v>
       </c>
       <c r="G54" t="n">
-        <v>-200.3872719382434</v>
+        <v>-132.3884357423649</v>
       </c>
       <c r="H54" t="n">
-        <v>7466.554653511238</v>
+        <v>7466.55</v>
       </c>
       <c r="I54" t="n">
-        <v>8324.137271938243</v>
+        <v>8256.138435742365</v>
       </c>
       <c r="J54" t="n">
-        <v>7571.33549189025</v>
+        <v>7568.230484649761</v>
       </c>
       <c r="K54" t="n">
-        <v>8219.188648387339</v>
+        <v>8154.266519536619</v>
       </c>
       <c r="L54" t="n">
-        <v>7466.554653511239</v>
+        <v>7466.55</v>
       </c>
       <c r="M54" t="n">
-        <v>7466.554653566237</v>
+        <v>7466.550000019169</v>
       </c>
       <c r="N54" t="n">
-        <v>7466.554843537058</v>
+        <v>7466.550113429788</v>
       </c>
       <c r="O54" t="n">
-        <v>7466.800115516848</v>
+        <v>7466.814505219855</v>
       </c>
     </row>
     <row r="55">
@@ -45168,31 +45166,31 @@
         <v>292.78</v>
       </c>
       <c r="G55" t="n">
-        <v>-59.19746730906081</v>
+        <v>6.31721137608838</v>
       </c>
       <c r="H55" t="n">
-        <v>7464.40927280826</v>
+        <v>7464.41</v>
       </c>
       <c r="I55" t="n">
-        <v>8439.037467309061</v>
+        <v>8373.522788623912</v>
       </c>
       <c r="J55" t="n">
-        <v>7572.102939807035</v>
+        <v>7568.942056168925</v>
       </c>
       <c r="K55" t="n">
-        <v>8331.063029606947</v>
+        <v>8268.668808011198</v>
       </c>
       <c r="L55" t="n">
-        <v>7464.409272808261</v>
+        <v>7464.41</v>
       </c>
       <c r="M55" t="n">
-        <v>7464.409272918587</v>
+        <v>7464.410000040174</v>
       </c>
       <c r="N55" t="n">
-        <v>7464.409604940692</v>
+        <v>7464.410204434855</v>
       </c>
       <c r="O55" t="n">
-        <v>7464.77938873532</v>
+        <v>7464.817299511552</v>
       </c>
     </row>
     <row r="56">
@@ -45206,31 +45204,31 @@
         <v>292.68</v>
       </c>
       <c r="G56" t="n">
-        <v>29.58032261889639</v>
+        <v>90.6633574609059</v>
       </c>
       <c r="H56" t="n">
-        <v>7461.726848275132</v>
+        <v>7461.73</v>
       </c>
       <c r="I56" t="n">
-        <v>8564.329677381103</v>
+        <v>8503.246642539094</v>
       </c>
       <c r="J56" t="n">
-        <v>7572.451199858344</v>
+        <v>7569.229711907657</v>
       </c>
       <c r="K56" t="n">
-        <v>8453.154487140851</v>
+        <v>8395.22509232946</v>
       </c>
       <c r="L56" t="n">
-        <v>7461.726848275137</v>
+        <v>7461.73</v>
       </c>
       <c r="M56" t="n">
-        <v>7461.726848494278</v>
+        <v>7461.730000083307</v>
       </c>
       <c r="N56" t="n">
-        <v>7461.727423202064</v>
+        <v>7461.730364620731</v>
       </c>
       <c r="O56" t="n">
-        <v>7462.279721255019</v>
+        <v>7462.350789718845</v>
       </c>
     </row>
     <row r="57">
@@ -45244,31 +45242,31 @@
         <v>292.58</v>
       </c>
       <c r="G57" t="n">
-        <v>-50.50134550902294</v>
+        <v>4.077221350935361</v>
       </c>
       <c r="H57" t="n">
-        <v>7458.236540968305</v>
+        <v>7458.24</v>
       </c>
       <c r="I57" t="n">
-        <v>8699.391345509022</v>
+        <v>8644.812778649064</v>
       </c>
       <c r="J57" t="n">
-        <v>7572.115729301001</v>
+        <v>7568.829682442897</v>
       </c>
       <c r="K57" t="n">
-        <v>8584.809605916356</v>
+        <v>8533.400270208696</v>
       </c>
       <c r="L57" t="n">
-        <v>7458.236540968315</v>
+        <v>7458.240000000002</v>
       </c>
       <c r="M57" t="n">
-        <v>7458.236541399339</v>
+        <v>7458.240000170929</v>
       </c>
       <c r="N57" t="n">
-        <v>7458.237526621042</v>
+        <v>7458.240643565042</v>
       </c>
       <c r="O57" t="n">
-        <v>7459.054733465423</v>
+        <v>7459.176547647995</v>
       </c>
     </row>
     <row r="58">
@@ -45282,31 +45280,31 @@
         <v>292.48</v>
       </c>
       <c r="G58" t="n">
-        <v>-83.9602100994689</v>
+        <v>-37.99028397694201</v>
       </c>
       <c r="H58" t="n">
-        <v>7454.27794979376</v>
+        <v>7454.28</v>
       </c>
       <c r="I58" t="n">
-        <v>8843.860210099469</v>
+        <v>8797.890283976942</v>
       </c>
       <c r="J58" t="n">
-        <v>7571.442843167498</v>
+        <v>7568.088615469508</v>
       </c>
       <c r="K58" t="n">
-        <v>8725.625702936457</v>
+        <v>8682.812656801743</v>
       </c>
       <c r="L58" t="n">
-        <v>7454.277949793784</v>
+        <v>7454.280000000004</v>
       </c>
       <c r="M58" t="n">
-        <v>7454.277950633261</v>
+        <v>7454.28000034701</v>
       </c>
       <c r="N58" t="n">
-        <v>7454.279623397199</v>
+        <v>7454.281124124474</v>
       </c>
       <c r="O58" t="n">
-        <v>7455.477548833726</v>
+        <v>7455.678533236056</v>
       </c>
     </row>
     <row r="59">
@@ -45320,31 +45318,31 @@
         <v>292.38</v>
       </c>
       <c r="G59" t="n">
-        <v>-73.52314055637544</v>
+        <v>-38.17772422718735</v>
       </c>
       <c r="H59" t="n">
-        <v>7450.022003604456</v>
+        <v>7450.02</v>
       </c>
       <c r="I59" t="n">
-        <v>8996.813140556376</v>
+        <v>8961.467724227188</v>
       </c>
       <c r="J59" t="n">
-        <v>7570.610640078839</v>
+        <v>7567.183609395668</v>
       </c>
       <c r="K59" t="n">
-        <v>8874.626776390232</v>
+        <v>8842.383025779121</v>
       </c>
       <c r="L59" t="n">
-        <v>7450.022003604508</v>
+        <v>7450.02000000001</v>
       </c>
       <c r="M59" t="n">
-        <v>7450.022005223535</v>
+        <v>7450.020000697057</v>
       </c>
       <c r="N59" t="n">
-        <v>7450.024818136502</v>
+        <v>7450.021943182258</v>
       </c>
       <c r="O59" t="n">
-        <v>7451.764510485652</v>
+        <v>7452.087163954967</v>
       </c>
     </row>
     <row r="60">
@@ -45358,31 +45356,31 @@
         <v>292.28</v>
       </c>
       <c r="G60" t="n">
-        <v>155.475847851174</v>
+        <v>178.3988290782927</v>
       </c>
       <c r="H60" t="n">
-        <v>7445.279637684199</v>
+        <v>7445.28</v>
       </c>
       <c r="I60" t="n">
-        <v>9156.544152148826</v>
+        <v>9133.621170921708</v>
       </c>
       <c r="J60" t="n">
-        <v>7569.437715620284</v>
+        <v>7565.942250111953</v>
       </c>
       <c r="K60" t="n">
-        <v>9030.037954603642</v>
+        <v>9010.097494065734</v>
       </c>
       <c r="L60" t="n">
-        <v>7445.279637684314</v>
+        <v>7445.280000000024</v>
       </c>
       <c r="M60" t="n">
-        <v>7445.279640776321</v>
+        <v>7445.280001385471</v>
       </c>
       <c r="N60" t="n">
-        <v>7445.284325739582</v>
+        <v>7445.283324269644</v>
       </c>
       <c r="O60" t="n">
-        <v>7447.787346269366</v>
+        <v>7448.304381185088</v>
       </c>
     </row>
     <row r="61">
@@ -45396,31 +45394,31 @@
         <v>292.18</v>
       </c>
       <c r="G61" t="n">
-        <v>35.23024710101345</v>
+        <v>44.32430079038386</v>
       </c>
       <c r="H61" t="n">
-        <v>7439.581187865457</v>
+        <v>7439.58</v>
       </c>
       <c r="I61" t="n">
-        <v>9320.629752898987</v>
+        <v>9311.535699209617</v>
       </c>
       <c r="J61" t="n">
-        <v>7567.462596872148</v>
+        <v>7563.892651279251</v>
       </c>
       <c r="K61" t="n">
-        <v>9189.346518590908</v>
+        <v>9183.022755740327</v>
       </c>
       <c r="L61" t="n">
-        <v>7439.58118786571</v>
+        <v>7439.580000000055</v>
       </c>
       <c r="M61" t="n">
-        <v>7439.581193713252</v>
+        <v>7439.580002724806</v>
       </c>
       <c r="N61" t="n">
-        <v>7439.588922152236</v>
+        <v>7439.585628193218</v>
       </c>
       <c r="O61" t="n">
-        <v>7443.156788830526</v>
+        <v>7443.959818810829</v>
       </c>
     </row>
     <row r="62">
@@ -45434,31 +45432,31 @@
         <v>292.08</v>
       </c>
       <c r="G62" t="n">
-        <v>185.7422195656254</v>
+        <v>180.13051903011</v>
       </c>
       <c r="H62" t="n">
-        <v>7433.127299136926</v>
+        <v>7433.13</v>
       </c>
       <c r="I62" t="n">
-        <v>9486.887780434374</v>
+        <v>9492.499480969889</v>
       </c>
       <c r="J62" t="n">
-        <v>7564.89469533851</v>
+        <v>7561.253498523157</v>
       </c>
       <c r="K62" t="n">
-        <v>9350.255600074357</v>
+        <v>9358.292726259693</v>
       </c>
       <c r="L62" t="n">
-        <v>7433.127299137477</v>
+        <v>7433.130000000127</v>
       </c>
       <c r="M62" t="n">
-        <v>7433.127310088585</v>
+        <v>7433.130005302579</v>
       </c>
       <c r="N62" t="n">
-        <v>7433.139937683297</v>
+        <v>7433.139430578293</v>
       </c>
       <c r="O62" t="n">
-        <v>7438.178494912397</v>
+        <v>7439.408129131702</v>
       </c>
     </row>
     <row r="63">
@@ -45472,31 +45470,31 @@
         <v>291.98</v>
       </c>
       <c r="G63" t="n">
-        <v>275.484792447829</v>
+        <v>254.9908910229096</v>
       </c>
       <c r="H63" t="n">
-        <v>7426.031877277602</v>
+        <v>7426.03</v>
       </c>
       <c r="I63" t="n">
-        <v>9652.65520755217</v>
+        <v>9673.14910897709</v>
       </c>
       <c r="J63" t="n">
-        <v>7561.857307245848</v>
+        <v>7558.134097970994</v>
       </c>
       <c r="K63" t="n">
-        <v>9509.956017685969</v>
+        <v>9532.345248565902</v>
       </c>
       <c r="L63" t="n">
-        <v>7426.031877278785</v>
+        <v>7426.030000000287</v>
       </c>
       <c r="M63" t="n">
-        <v>7426.031897588324</v>
+        <v>7426.030010210735</v>
       </c>
       <c r="N63" t="n">
-        <v>7426.052333800379</v>
+        <v>7426.045639064479</v>
       </c>
       <c r="O63" t="n">
-        <v>7433.101796089344</v>
+        <v>7434.937438008463</v>
       </c>
     </row>
     <row r="64">
@@ -45510,31 +45508,31 @@
         <v>291.88</v>
       </c>
       <c r="G64" t="n">
-        <v>-87.84882827459478</v>
+        <v>-122.6129476193928</v>
       </c>
       <c r="H64" t="n">
-        <v>7417.947168440194</v>
+        <v>7417.95</v>
       </c>
       <c r="I64" t="n">
-        <v>9814.478828274594</v>
+        <v>9849.242947619392</v>
       </c>
       <c r="J64" t="n">
-        <v>7558.012746624865</v>
+        <v>7554.214429622904</v>
       </c>
       <c r="K64" t="n">
-        <v>9664.810208444134</v>
+        <v>9700.685791288633</v>
       </c>
       <c r="L64" t="n">
-        <v>7417.94716844271</v>
+        <v>7417.950000000641</v>
       </c>
       <c r="M64" t="n">
-        <v>7417.947205742381</v>
+        <v>7417.950019455856</v>
       </c>
       <c r="N64" t="n">
-        <v>7417.9799653581</v>
+        <v>7417.975668049595</v>
       </c>
       <c r="O64" t="n">
-        <v>7427.751303302281</v>
+        <v>7430.458776810874</v>
       </c>
     </row>
     <row r="65">
@@ -45548,31 +45546,31 @@
         <v>291.78</v>
       </c>
       <c r="G65" t="n">
-        <v>126.2091760785697</v>
+        <v>78.68413270873862</v>
       </c>
       <c r="H65" t="n">
-        <v>7409.741080340753</v>
+        <v>7409.74</v>
       </c>
       <c r="I65" t="n">
-        <v>9969.890823921431</v>
+        <v>10017.41586729126</v>
       </c>
       <c r="J65" t="n">
-        <v>7554.239725385522</v>
+        <v>7550.355206111469</v>
       </c>
       <c r="K65" t="n">
-        <v>9812.120386690169</v>
+        <v>9859.631796681315</v>
       </c>
       <c r="L65" t="n">
-        <v>7409.74108034605</v>
+        <v>7409.740000001418</v>
       </c>
       <c r="M65" t="n">
-        <v>7409.741148184927</v>
+        <v>7409.740036683629</v>
       </c>
       <c r="N65" t="n">
-        <v>7409.793164978077</v>
+        <v>7409.781695684148</v>
       </c>
       <c r="O65" t="n">
-        <v>7423.211322584531</v>
+        <v>7427.126165685367</v>
       </c>
     </row>
     <row r="66">
@@ -45586,31 +45584,31 @@
         <v>291.68</v>
       </c>
       <c r="G66" t="n">
-        <v>207.4512191275116</v>
+        <v>149.5463376220359</v>
       </c>
       <c r="H66" t="n">
-        <v>7401.207190921546</v>
+        <v>7401.21</v>
       </c>
       <c r="I66" t="n">
-        <v>10115.24878087249</v>
+        <v>10173.15366237796</v>
       </c>
       <c r="J66" t="n">
-        <v>7550.343426877492</v>
+        <v>7546.377937476655</v>
       </c>
       <c r="K66" t="n">
-        <v>9947.960752645238</v>
+        <v>10004.27649661262</v>
       </c>
       <c r="L66" t="n">
-        <v>7401.207190932589</v>
+        <v>7401.210000003101</v>
       </c>
       <c r="M66" t="n">
-        <v>7401.207313120159</v>
+        <v>7401.210068442873</v>
       </c>
       <c r="N66" t="n">
-        <v>7401.289126145396</v>
+        <v>7401.277036579772</v>
       </c>
       <c r="O66" t="n">
-        <v>7419.543245634542</v>
+        <v>7425.126795356734</v>
       </c>
     </row>
     <row r="67">
@@ -45624,31 +45622,31 @@
         <v>291.58</v>
       </c>
       <c r="G67" t="n">
-        <v>215.5394783014672</v>
+        <v>150.4709044617593</v>
       </c>
       <c r="H67" t="n">
-        <v>7391.632111929385</v>
+        <v>7391.63</v>
       </c>
       <c r="I67" t="n">
-        <v>10246.46052169853</v>
+        <v>10311.52909553824</v>
       </c>
       <c r="J67" t="n">
-        <v>7545.622941085689</v>
+        <v>7541.565002665556</v>
       </c>
       <c r="K67" t="n">
-        <v>10067.89451484665</v>
+        <v>10129.21492929205</v>
       </c>
       <c r="L67" t="n">
-        <v>7391.632111952181</v>
+        <v>7391.63000000671</v>
       </c>
       <c r="M67" t="n">
-        <v>7391.63232990191</v>
+        <v>7391.630126364083</v>
       </c>
       <c r="N67" t="n">
-        <v>7391.759792591902</v>
+        <v>7391.73667467025</v>
       </c>
       <c r="O67" t="n">
-        <v>7416.36013832059</v>
+        <v>7424.190471284422</v>
       </c>
     </row>
     <row r="68">
@@ -45662,31 +45660,31 @@
         <v>291.48</v>
       </c>
       <c r="G68" t="n">
-        <v>5.423357037068854</v>
+        <v>-62.94457741777114</v>
       </c>
       <c r="H68" t="n">
-        <v>7381.411186403195</v>
+        <v>7381.41</v>
       </c>
       <c r="I68" t="n">
-        <v>10360.77664296293</v>
+        <v>10429.14457741777</v>
       </c>
       <c r="J68" t="n">
-        <v>7540.487041256736</v>
+        <v>7536.339728561446</v>
       </c>
       <c r="K68" t="n">
-        <v>10168.75921101624</v>
+        <v>10230.47827679097</v>
       </c>
       <c r="L68" t="n">
-        <v>7381.411186449786</v>
+        <v>7381.410000014366</v>
       </c>
       <c r="M68" t="n">
-        <v>7381.411571460631</v>
+        <v>7381.41023086823</v>
       </c>
       <c r="N68" t="n">
-        <v>7381.608284413642</v>
+        <v>7381.578013992007</v>
       </c>
       <c r="O68" t="n">
-        <v>7414.448860986668</v>
+        <v>7425.27714870516</v>
       </c>
     </row>
     <row r="69">
@@ -45700,31 +45698,31 @@
         <v>291.38</v>
       </c>
       <c r="G69" t="n">
-        <v>138.3951598747899</v>
+        <v>71.01992354207323</v>
       </c>
       <c r="H69" t="n">
-        <v>7371.07832562596</v>
+        <v>7371.08</v>
       </c>
       <c r="I69" t="n">
-        <v>10456.00484012521</v>
+        <v>10523.38007645793</v>
       </c>
       <c r="J69" t="n">
-        <v>7535.484108422404</v>
+        <v>7531.246477456086</v>
       </c>
       <c r="K69" t="n">
-        <v>10247.87522406968</v>
+        <v>10304.77658635327</v>
       </c>
       <c r="L69" t="n">
-        <v>7371.078325720256</v>
+        <v>7371.08000003043</v>
       </c>
       <c r="M69" t="n">
-        <v>7371.078999291451</v>
+        <v>7371.080417403017</v>
       </c>
       <c r="N69" t="n">
-        <v>7371.379731093285</v>
+        <v>7371.341920750422</v>
       </c>
       <c r="O69" t="n">
-        <v>7414.8046418815</v>
+        <v>7429.56101299713</v>
       </c>
     </row>
     <row r="70">
@@ -45738,31 +45736,31 @@
         <v>291.28</v>
       </c>
       <c r="G70" t="n">
-        <v>-110.6683409216821</v>
+        <v>-172.6402610291607</v>
       </c>
       <c r="H70" t="n">
-        <v>7360.486935024487</v>
+        <v>7360.49</v>
       </c>
       <c r="I70" t="n">
-        <v>10529.86834092168</v>
+        <v>10591.84026102916</v>
       </c>
       <c r="J70" t="n">
-        <v>7530.483154339572</v>
+        <v>7526.15074400504</v>
       </c>
       <c r="K70" t="n">
-        <v>10302.40088798013</v>
+        <v>10348.94571497718</v>
       </c>
       <c r="L70" t="n">
-        <v>7360.486935213456</v>
+        <v>7360.490000063776</v>
       </c>
       <c r="M70" t="n">
-        <v>7360.488102277699</v>
+        <v>7360.490746799103</v>
       </c>
       <c r="N70" t="n">
-        <v>7360.943540221413</v>
+        <v>7360.894147475844</v>
       </c>
       <c r="O70" t="n">
-        <v>7417.813896129745</v>
+        <v>7437.629172311319</v>
       </c>
     </row>
     <row r="71">
@@ -45776,31 +45774,31 @@
         <v>291.18</v>
       </c>
       <c r="G71" t="n">
-        <v>-84.72629322942339</v>
+        <v>-137.1233285283179</v>
       </c>
       <c r="H71" t="n">
-        <v>7349.775973611692</v>
+        <v>7349.78</v>
       </c>
       <c r="I71" t="n">
-        <v>10581.12629322942</v>
+        <v>10633.52332852832</v>
       </c>
       <c r="J71" t="n">
-        <v>7525.639988622396</v>
+        <v>7521.209262851515</v>
       </c>
       <c r="K71" t="n">
-        <v>10330.45338121388</v>
+        <v>10361.12312889619</v>
       </c>
       <c r="L71" t="n">
-        <v>7349.775973986677</v>
+        <v>7349.78000013225</v>
       </c>
       <c r="M71" t="n">
-        <v>7349.777976676655</v>
+        <v>7349.781322253813</v>
       </c>
       <c r="N71" t="n">
-        <v>7350.46124139451</v>
+        <v>7350.397248401431</v>
       </c>
       <c r="O71" t="n">
-        <v>7424.217882561865</v>
+        <v>7450.442670199563</v>
       </c>
     </row>
     <row r="72">
@@ -45814,31 +45812,31 @@
         <v>291.08</v>
       </c>
       <c r="G72" t="n">
-        <v>-86.90522608893116</v>
+        <v>-126.1562706074328</v>
       </c>
       <c r="H72" t="n">
-        <v>7339.186242615081</v>
+        <v>7339.19</v>
       </c>
       <c r="I72" t="n">
-        <v>10609.50522608893</v>
+        <v>10648.75627060743</v>
       </c>
       <c r="J72" t="n">
-        <v>7521.213627058667</v>
+        <v>7516.680128272446</v>
       </c>
       <c r="K72" t="n">
-        <v>10331.04615737911</v>
+        <v>10340.69973417752</v>
       </c>
       <c r="L72" t="n">
-        <v>7339.186243351906</v>
+        <v>7339.190000271348</v>
       </c>
       <c r="M72" t="n">
-        <v>7339.189647022951</v>
+        <v>7339.192316833731</v>
       </c>
       <c r="N72" t="n">
-        <v>7340.205111137461</v>
+        <v>7340.123112764472</v>
       </c>
       <c r="O72" t="n">
-        <v>7434.920545648105</v>
+        <v>7469.127257084132</v>
       </c>
     </row>
     <row r="73">
@@ -45852,31 +45850,31 @@
         <v>290.98</v>
       </c>
       <c r="G73" t="n">
-        <v>61.0202793531098</v>
+        <v>37.55245746686705</v>
       </c>
       <c r="H73" t="n">
-        <v>7328.378809327711</v>
+        <v>7328.38</v>
       </c>
       <c r="I73" t="n">
-        <v>10615.07972064689</v>
+        <v>10638.54754253313</v>
       </c>
       <c r="J73" t="n">
-        <v>7516.884848689037</v>
+        <v>7512.242927395898</v>
       </c>
       <c r="K73" t="n">
-        <v>10303.48292614236</v>
+        <v>10287.70121000724</v>
       </c>
       <c r="L73" t="n">
-        <v>7328.378810761376</v>
+        <v>7328.380000550877</v>
       </c>
       <c r="M73" t="n">
-        <v>7328.384540089705</v>
+        <v>7328.384017447223</v>
       </c>
       <c r="N73" t="n">
-        <v>7329.87960842534</v>
+        <v>7329.776256991036</v>
       </c>
       <c r="O73" t="n">
-        <v>7450.290439535029</v>
+        <v>7494.261267060691</v>
       </c>
     </row>
     <row r="74">
@@ -45890,31 +45888,31 @@
         <v>290.88</v>
       </c>
       <c r="G74" t="n">
-        <v>-152.6785999542735</v>
+        <v>-158.927502623028</v>
       </c>
       <c r="H74" t="n">
-        <v>7317.241599402735</v>
+        <v>7317.24</v>
       </c>
       <c r="I74" t="n">
-        <v>10599.07859995427</v>
+        <v>10605.32750262303</v>
       </c>
       <c r="J74" t="n">
-        <v>7512.56293663828</v>
+        <v>7507.808888765846</v>
       </c>
       <c r="K74" t="n">
-        <v>10248.18652568814</v>
+        <v>10203.57150798035</v>
       </c>
       <c r="L74" t="n">
-        <v>7317.241602165022</v>
+        <v>7317.24000110657</v>
       </c>
       <c r="M74" t="n">
-        <v>7317.251154063163</v>
+        <v>7317.246894251761</v>
       </c>
       <c r="N74" t="n">
-        <v>7319.431786436894</v>
+        <v>7319.308024022856</v>
       </c>
       <c r="O74" t="n">
-        <v>7470.940590793512</v>
+        <v>7526.638143140694</v>
       </c>
     </row>
     <row r="75">
@@ -45928,31 +45926,31 @@
         <v>290.78</v>
       </c>
       <c r="G75" t="n">
-        <v>104.5787413943362</v>
+        <v>115.6218705352512</v>
       </c>
       <c r="H75" t="n">
-        <v>7306.193101009047</v>
+        <v>7306.19</v>
       </c>
       <c r="I75" t="n">
-        <v>10564.12125860566</v>
+        <v>10553.07812946475</v>
       </c>
       <c r="J75" t="n">
-        <v>7508.689548146508</v>
+        <v>7503.821048294553</v>
       </c>
       <c r="K75" t="n">
-        <v>10166.96932352901</v>
+        <v>10091.36170105245</v>
       </c>
       <c r="L75" t="n">
-        <v>7306.193106279303</v>
+        <v>7306.190002199422</v>
       </c>
       <c r="M75" t="n">
-        <v>7306.208879240534</v>
+        <v>7306.20170879483</v>
       </c>
       <c r="N75" t="n">
-        <v>7309.359757448531</v>
+        <v>7309.221833490902</v>
       </c>
       <c r="O75" t="n">
-        <v>7497.993078451401</v>
+        <v>7567.501776466724</v>
       </c>
     </row>
     <row r="76">
@@ -45966,31 +45964,31 @@
         <v>290.68</v>
       </c>
       <c r="G76" t="n">
-        <v>-214.3310869251764</v>
+        <v>-187.324648324593</v>
       </c>
       <c r="H76" t="n">
-        <v>7295.128402462569</v>
+        <v>7295.13</v>
       </c>
       <c r="I76" t="n">
-        <v>10513.03108692518</v>
+        <v>10486.02464832459</v>
       </c>
       <c r="J76" t="n">
-        <v>7505.184937751988</v>
+        <v>7500.204434951428</v>
       </c>
       <c r="K76" t="n">
-        <v>10061.89380870579</v>
+        <v>9954.497306536246</v>
       </c>
       <c r="L76" t="n">
-        <v>7295.128412419883</v>
+        <v>7295.130004325602</v>
       </c>
       <c r="M76" t="n">
-        <v>7295.154210196149</v>
+        <v>7295.149680306774</v>
       </c>
       <c r="N76" t="n">
-        <v>7299.664554986922</v>
+        <v>7299.529603824439</v>
       </c>
       <c r="O76" t="n">
-        <v>7531.971701439391</v>
+        <v>7617.414025119535</v>
       </c>
     </row>
     <row r="77">
@@ -46004,31 +46002,31 @@
         <v>290.58</v>
       </c>
       <c r="G77" t="n">
-        <v>23.39173038939589</v>
+        <v>63.74881709172951</v>
       </c>
       <c r="H77" t="n">
-        <v>7284.282146556334</v>
+        <v>7284.28</v>
       </c>
       <c r="I77" t="n">
-        <v>10449.5082696106</v>
+        <v>10409.15118290827</v>
       </c>
       <c r="J77" t="n">
-        <v>7502.311119544082</v>
+        <v>7497.206278898129</v>
       </c>
       <c r="K77" t="n">
-        <v>9936.00660817021</v>
+        <v>9797.384809879088</v>
       </c>
       <c r="L77" t="n">
-        <v>7284.282165186016</v>
+        <v>7284.28000841779</v>
       </c>
       <c r="M77" t="n">
-        <v>7284.32395830994</v>
+        <v>7284.312738040829</v>
       </c>
       <c r="N77" t="n">
-        <v>7290.720070663253</v>
+        <v>7290.599419258456</v>
       </c>
       <c r="O77" t="n">
-        <v>7573.596241882415</v>
+        <v>7676.995700416654</v>
       </c>
     </row>
     <row r="78">
@@ -46042,31 +46040,31 @@
         <v>290.48</v>
       </c>
       <c r="G78" t="n">
-        <v>-67.48533375593615</v>
+        <v>-17.47931146329938</v>
       </c>
       <c r="H78" t="n">
-        <v>7273.718801958113</v>
+        <v>7273.72</v>
       </c>
       <c r="I78" t="n">
-        <v>10377.38533375594</v>
+        <v>10327.3793114633</v>
       </c>
       <c r="J78" t="n">
-        <v>7500.162371970797</v>
+        <v>7494.936245203051</v>
       </c>
       <c r="K78" t="n">
-        <v>9792.668863175604</v>
+        <v>9624.692208809185</v>
       </c>
       <c r="L78" t="n">
-        <v>7273.718836474633</v>
+        <v>7273.72001620944</v>
       </c>
       <c r="M78" t="n">
-        <v>7273.785900418018</v>
+        <v>7273.773899061765</v>
       </c>
       <c r="N78" t="n">
-        <v>7282.771508464776</v>
+        <v>7282.704432649512</v>
       </c>
       <c r="O78" t="n">
-        <v>7623.189084029473</v>
+        <v>7746.355048818357</v>
       </c>
     </row>
     <row r="79">
@@ -46080,31 +46078,31 @@
         <v>290.38</v>
       </c>
       <c r="G79" t="n">
-        <v>-72.85153437016743</v>
+        <v>-17.63207752199014</v>
       </c>
       <c r="H79" t="n">
-        <v>7263.119078704158</v>
+        <v>7263.12</v>
       </c>
       <c r="I79" t="n">
-        <v>10300.15153437017</v>
+        <v>10244.93207752199</v>
       </c>
       <c r="J79" t="n">
-        <v>7498.45191583942</v>
+        <v>7493.096696766213</v>
       </c>
       <c r="K79" t="n">
-        <v>9635.166394882202</v>
+        <v>9440.818638331721</v>
       </c>
       <c r="L79" t="n">
-        <v>7263.119142034609</v>
+        <v>7263.120030885974</v>
       </c>
       <c r="M79" t="n">
-        <v>7263.225738616294</v>
+        <v>7263.207826165954</v>
       </c>
       <c r="N79" t="n">
-        <v>7275.731143714735</v>
+        <v>7275.762870194267</v>
       </c>
       <c r="O79" t="n">
-        <v>7680.365664719503</v>
+        <v>7824.701296608466</v>
       </c>
     </row>
     <row r="80">
@@ -46118,31 +46116,31 @@
         <v>290.28</v>
       </c>
       <c r="G80" t="n">
-        <v>33.90729922291939</v>
+        <v>89.55317741950967</v>
       </c>
       <c r="H80" t="n">
-        <v>7252.888554933785</v>
+        <v>7252.89</v>
       </c>
       <c r="I80" t="n">
-        <v>10221.79270077708</v>
+        <v>10166.14682258049</v>
       </c>
       <c r="J80" t="n">
-        <v>7497.620836846924</v>
+        <v>7492.132990672194</v>
       </c>
       <c r="K80" t="n">
-        <v>9467.640447438365</v>
+        <v>9250.804995070088</v>
       </c>
       <c r="L80" t="n">
-        <v>7252.888670005377</v>
+        <v>7252.890058234891</v>
       </c>
       <c r="M80" t="n">
-        <v>7253.056502368601</v>
+        <v>7253.031640435896</v>
       </c>
       <c r="N80" t="n">
-        <v>7270.297293956914</v>
+        <v>7270.498828204665</v>
       </c>
       <c r="O80" t="n">
-        <v>7745.040751515216</v>
+        <v>7911.384938174541</v>
       </c>
     </row>
     <row r="81">
@@ -46156,31 +46154,31 @@
         <v>290.18</v>
       </c>
       <c r="G81" t="n">
-        <v>-60.10353992585078</v>
+        <v>-8.73867988803795</v>
       </c>
       <c r="H81" t="n">
-        <v>7242.722477492071</v>
+        <v>7242.72</v>
       </c>
       <c r="I81" t="n">
-        <v>10145.10353992585</v>
+        <v>10093.73867988804</v>
       </c>
       <c r="J81" t="n">
-        <v>7497.403220147594</v>
+        <v>7491.773812882451</v>
       </c>
       <c r="K81" t="n">
-        <v>9293.486087499146</v>
+        <v>9058.672000215949</v>
       </c>
       <c r="L81" t="n">
-        <v>7242.722684553749</v>
+        <v>7242.72010865237</v>
       </c>
       <c r="M81" t="n">
-        <v>7242.984439372012</v>
+        <v>7242.946087973679</v>
       </c>
       <c r="N81" t="n">
-        <v>7266.530139168982</v>
+        <v>7266.993318459768</v>
       </c>
       <c r="O81" t="n">
-        <v>7815.894667218399</v>
+        <v>8004.350606545543</v>
       </c>
     </row>
     <row r="82">
@@ -46194,31 +46192,31 @@
         <v>290.08</v>
       </c>
       <c r="G82" t="n">
-        <v>2.461145314793612</v>
+        <v>45.2969402293129</v>
       </c>
       <c r="H82" t="n">
-        <v>7232.768420407579</v>
+        <v>7232.77</v>
       </c>
       <c r="I82" t="n">
-        <v>10072.63885468521</v>
+        <v>10029.80305977069</v>
       </c>
       <c r="J82" t="n">
-        <v>7497.989186659936</v>
+        <v>7492.221557000148</v>
       </c>
       <c r="K82" t="n">
-        <v>9116.370211973082</v>
+        <v>8868.455603857414</v>
       </c>
       <c r="L82" t="n">
-        <v>7232.768789396848</v>
+        <v>7232.770200601704</v>
       </c>
       <c r="M82" t="n">
-        <v>7233.173186884178</v>
+        <v>7233.127191068148</v>
       </c>
       <c r="N82" t="n">
-        <v>7265.025532770992</v>
+        <v>7265.884724359361</v>
       </c>
       <c r="O82" t="n">
-        <v>7891.456082881637</v>
+        <v>8101.281654057136</v>
       </c>
     </row>
     <row r="83">
@@ -46232,31 +46230,31 @@
         <v>289.98</v>
       </c>
       <c r="G83" t="n">
-        <v>98.78642639032114</v>
+        <v>129.6601240608343</v>
       </c>
       <c r="H83" t="n">
-        <v>7223.07125580532</v>
+        <v>7223.07</v>
       </c>
       <c r="I83" t="n">
-        <v>10006.01357360968</v>
+        <v>9975.139875939165</v>
       </c>
       <c r="J83" t="n">
-        <v>7499.470292336783</v>
+        <v>7493.552753817408</v>
       </c>
       <c r="K83" t="n">
-        <v>8939.560391238027</v>
+        <v>8683.503228232157</v>
       </c>
       <c r="L83" t="n">
-        <v>7223.071907008768</v>
+        <v>7223.070366500981</v>
       </c>
       <c r="M83" t="n">
-        <v>7223.69081361353</v>
+        <v>7223.628550421967</v>
       </c>
       <c r="N83" t="n">
-        <v>7266.370441134058</v>
+        <v>7267.777478150945</v>
       </c>
       <c r="O83" t="n">
-        <v>7969.505180341705</v>
+        <v>8199.016708657968</v>
       </c>
     </row>
     <row r="84">
@@ -46270,31 +46268,31 @@
         <v>289.88</v>
       </c>
       <c r="G84" t="n">
-        <v>37.40789324763136</v>
+        <v>53.89597444319952</v>
       </c>
       <c r="H84" t="n">
-        <v>7213.31691713854</v>
+        <v>7213.32</v>
       </c>
       <c r="I84" t="n">
-        <v>9945.592106752369</v>
+        <v>9929.1040255568</v>
       </c>
       <c r="J84" t="n">
-        <v>7501.583778100106</v>
+        <v>7495.51855951936</v>
       </c>
       <c r="K84" t="n">
-        <v>8765.584237084176</v>
+        <v>8506.21894937775</v>
       </c>
       <c r="L84" t="n">
-        <v>7213.318055330096</v>
+        <v>7213.320662623069</v>
       </c>
       <c r="M84" t="n">
-        <v>7214.256378820304</v>
+        <v>7214.18450633767</v>
       </c>
       <c r="N84" t="n">
-        <v>7270.895341432704</v>
+        <v>7273.047371835177</v>
       </c>
       <c r="O84" t="n">
-        <v>8046.835466820126</v>
+        <v>8293.445987042669</v>
       </c>
     </row>
     <row r="85">
@@ -46308,31 +46306,31 @@
         <v>289.78</v>
       </c>
       <c r="G85" t="n">
-        <v>-48.30413755094196</v>
+        <v>-47.48500375816548</v>
       </c>
       <c r="H85" t="n">
-        <v>7203.703154026914</v>
+        <v>7203.7</v>
       </c>
       <c r="I85" t="n">
-        <v>9891.414137550943</v>
+        <v>9890.595003758166</v>
       </c>
       <c r="J85" t="n">
-        <v>7504.58387892521</v>
+        <v>7498.355311810963</v>
       </c>
       <c r="K85" t="n">
-        <v>8597.047531684047</v>
+        <v>8338.86180265361</v>
       </c>
       <c r="L85" t="n">
-        <v>7203.705124256006</v>
+        <v>7203.701185536026</v>
       </c>
       <c r="M85" t="n">
-        <v>7205.114407967364</v>
+        <v>7205.024411051844</v>
       </c>
       <c r="N85" t="n">
-        <v>7279.55023836851</v>
+        <v>7282.651495455018</v>
       </c>
       <c r="O85" t="n">
-        <v>8120.222644354828</v>
+        <v>8380.507800285901</v>
       </c>
     </row>
     <row r="86">
@@ -46346,31 +46344,31 @@
         <v>289.68</v>
       </c>
       <c r="G86" t="n">
-        <v>-65.90651877078562</v>
+        <v>-80.96327989524252</v>
       </c>
       <c r="H86" t="n">
-        <v>7194.498653209902</v>
+        <v>7194.5</v>
       </c>
       <c r="I86" t="n">
-        <v>9842.926518770786</v>
+        <v>9857.983279895243</v>
       </c>
       <c r="J86" t="n">
-        <v>7508.801577434151</v>
+        <v>7502.415164902143</v>
       </c>
       <c r="K86" t="n">
-        <v>8436.170037768316</v>
+        <v>8183.199074701741</v>
       </c>
       <c r="L86" t="n">
-        <v>7194.502030963821</v>
+        <v>7194.502099064561</v>
       </c>
       <c r="M86" t="n">
-        <v>7196.598892524718</v>
+        <v>7196.508308262753</v>
       </c>
       <c r="N86" t="n">
-        <v>7293.463702795731</v>
+        <v>7297.750397506055</v>
       </c>
       <c r="O86" t="n">
-        <v>8186.174381061578</v>
+        <v>8456.093110146945</v>
       </c>
     </row>
     <row r="87">
@@ -46384,31 +46382,31 @@
         <v>289.58</v>
       </c>
       <c r="G87" t="n">
-        <v>164.4266158921746</v>
+        <v>134.2767397527859</v>
       </c>
       <c r="H87" t="n">
-        <v>7185.58131344727</v>
+        <v>7185.58</v>
       </c>
       <c r="I87" t="n">
-        <v>9798.803384107825</v>
+        <v>9828.953260247214</v>
       </c>
       <c r="J87" t="n">
-        <v>7514.183602670481</v>
+        <v>7507.626816294791</v>
       </c>
       <c r="K87" t="n">
-        <v>8284.325631978067</v>
+        <v>8040.01554813622</v>
       </c>
       <c r="L87" t="n">
-        <v>7185.587048753796</v>
+        <v>7185.583677950123</v>
       </c>
       <c r="M87" t="n">
-        <v>7188.677864077887</v>
+        <v>7188.594353817467</v>
       </c>
       <c r="N87" t="n">
-        <v>7313.473295949389</v>
+        <v>7319.149745484932</v>
       </c>
       <c r="O87" t="n">
-        <v>8240.749382934358</v>
+        <v>8515.849364131887</v>
       </c>
     </row>
     <row r="88">
@@ -46422,31 +46420,31 @@
         <v>289.48</v>
       </c>
       <c r="G88" t="n">
-        <v>171.9177303505785</v>
+        <v>128.2348200315937</v>
       </c>
       <c r="H88" t="n">
-        <v>7176.424073350547</v>
+        <v>7176.42</v>
       </c>
       <c r="I88" t="n">
-        <v>9757.292269649421</v>
+        <v>9800.975179968405</v>
       </c>
       <c r="J88" t="n">
-        <v>7520.27908827958</v>
+        <v>7513.546340739377</v>
       </c>
       <c r="K88" t="n">
-        <v>8142.050101218511</v>
+        <v>7909.229878948272</v>
       </c>
       <c r="L88" t="n">
-        <v>7176.433718529113</v>
+        <v>7176.426377656849</v>
       </c>
       <c r="M88" t="n">
-        <v>7180.947224309969</v>
+        <v>7180.898335476667</v>
       </c>
       <c r="N88" t="n">
-        <v>7340.092924271041</v>
+        <v>7347.318617805371</v>
       </c>
       <c r="O88" t="n">
-        <v>8279.891161233692</v>
+        <v>8555.607260700175</v>
       </c>
     </row>
     <row r="89">
@@ -46460,31 +46458,31 @@
         <v>289.38</v>
       </c>
       <c r="G89" t="n">
-        <v>-110.4552388011925</v>
+        <v>-165.5355354053136</v>
       </c>
       <c r="H89" t="n">
-        <v>7167.030236148197</v>
+        <v>7167.03</v>
       </c>
       <c r="I89" t="n">
-        <v>9717.535238801192</v>
+        <v>9772.615535405313</v>
       </c>
       <c r="J89" t="n">
-        <v>7527.175852245046</v>
+        <v>7520.268149665546</v>
       </c>
       <c r="K89" t="n">
-        <v>8010.013236540248</v>
+        <v>7790.880246714195</v>
       </c>
       <c r="L89" t="n">
-        <v>7167.046301742958</v>
+        <v>7167.040944554966</v>
       </c>
       <c r="M89" t="n">
-        <v>7173.576061810217</v>
+        <v>7173.615648686144</v>
       </c>
       <c r="N89" t="n">
-        <v>7374.415877552255</v>
+        <v>7383.251697287394</v>
       </c>
       <c r="O89" t="n">
-        <v>8300.733662022456</v>
+        <v>8572.650260085387</v>
       </c>
     </row>
     <row r="90">
@@ -46498,31 +46496,31 @@
         <v>289.28</v>
       </c>
       <c r="G90" t="n">
-        <v>49.79511595153781</v>
+        <v>-14.13246397192233</v>
       </c>
       <c r="H90" t="n">
-        <v>7158.196698458659</v>
+        <v>7158.2</v>
       </c>
       <c r="I90" t="n">
-        <v>9680.174884048462</v>
+        <v>9744.102463971922</v>
       </c>
       <c r="J90" t="n">
-        <v>7535.76472693533</v>
+        <v>7528.67609796023</v>
       </c>
       <c r="K90" t="n">
-        <v>7889.328573140316</v>
+        <v>7685.452787530921</v>
       </c>
       <c r="L90" t="n">
-        <v>7158.22320324732</v>
+        <v>7158.21858759341</v>
       </c>
       <c r="M90" t="n">
-        <v>7167.582129236469</v>
+        <v>7167.786045204487</v>
       </c>
       <c r="N90" t="n">
-        <v>7418.328628817968</v>
+        <v>7428.653204278085</v>
       </c>
       <c r="O90" t="n">
-        <v>8302.19669845866</v>
+        <v>8566.251544917342</v>
       </c>
     </row>
     <row r="91">
@@ -46536,31 +46534,31 @@
         <v>289.18</v>
       </c>
       <c r="G91" t="n">
-        <v>-166.8149691917351</v>
+        <v>-236.7420060799905</v>
       </c>
       <c r="H91" t="n">
-        <v>7149.664831971986</v>
+        <v>7149.66</v>
       </c>
       <c r="I91" t="n">
-        <v>9645.734969191735</v>
+        <v>9715.662006079991</v>
       </c>
       <c r="J91" t="n">
-        <v>7545.891714351199</v>
+        <v>7538.604764322625</v>
       </c>
       <c r="K91" t="n">
-        <v>7779.756049495973</v>
+        <v>7592.117829372308</v>
       </c>
       <c r="L91" t="n">
-        <v>7149.708143270122</v>
+        <v>7149.691242288025</v>
       </c>
       <c r="M91" t="n">
-        <v>7162.997439783592</v>
+        <v>7163.471374999315</v>
       </c>
       <c r="N91" t="n">
-        <v>7472.592035321475</v>
+        <v>7484.011566459219</v>
       </c>
       <c r="O91" t="n">
-        <v>8283.368257846258</v>
+        <v>8536.000075286058</v>
       </c>
     </row>
     <row r="92">
@@ -46574,31 +46572,31 @@
         <v>289.08</v>
       </c>
       <c r="G92" t="n">
-        <v>6.816632312173169</v>
+        <v>-66.06327405723459</v>
       </c>
       <c r="H92" t="n">
-        <v>7141.32009744213</v>
+        <v>7141.32</v>
       </c>
       <c r="I92" t="n">
-        <v>9615.883367687828</v>
+        <v>9688.763274057235</v>
       </c>
       <c r="J92" t="n">
-        <v>7557.559077242652</v>
+        <v>7550.080936759938</v>
       </c>
       <c r="K92" t="n">
-        <v>7680.954951316504</v>
+        <v>7510.040408907981</v>
       </c>
       <c r="L92" t="n">
-        <v>7141.390200326655</v>
+        <v>7141.371971308817</v>
       </c>
       <c r="M92" t="n">
-        <v>7160.085167057108</v>
+        <v>7161.01636914638</v>
       </c>
       <c r="N92" t="n">
-        <v>7537.9487010118</v>
+        <v>7549.735733164715</v>
       </c>
       <c r="O92" t="n">
-        <v>8244.787185325298</v>
+        <v>8483.056255470819</v>
       </c>
     </row>
     <row r="93">
@@ -46612,31 +46610,31 @@
         <v>288.98</v>
       </c>
       <c r="G93" t="n">
-        <v>-21.48172761855312</v>
+        <v>-94.05103183072242</v>
       </c>
       <c r="H93" t="n">
-        <v>7133.106148295076</v>
+        <v>7133.11</v>
       </c>
       <c r="I93" t="n">
-        <v>9593.221727618553</v>
+        <v>9665.791031830722</v>
       </c>
       <c r="J93" t="n">
-        <v>7570.841161154832</v>
+        <v>7563.165341348244</v>
       </c>
       <c r="K93" t="n">
-        <v>7592.450004585832</v>
+        <v>7438.282841427182</v>
       </c>
       <c r="L93" t="n">
-        <v>7133.218540737028</v>
+        <v>7133.195564215603</v>
       </c>
       <c r="M93" t="n">
-        <v>7159.273541307097</v>
+        <v>7160.912241161553</v>
       </c>
       <c r="N93" t="n">
-        <v>7614.92157279507</v>
+        <v>7625.876823406153</v>
       </c>
       <c r="O93" t="n">
-        <v>8188.274217782197</v>
+        <v>8409.854377535237</v>
       </c>
     </row>
     <row r="94">
@@ -46650,31 +46648,31 @@
         <v>288.88</v>
       </c>
       <c r="G94" t="n">
-        <v>136.3390376867483</v>
+        <v>67.55401927552703</v>
       </c>
       <c r="H94" t="n">
-        <v>7124.704932742023</v>
+        <v>7124.7</v>
       </c>
       <c r="I94" t="n">
-        <v>9580.670962313252</v>
+        <v>9649.455980724473</v>
       </c>
       <c r="J94" t="n">
-        <v>7585.566502056462</v>
+        <v>7577.674660484868</v>
       </c>
       <c r="K94" t="n">
-        <v>7513.360026341646</v>
+        <v>7375.578184690034</v>
       </c>
       <c r="L94" t="n">
-        <v>7124.883422671892</v>
+        <v>7124.839423150481</v>
       </c>
       <c r="M94" t="n">
-        <v>7160.857937986788</v>
+        <v>7163.542495283197</v>
       </c>
       <c r="N94" t="n">
-        <v>7703.357376992113</v>
+        <v>7711.722460026966</v>
       </c>
       <c r="O94" t="n">
-        <v>8116.380660593739</v>
+        <v>8319.556420310058</v>
       </c>
     </row>
     <row r="95">
@@ -46688,31 +46686,31 @@
         <v>288.78</v>
       </c>
       <c r="G95" t="n">
-        <v>-60.51378039097472</v>
+        <v>-121.8886322591934</v>
       </c>
       <c r="H95" t="n">
-        <v>7116.1320268457</v>
+        <v>7116.13</v>
       </c>
       <c r="I95" t="n">
-        <v>9581.653780390974</v>
+        <v>9643.028632259193</v>
       </c>
       <c r="J95" t="n">
-        <v>7601.915507694074</v>
+        <v>7593.813896906165</v>
       </c>
       <c r="K95" t="n">
-        <v>7443.036975897478</v>
+        <v>7321.004269360802</v>
       </c>
       <c r="L95" t="n">
-        <v>7116.412812373072</v>
+        <v>7116.354852759924</v>
       </c>
       <c r="M95" t="n">
-        <v>7165.619734097795</v>
+        <v>7169.839805000031</v>
       </c>
       <c r="N95" t="n">
-        <v>7802.87042581175</v>
+        <v>7806.305498200456</v>
       </c>
       <c r="O95" t="n">
-        <v>8032.651517173615</v>
+        <v>8216.332662207824</v>
       </c>
     </row>
     <row r="96">
@@ -46726,31 +46724,31 @@
         <v>288.68</v>
       </c>
       <c r="G96" t="n">
-        <v>126.6309657666297</v>
+        <v>76.41334519072188</v>
       </c>
       <c r="H96" t="n">
-        <v>7107.608994983102</v>
+        <v>7107.61</v>
       </c>
       <c r="I96" t="n">
-        <v>9599.50903423337</v>
+        <v>9649.726654809278</v>
       </c>
       <c r="J96" t="n">
-        <v>7620.295577180811</v>
+        <v>7611.979152263524</v>
       </c>
       <c r="K96" t="n">
-        <v>7380.976413166496</v>
+        <v>7273.818576468546</v>
       </c>
       <c r="L96" t="n">
-        <v>7108.046546508259</v>
+        <v>7107.968912372343</v>
       </c>
       <c r="M96" t="n">
-        <v>7174.722617592976</v>
+        <v>7181.112153196166</v>
       </c>
       <c r="N96" t="n">
-        <v>7912.560601727944</v>
+        <v>7908.103405974908</v>
       </c>
       <c r="O96" t="n">
-        <v>7941.127544664737</v>
+        <v>8104.784034110171</v>
       </c>
     </row>
     <row r="97">
@@ -46764,31 +46762,31 @@
         <v>288.58</v>
       </c>
       <c r="G97" t="n">
-        <v>-23.42305595590187</v>
+        <v>-58.75620495239127</v>
       </c>
       <c r="H97" t="n">
-        <v>7099.030280800555</v>
+        <v>7099.03</v>
       </c>
       <c r="I97" t="n">
-        <v>9636.533055955902</v>
+        <v>9671.866204952392</v>
       </c>
       <c r="J97" t="n">
-        <v>7640.811245460252</v>
+        <v>7632.270904719439</v>
       </c>
       <c r="K97" t="n">
-        <v>7326.316557895418</v>
+        <v>7232.994654333622</v>
       </c>
       <c r="L97" t="n">
-        <v>7099.705720083036</v>
+        <v>7099.597037209289</v>
       </c>
       <c r="M97" t="n">
-        <v>7189.202166212207</v>
+        <v>7198.575608917562</v>
       </c>
       <c r="N97" t="n">
-        <v>8030.341968785436</v>
+        <v>8014.488397023879</v>
       </c>
       <c r="O97" t="n">
-        <v>7845.46420533699</v>
+        <v>7989.098260681318</v>
       </c>
     </row>
     <row r="98">
@@ -46802,31 +46800,31 @@
         <v>288.48</v>
       </c>
       <c r="G98" t="n">
-        <v>40.47163468562758</v>
+        <v>23.50350490767596</v>
       </c>
       <c r="H98" t="n">
-        <v>7090.276117119339</v>
+        <v>7090.28</v>
       </c>
       <c r="I98" t="n">
-        <v>9693.968365314373</v>
+        <v>9710.936495092325</v>
       </c>
       <c r="J98" t="n">
-        <v>7663.580944113435</v>
+        <v>7654.817889734866</v>
       </c>
       <c r="K98" t="n">
-        <v>7278.177494009686</v>
+        <v>7197.561017941716</v>
       </c>
       <c r="L98" t="n">
-        <v>7091.309009801123</v>
+        <v>7091.166693147626</v>
       </c>
       <c r="M98" t="n">
-        <v>7210.297795716688</v>
+        <v>7223.690176644481</v>
       </c>
       <c r="N98" t="n">
-        <v>8153.159634122138</v>
+        <v>8122.050235926936</v>
       </c>
       <c r="O98" t="n">
-        <v>7748.963779593448</v>
+        <v>7873.07937158546</v>
       </c>
     </row>
     <row r="99">
@@ -46840,31 +46838,31 @@
         <v>288.38</v>
       </c>
       <c r="G99" t="n">
-        <v>-194.8045784022725</v>
+        <v>-190.4370334737523</v>
       </c>
       <c r="H99" t="n">
-        <v>7081.48409155896</v>
+        <v>7081.48</v>
       </c>
       <c r="I99" t="n">
-        <v>9772.104578402272</v>
+        <v>9767.737033473752</v>
       </c>
       <c r="J99" t="n">
-        <v>7689.013142890351</v>
+        <v>7680.011713137888</v>
       </c>
       <c r="K99" t="n">
-        <v>7235.95347280705</v>
+        <v>7166.84359763269</v>
       </c>
       <c r="L99" t="n">
-        <v>7083.048841430807</v>
+        <v>7082.852395070425</v>
       </c>
       <c r="M99" t="n">
-        <v>7239.736503585527</v>
+        <v>7258.394141505687</v>
       </c>
       <c r="N99" t="n">
-        <v>8277.23918363108</v>
+        <v>8226.911857932893</v>
       </c>
       <c r="O99" t="n">
-        <v>7654.656281285335</v>
+        <v>7760.172926695576</v>
       </c>
     </row>
     <row r="100">
@@ -46878,31 +46876,31 @@
         <v>288.28</v>
       </c>
       <c r="G100" t="n">
-        <v>145.8767788443911</v>
+        <v>173.6478406642636</v>
       </c>
       <c r="H100" t="n">
-        <v>7072.679081636631</v>
+        <v>7072.68</v>
       </c>
       <c r="I100" t="n">
-        <v>9869.923221155608</v>
+        <v>9842.152159335736</v>
       </c>
       <c r="J100" t="n">
-        <v>7717.441744601682</v>
+        <v>7708.212357234296</v>
       </c>
       <c r="K100" t="n">
-        <v>7198.958518537006</v>
+        <v>7140.172833165851</v>
       </c>
       <c r="L100" t="n">
-        <v>7075.027440092824</v>
+        <v>7074.78248915429</v>
       </c>
       <c r="M100" t="n">
-        <v>7279.36399119011</v>
+        <v>7304.791334967303</v>
       </c>
       <c r="N100" t="n">
-        <v>8397.801165030745</v>
+        <v>8324.611129887146</v>
       </c>
       <c r="O100" t="n">
-        <v>7564.831278218062</v>
+        <v>7653.052170119907</v>
       </c>
     </row>
     <row r="101">
@@ -46916,31 +46914,31 @@
         <v>288.18</v>
       </c>
       <c r="G101" t="n">
-        <v>203.9501305339963</v>
+        <v>255.9593268618592</v>
       </c>
       <c r="H101" t="n">
-        <v>7063.315349087537</v>
+        <v>7063.32</v>
       </c>
       <c r="I101" t="n">
-        <v>9984.849869466003</v>
+        <v>9932.84067313814</v>
       </c>
       <c r="J101" t="n">
-        <v>7748.674721942815</v>
+        <v>7739.214781201314</v>
       </c>
       <c r="K101" t="n">
-        <v>7165.979716675422</v>
+        <v>7116.346471295239</v>
       </c>
       <c r="L101" t="n">
-        <v>7066.806930875379</v>
+        <v>7066.508169062035</v>
       </c>
       <c r="M101" t="n">
-        <v>7330.671853964293</v>
+        <v>7364.574895248303</v>
       </c>
       <c r="N101" t="n">
-        <v>8508.820444788591</v>
+        <v>8409.839576555114</v>
       </c>
       <c r="O101" t="n">
-        <v>7480.561935102923</v>
+        <v>7553.046785861176</v>
       </c>
     </row>
     <row r="102">
@@ -46954,31 +46952,31 @@
         <v>288.08</v>
       </c>
       <c r="G102" t="n">
-        <v>98.29914741339417</v>
+        <v>173.8178178147627</v>
       </c>
       <c r="H102" t="n">
-        <v>7052.934001579505</v>
+        <v>7052.93</v>
       </c>
       <c r="I102" t="n">
-        <v>10113.80085258661</v>
+        <v>10038.28218218524</v>
       </c>
       <c r="J102" t="n">
-        <v>7782.659454596234</v>
+        <v>7772.956869044578</v>
       </c>
       <c r="K102" t="n">
-        <v>7135.942028127537</v>
+        <v>7094.329042646252</v>
       </c>
       <c r="L102" t="n">
-        <v>7058.077121306331</v>
+        <v>7057.715256208479</v>
       </c>
       <c r="M102" t="n">
-        <v>7395.418015471781</v>
+        <v>7439.660588986301</v>
       </c>
       <c r="N102" t="n">
-        <v>8604.042600183773</v>
+        <v>8477.501596826896</v>
       </c>
       <c r="O102" t="n">
-        <v>7402.404283650902</v>
+        <v>7460.877525203397</v>
       </c>
     </row>
     <row r="103">
@@ -46992,31 +46990,31 @@
         <v>287.98</v>
       </c>
       <c r="G103" t="n">
-        <v>-204.7756841042155</v>
+        <v>-108.2793434174218</v>
       </c>
       <c r="H103" t="n">
-        <v>7042.232601604814</v>
+        <v>7042.23</v>
       </c>
       <c r="I103" t="n">
-        <v>10254.77568410422</v>
+        <v>10158.27934341742</v>
       </c>
       <c r="J103" t="n">
-        <v>7820.561862964056</v>
+        <v>7810.629045707099</v>
       </c>
       <c r="K103" t="n">
-        <v>7108.982046519059</v>
+        <v>7074.348884918942</v>
       </c>
       <c r="L103" t="n">
-        <v>7049.738199228515</v>
+        <v>7049.33931229081</v>
       </c>
       <c r="M103" t="n">
-        <v>7476.630401095335</v>
+        <v>7533.182856532932</v>
       </c>
       <c r="N103" t="n">
-        <v>8678.535686446947</v>
+        <v>8524.218536961816</v>
       </c>
       <c r="O103" t="n">
-        <v>7331.546696930926</v>
+        <v>7377.836600930492</v>
       </c>
     </row>
     <row r="104">
@@ -47030,31 +47028,31 @@
         <v>287.88</v>
       </c>
       <c r="G104" t="n">
-        <v>-115.3710877172507</v>
+        <v>-2.210499534123301</v>
       </c>
       <c r="H104" t="n">
-        <v>7031.69947962792</v>
+        <v>7031.7</v>
       </c>
       <c r="I104" t="n">
-        <v>10406.07108771725</v>
+        <v>10292.91049953412</v>
       </c>
       <c r="J104" t="n">
-        <v>7863.412298589404</v>
+        <v>7853.25596953548</v>
       </c>
       <c r="K104" t="n">
-        <v>7085.083865264511</v>
+        <v>7056.463458017442</v>
       </c>
       <c r="L104" t="n">
-        <v>7042.551360620999</v>
+        <v>7042.154650704777</v>
       </c>
       <c r="M104" t="n">
-        <v>7577.139273837318</v>
+        <v>7647.9177721412</v>
       </c>
       <c r="N104" t="n">
-        <v>8727.878253586954</v>
+        <v>8547.295776370476</v>
       </c>
       <c r="O104" t="n">
-        <v>7268.542778604769</v>
+        <v>7304.464274595713</v>
       </c>
     </row>
     <row r="105">
@@ -47068,31 +47066,31 @@
         <v>287.78</v>
       </c>
       <c r="G105" t="n">
-        <v>-165.6548705436962</v>
+        <v>-41.68466276820254</v>
       </c>
       <c r="H105" t="n">
-        <v>7020.952731189559</v>
+        <v>7020.95</v>
       </c>
       <c r="I105" t="n">
-        <v>10566.1548705437</v>
+        <v>10442.1846627682</v>
       </c>
       <c r="J105" t="n">
-        <v>7911.458687157549</v>
+        <v>7901.080824121409</v>
       </c>
       <c r="K105" t="n">
-        <v>7063.417595858201</v>
+        <v>7039.923572759617</v>
       </c>
       <c r="L105" t="n">
-        <v>7036.49776687671</v>
+        <v>7036.16774984201</v>
       </c>
       <c r="M105" t="n">
-        <v>7698.771452102187</v>
+        <v>7785.459456750878</v>
       </c>
       <c r="N105" t="n">
-        <v>8748.04206223347</v>
+        <v>8544.423193495115</v>
       </c>
       <c r="O105" t="n">
-        <v>7212.752708631913</v>
+        <v>7240.035034591404</v>
       </c>
     </row>
     <row r="106">
@@ -47106,31 +47104,31 @@
         <v>287.68</v>
       </c>
       <c r="G106" t="n">
-        <v>-118.6785324626435</v>
+        <v>9.186419483521604</v>
       </c>
       <c r="H106" t="n">
-        <v>7009.572930699793</v>
+        <v>7009.57</v>
       </c>
       <c r="I106" t="n">
-        <v>10734.87853246264</v>
+        <v>10607.01358051648</v>
       </c>
       <c r="J106" t="n">
-        <v>7965.016622375233</v>
+        <v>7954.432884053618</v>
       </c>
       <c r="K106" t="n">
-        <v>7043.170071885435</v>
+        <v>7024.017035497146</v>
       </c>
       <c r="L106" t="n">
-        <v>7031.635187084678</v>
+        <v>7031.495418170927</v>
       </c>
       <c r="M106" t="n">
-        <v>7842.990230139951</v>
+        <v>7946.830544998419</v>
       </c>
       <c r="N106" t="n">
-        <v>8736.662261743695</v>
+        <v>8514.734146438905</v>
       </c>
       <c r="O106" t="n">
-        <v>7163.271922090588</v>
+        <v>7183.520832745397</v>
       </c>
     </row>
     <row r="107">
@@ -47144,31 +47142,31 @@
         <v>287.58</v>
       </c>
       <c r="G107" t="n">
-        <v>-113.2907984869071</v>
+        <v>11.2162310207932</v>
       </c>
       <c r="H107" t="n">
-        <v>6997.584843424687</v>
+        <v>6997.58</v>
       </c>
       <c r="I107" t="n">
-        <v>10914.09079848691</v>
+        <v>10789.58376897921</v>
       </c>
       <c r="J107" t="n">
-        <v>8024.972556346738</v>
+        <v>8014.199230543227</v>
       </c>
       <c r="K107" t="n">
-        <v>7024.023456129454</v>
+        <v>7008.512101000208</v>
       </c>
       <c r="L107" t="n">
-        <v>7028.607752146542</v>
+        <v>7028.847786878913</v>
       </c>
       <c r="M107" t="n">
-        <v>8011.134363904856</v>
+        <v>8132.653422937168</v>
       </c>
       <c r="N107" t="n">
-        <v>8693.763617383695</v>
+        <v>8459.30614781785</v>
       </c>
       <c r="O107" t="n">
-        <v>7119.496473632022</v>
+        <v>7134.143023574206</v>
       </c>
     </row>
     <row r="108">
@@ -47182,31 +47180,31 @@
         <v>287.48</v>
       </c>
       <c r="G108" t="n">
-        <v>-209.3051028302634</v>
+        <v>-94.94077701923925</v>
       </c>
       <c r="H108" t="n">
-        <v>6984.89024381452</v>
+        <v>6984.89</v>
       </c>
       <c r="I108" t="n">
-        <v>11106.90510283026</v>
+        <v>10992.54077701924</v>
       </c>
       <c r="J108" t="n">
-        <v>8092.243324679975</v>
+        <v>8081.311762752627</v>
       </c>
       <c r="K108" t="n">
-        <v>7005.584227639111</v>
+        <v>6993.111028156254</v>
       </c>
       <c r="L108" t="n">
-        <v>7028.110792423835</v>
+        <v>7029.025776748241</v>
       </c>
       <c r="M108" t="n">
-        <v>8203.562001814882</v>
+        <v>8342.307245561189</v>
       </c>
       <c r="N108" t="n">
-        <v>8621.193328656653</v>
+        <v>8380.50407600831</v>
       </c>
       <c r="O108" t="n">
-        <v>7080.624546847557</v>
+        <v>7090.91833059204</v>
       </c>
     </row>
     <row r="109">
@@ -47220,31 +47218,31 @@
         <v>287.38</v>
       </c>
       <c r="G109" t="n">
-        <v>-49.12068703145815</v>
+        <v>49.59917638225124</v>
       </c>
       <c r="H109" t="n">
-        <v>6971.63816312272</v>
+        <v>6971.64</v>
       </c>
       <c r="I109" t="n">
-        <v>11317.62068703146</v>
+        <v>11218.90082361775</v>
       </c>
       <c r="J109" t="n">
-        <v>8168.179818575183</v>
+        <v>8157.121015179564</v>
       </c>
       <c r="K109" t="n">
-        <v>6987.749175375249</v>
+        <v>6977.783948764807</v>
       </c>
       <c r="L109" t="n">
-        <v>7031.296533940272</v>
+        <v>7033.302068543399</v>
       </c>
       <c r="M109" t="n">
-        <v>8419.698336191141</v>
+        <v>8573.965926416784</v>
       </c>
       <c r="N109" t="n">
-        <v>8522.746761726932</v>
+        <v>8282.056896305747</v>
       </c>
       <c r="O109" t="n">
-        <v>7046.080072072903</v>
+        <v>7053.067070716424</v>
       </c>
     </row>
     <row r="110">
@@ -47258,31 +47256,31 @@
         <v>287.28</v>
       </c>
       <c r="G110" t="n">
-        <v>-27.15355400490625</v>
+        <v>52.33774246060966</v>
       </c>
       <c r="H110" t="n">
-        <v>6957.510671249224</v>
+        <v>6957.51</v>
       </c>
       <c r="I110" t="n">
-        <v>11550.35355400491</v>
+        <v>11470.86225753939</v>
       </c>
       <c r="J110" t="n">
-        <v>8253.894887482464</v>
+        <v>8242.748788063089</v>
       </c>
       <c r="K110" t="n">
-        <v>6969.986746402054</v>
+        <v>6962.073189259639</v>
       </c>
       <c r="L110" t="n">
-        <v>7039.097643558543</v>
+        <v>7042.773772402315</v>
       </c>
       <c r="M110" t="n">
-        <v>8656.989468674939</v>
+        <v>8823.643404957003</v>
       </c>
       <c r="N110" t="n">
-        <v>8403.015766950213</v>
+        <v>8168.003386732618</v>
       </c>
       <c r="O110" t="n">
-        <v>7014.837632354483</v>
+        <v>7019.373948579392</v>
       </c>
     </row>
     <row r="111">
@@ -47296,31 +47294,31 @@
         <v>287.18</v>
       </c>
       <c r="G111" t="n">
-        <v>12.54328702726343</v>
+        <v>71.49673463776526</v>
       </c>
       <c r="H111" t="n">
-        <v>6942.275042748101</v>
+        <v>6942.28</v>
       </c>
       <c r="I111" t="n">
-        <v>11808.85671297274</v>
+        <v>11749.90326536223</v>
       </c>
       <c r="J111" t="n">
-        <v>8350.868973639601</v>
+        <v>8339.702280516833</v>
       </c>
       <c r="K111" t="n">
-        <v>6951.884786828093</v>
+        <v>6945.648128058014</v>
       </c>
       <c r="L111" t="n">
-        <v>7052.817613828248</v>
+        <v>7058.963925052313</v>
       </c>
       <c r="M111" t="n">
-        <v>8911.152397238122</v>
+        <v>9085.572657920571</v>
       </c>
       <c r="N111" t="n">
-        <v>8267.397126142143</v>
+        <v>8042.845288939137</v>
       </c>
       <c r="O111" t="n">
-        <v>6986.001359003648</v>
+        <v>6988.783066333169</v>
       </c>
     </row>
     <row r="112">
@@ -47334,31 +47332,31 @@
         <v>287.08</v>
       </c>
       <c r="G112" t="n">
-        <v>45.59233143986057</v>
+        <v>85.03169190221342</v>
       </c>
       <c r="H112" t="n">
-        <v>6926.02633652248</v>
+        <v>6926.03</v>
       </c>
       <c r="I112" t="n">
-        <v>12096.10766856014</v>
+        <v>12056.66830809779</v>
       </c>
       <c r="J112" t="n">
-        <v>8461.261093087453</v>
+        <v>8450.143363704699</v>
       </c>
       <c r="K112" t="n">
-        <v>6933.388845176341</v>
+        <v>6928.50062640221</v>
       </c>
       <c r="L112" t="n">
-        <v>7074.409217729914</v>
+        <v>7084.057647696577</v>
       </c>
       <c r="M112" t="n">
-        <v>9176.199716123099</v>
+        <v>9352.361214103474</v>
       </c>
       <c r="N112" t="n">
-        <v>8121.781428594524</v>
+        <v>7911.355733367527</v>
       </c>
       <c r="O112" t="n">
-        <v>6959.064011105959</v>
+        <v>6960.61952016241</v>
       </c>
     </row>
     <row r="113">
@@ -47372,31 +47370,31 @@
         <v>286.98</v>
       </c>
       <c r="G113" t="n">
-        <v>-3.460301109522334</v>
+        <v>19.46722976487581</v>
       </c>
       <c r="H113" t="n">
-        <v>6908.665714155193</v>
+        <v>6908.67</v>
       </c>
       <c r="I113" t="n">
-        <v>12413.36030110952</v>
+        <v>12390.43277023512</v>
       </c>
       <c r="J113" t="n">
-        <v>8587.475382321109</v>
+        <v>8576.507959936904</v>
       </c>
       <c r="K113" t="n">
-        <v>6914.276462116198</v>
+        <v>6910.471036677207</v>
       </c>
       <c r="L113" t="n">
-        <v>7105.982417166706</v>
+        <v>7120.45730657393</v>
       </c>
       <c r="M113" t="n">
-        <v>9443.851413745084</v>
+        <v>9614.664639733292</v>
       </c>
       <c r="N113" t="n">
-        <v>7971.549231157992</v>
+        <v>7777.779008442535</v>
       </c>
       <c r="O113" t="n">
-        <v>6933.393740546402</v>
+        <v>6934.13022486428</v>
       </c>
     </row>
     <row r="114">
@@ -47410,31 +47408,31 @@
         <v>286.88</v>
       </c>
       <c r="G114" t="n">
-        <v>-57.91263270098716</v>
+        <v>-47.15484584223304</v>
       </c>
       <c r="H114" t="n">
-        <v>6890.240117535029</v>
+        <v>6890.24</v>
       </c>
       <c r="I114" t="n">
-        <v>12760.41263270099</v>
+        <v>12749.65484584223</v>
       </c>
       <c r="J114" t="n">
-        <v>8732.615580722089</v>
+        <v>8721.922376147257</v>
       </c>
       <c r="K114" t="n">
-        <v>6894.493131865584</v>
+        <v>6891.54476775497</v>
       </c>
       <c r="L114" t="n">
-        <v>7150.162072655929</v>
+        <v>7171.089410942434</v>
       </c>
       <c r="M114" t="n">
-        <v>9704.030026725039</v>
+        <v>9861.856841793462</v>
       </c>
       <c r="N114" t="n">
-        <v>7821.551805519835</v>
+        <v>7645.889695393242</v>
       </c>
       <c r="O114" t="n">
-        <v>6908.576172248027</v>
+        <v>6908.786563460548</v>
       </c>
     </row>
     <row r="115">
@@ -47448,31 +47446,31 @@
         <v>286.78</v>
       </c>
       <c r="G115" t="n">
-        <v>13.12145878377123</v>
+        <v>16.49065650408738</v>
       </c>
       <c r="H115" t="n">
-        <v>6870.750288669615</v>
+        <v>6870.75</v>
       </c>
       <c r="I115" t="n">
-        <v>13135.77854121623</v>
+        <v>13132.40934349591</v>
       </c>
       <c r="J115" t="n">
-        <v>8900.443840293348</v>
+        <v>8890.196137962477</v>
       </c>
       <c r="K115" t="n">
-        <v>6873.95695492814</v>
+        <v>6871.689370385046</v>
       </c>
       <c r="L115" t="n">
-        <v>7209.895681011118</v>
+        <v>7239.224397489208</v>
       </c>
       <c r="M115" t="n">
-        <v>9945.104331116268</v>
+        <v>10082.47973806877</v>
       </c>
       <c r="N115" t="n">
-        <v>7675.701895414388</v>
+        <v>7518.690288740719</v>
       </c>
       <c r="O115" t="n">
-        <v>6884.220530913392</v>
+        <v>6884.121217506337</v>
       </c>
     </row>
     <row r="116">
@@ -47486,31 +47484,31 @@
         <v>286.68</v>
       </c>
       <c r="G116" t="n">
-        <v>247.1941352978465</v>
+        <v>247.4344266558419</v>
       </c>
       <c r="H116" t="n">
-        <v>6849.848182768155</v>
+        <v>6849.85</v>
       </c>
       <c r="I116" t="n">
-        <v>13537.20586470215</v>
+        <v>13536.96557334416</v>
       </c>
       <c r="J116" t="n">
-        <v>9095.278179585202</v>
+        <v>9085.694782593293</v>
       </c>
       <c r="K116" t="n">
-        <v>6852.253048057252</v>
+        <v>6850.52209552824</v>
       </c>
       <c r="L116" t="n">
-        <v>7288.12388479153</v>
+        <v>7328.089100356433</v>
       </c>
       <c r="M116" t="n">
-        <v>10154.32653879746</v>
+        <v>10264.73572886926</v>
       </c>
       <c r="N116" t="n">
-        <v>7536.586581734141</v>
+        <v>7398.030809091515</v>
       </c>
       <c r="O116" t="n">
-        <v>6859.652317630244</v>
+        <v>6859.391186920784</v>
       </c>
     </row>
     <row r="117">
@@ -47524,31 +47522,31 @@
         <v>286.58</v>
       </c>
       <c r="G117" t="n">
-        <v>178.0012685263373</v>
+        <v>177.9705232873057</v>
       </c>
       <c r="H117" t="n">
-        <v>6827.030194135891</v>
+        <v>6827.03</v>
       </c>
       <c r="I117" t="n">
-        <v>13963.09873147366</v>
+        <v>13963.12947671269</v>
       </c>
       <c r="J117" t="n">
-        <v>9322.453933182958</v>
+        <v>9313.811812996501</v>
       </c>
       <c r="K117" t="n">
-        <v>6828.824129078953</v>
+        <v>6827.507873432307</v>
       </c>
       <c r="L117" t="n">
-        <v>7387.910392668748</v>
+        <v>7440.960899959919</v>
       </c>
       <c r="M117" t="n">
-        <v>10319.03656657473</v>
+        <v>10397.65008380521</v>
       </c>
       <c r="N117" t="n">
-        <v>7405.682638385922</v>
+        <v>7284.83368283072</v>
       </c>
       <c r="O117" t="n">
-        <v>6834.100112947635</v>
+        <v>6833.768622404224</v>
       </c>
     </row>
     <row r="118">
@@ -47562,31 +47560,31 @@
         <v>286.48</v>
       </c>
       <c r="G118" t="n">
-        <v>319.8681937812271</v>
+        <v>320.3891946954082</v>
       </c>
       <c r="H118" t="n">
-        <v>6802.432955913652</v>
+        <v>6802.43</v>
       </c>
       <c r="I118" t="n">
-        <v>14414.83180621877</v>
+        <v>14414.31080530459</v>
       </c>
       <c r="J118" t="n">
-        <v>9589.483324408922</v>
+        <v>9582.147562182683</v>
       </c>
       <c r="K118" t="n">
-        <v>6803.764023514735</v>
+        <v>6802.767659943725</v>
       </c>
       <c r="L118" t="n">
-        <v>7513.127135468077</v>
+        <v>7581.812695946592</v>
       </c>
       <c r="M118" t="n">
-        <v>10428.63653436145</v>
+        <v>10472.86734433567</v>
       </c>
       <c r="N118" t="n">
-        <v>7284.248380413646</v>
+        <v>7179.982501883931</v>
       </c>
       <c r="O118" t="n">
-        <v>6807.484151689124</v>
+        <v>6807.140714236944</v>
       </c>
     </row>
     <row r="119">
@@ -47600,31 +47598,31 @@
         <v>286.38</v>
       </c>
       <c r="G119" t="n">
-        <v>459.1996589779283</v>
+        <v>458.8262205494993</v>
       </c>
       <c r="H119" t="n">
-        <v>6776.047418963946</v>
+        <v>6776.05</v>
       </c>
       <c r="I119" t="n">
-        <v>14897.60034102207</v>
+        <v>14897.9737794505</v>
       </c>
       <c r="J119" t="n">
-        <v>9905.768967065904</v>
+        <v>9900.225609442288</v>
       </c>
       <c r="K119" t="n">
-        <v>6777.029775849885</v>
+        <v>6776.287097977213</v>
       </c>
       <c r="L119" t="n">
-        <v>7667.498956162807</v>
+        <v>7754.289482978535</v>
       </c>
       <c r="M119" t="n">
-        <v>10474.9817643063</v>
+        <v>10484.72942715341</v>
       </c>
       <c r="N119" t="n">
-        <v>7172.676022533571</v>
+        <v>7083.643130207933</v>
       </c>
       <c r="O119" t="n">
-        <v>6779.623019929017</v>
+        <v>6779.309536815672</v>
       </c>
     </row>
     <row r="120">
@@ -47638,31 +47636,31 @@
         <v>286.28</v>
       </c>
       <c r="G120" t="n">
-        <v>766.6169817662048</v>
+        <v>761.8825758336188</v>
       </c>
       <c r="H120" t="n">
-        <v>6747.410323773756</v>
+        <v>6747.41</v>
       </c>
       <c r="I120" t="n">
-        <v>15421.68301823379</v>
+        <v>15426.41742416638</v>
       </c>
       <c r="J120" t="n">
-        <v>10282.99001971372</v>
+        <v>10279.85712380925</v>
       </c>
       <c r="K120" t="n">
-        <v>6748.131451628195</v>
+        <v>6747.575445340374</v>
       </c>
       <c r="L120" t="n">
-        <v>7854.056291578012</v>
+        <v>7961.061032987104</v>
       </c>
       <c r="M120" t="n">
-        <v>10453.04204719264</v>
+        <v>10430.54490619785</v>
       </c>
       <c r="N120" t="n">
-        <v>7070.337527123206</v>
+        <v>6995.048433311272</v>
       </c>
       <c r="O120" t="n">
-        <v>6749.918032358923</v>
+        <v>6749.642453936254</v>
       </c>
     </row>
     <row r="121">
@@ -47676,31 +47674,31 @@
         <v>286.18</v>
       </c>
       <c r="G121" t="n">
-        <v>556.1593629818326</v>
+        <v>542.1824109271147</v>
       </c>
       <c r="H121" t="n">
-        <v>6716.223320221426</v>
+        <v>6716.22</v>
       </c>
       <c r="I121" t="n">
-        <v>16004.44063701817</v>
+        <v>16018.41758907288</v>
       </c>
       <c r="J121" t="n">
-        <v>10736.70120787548</v>
+        <v>10736.80417146621</v>
       </c>
       <c r="K121" t="n">
-        <v>6716.749854789516</v>
+        <v>6716.334724521455</v>
       </c>
       <c r="L121" t="n">
-        <v>8075.438153482555</v>
+        <v>8204.111638972956</v>
       </c>
       <c r="M121" t="n">
-        <v>10362.09292249853</v>
+        <v>10311.50362108369</v>
       </c>
       <c r="N121" t="n">
-        <v>6976.355250580702</v>
+        <v>6913.292168203982</v>
       </c>
       <c r="O121" t="n">
-        <v>6717.965827102622</v>
+        <v>6717.733451299266</v>
       </c>
     </row>
     <row r="122">
@@ -47714,31 +47712,31 @@
         <v>286.08</v>
       </c>
       <c r="G122" t="n">
-        <v>765.8149917087503</v>
+        <v>737.2030451461615</v>
       </c>
       <c r="H122" t="n">
-        <v>6682.830564173923</v>
+        <v>6682.83</v>
       </c>
       <c r="I122" t="n">
-        <v>16671.98500829125</v>
+        <v>16700.59695485384</v>
       </c>
       <c r="J122" t="n">
-        <v>11288.21347429525</v>
+        <v>11292.65140551135</v>
       </c>
       <c r="K122" t="n">
-        <v>6683.212957963467</v>
+        <v>6682.909055038596</v>
       </c>
       <c r="L122" t="n">
-        <v>8333.973890652238</v>
+        <v>8484.747582705324</v>
       </c>
       <c r="M122" t="n">
-        <v>10206.24764819565</v>
+        <v>10132.96259391995</v>
       </c>
       <c r="N122" t="n">
-        <v>6890.216205577954</v>
+        <v>6837.89212726627</v>
       </c>
       <c r="O122" t="n">
-        <v>6684.03016321389</v>
+        <v>6683.84557917021</v>
       </c>
     </row>
     <row r="123">
@@ -47752,31 +47750,31 @@
         <v>285.98</v>
       </c>
       <c r="G123" t="n">
-        <v>645.862217458729</v>
+        <v>597.7023448257569</v>
       </c>
       <c r="H123" t="n">
-        <v>6647.070313917605</v>
+        <v>6647.07</v>
       </c>
       <c r="I123" t="n">
-        <v>17459.23778254127</v>
+        <v>17507.39765517424</v>
       </c>
       <c r="J123" t="n">
-        <v>11965.48675592541</v>
+        <v>11975.71309448467</v>
       </c>
       <c r="K123" t="n">
-        <v>6647.346538068215</v>
+        <v>6647.124134103724</v>
       </c>
       <c r="L123" t="n">
-        <v>8630.066442913092</v>
+        <v>8801.956153104416</v>
       </c>
       <c r="M123" t="n">
-        <v>9992.833687381688</v>
+        <v>9902.74287468514</v>
       </c>
       <c r="N123" t="n">
-        <v>6810.7391648381</v>
+        <v>6767.726748351493</v>
       </c>
       <c r="O123" t="n">
-        <v>6647.888506414723</v>
+        <v>6647.744554594113</v>
       </c>
     </row>
     <row r="124">
@@ -47790,31 +47788,31 @@
         <v>285.88</v>
       </c>
       <c r="G124" t="n">
-        <v>175.8423828101513</v>
+        <v>104.5276459823181</v>
       </c>
       <c r="H124" t="n">
-        <v>6608.61821456791</v>
+        <v>6608.62</v>
       </c>
       <c r="I124" t="n">
-        <v>18411.95761718985</v>
+        <v>18483.27235401768</v>
       </c>
       <c r="J124" t="n">
-        <v>12806.49325635703</v>
+        <v>12824.4585975673</v>
       </c>
       <c r="K124" t="n">
-        <v>6608.816676302554</v>
+        <v>6608.656836377859</v>
       </c>
       <c r="L124" t="n">
-        <v>8962.016355911772</v>
+        <v>9152.296207803187</v>
       </c>
       <c r="M124" t="n">
-        <v>9731.831980115861</v>
+        <v>9630.672599673548</v>
       </c>
       <c r="N124" t="n">
-        <v>6736.510197070012</v>
+        <v>6701.482723041185</v>
       </c>
       <c r="O124" t="n">
-        <v>6609.171087547797</v>
+        <v>6609.063481802413</v>
       </c>
     </row>
     <row r="125">
@@ -47828,31 +47826,31 @@
         <v>285.78</v>
       </c>
       <c r="G125" t="n">
-        <v>421.8184629243988</v>
+        <v>325.5714020087689</v>
       </c>
       <c r="H125" t="n">
-        <v>6567.796901245815</v>
+        <v>6567.8</v>
       </c>
       <c r="I125" t="n">
-        <v>19590.4815370756</v>
+        <v>19686.72859799123</v>
       </c>
       <c r="J125" t="n">
-        <v>13864.5746367292</v>
+        <v>13892.89745166392</v>
       </c>
       <c r="K125" t="n">
-        <v>6567.938726509283</v>
+        <v>6567.824908290481</v>
       </c>
       <c r="L125" t="n">
-        <v>9326.302349663149</v>
+        <v>9530.267912749214</v>
       </c>
       <c r="M125" t="n">
-        <v>9435.534275604736</v>
+        <v>9328.402457943963</v>
       </c>
       <c r="N125" t="n">
-        <v>6666.76195083163</v>
+        <v>6638.503558926835</v>
       </c>
       <c r="O125" t="n">
-        <v>6568.167017172876</v>
+        <v>6568.088593339201</v>
       </c>
     </row>
     <row r="126">
@@ -47866,31 +47864,31 @@
         <v>285.68</v>
       </c>
       <c r="G126" t="n">
-        <v>162.6343955364864</v>
+        <v>41.5660462358137</v>
       </c>
       <c r="H126" t="n">
-        <v>6523.26558354587</v>
+        <v>6523.27</v>
       </c>
       <c r="I126" t="n">
-        <v>21072.76560446352</v>
+        <v>21193.83395376419</v>
       </c>
       <c r="J126" t="n">
-        <v>15213.10418838672</v>
+        <v>15255.31193175961</v>
       </c>
       <c r="K126" t="n">
-        <v>6523.366390244064</v>
+        <v>6523.286736645538</v>
       </c>
       <c r="L126" t="n">
-        <v>9714.797029603567</v>
+        <v>9925.725424598633</v>
       </c>
       <c r="M126" t="n">
-        <v>9115.039077801284</v>
+        <v>9006.128059336206</v>
       </c>
       <c r="N126" t="n">
-        <v>6599.112667887454</v>
+        <v>6576.530644075857</v>
       </c>
       <c r="O126" t="n">
-        <v>6523.51104555148</v>
+        <v>6523.455884954302</v>
       </c>
     </row>
     <row r="127">
@@ -47904,31 +47902,31 @@
         <v>285.58</v>
       </c>
       <c r="G127" t="n">
-        <v>-521.6154590526967</v>
+        <v>-665.9484466898175</v>
       </c>
       <c r="H127" t="n">
-        <v>6474.023124290723</v>
+        <v>6474.02</v>
       </c>
       <c r="I127" t="n">
-        <v>22965.9154590527</v>
+        <v>23110.24844668982</v>
       </c>
       <c r="J127" t="n">
-        <v>16958.37215511883</v>
+        <v>17019.19461835941</v>
       </c>
       <c r="K127" t="n">
-        <v>6474.094390129899</v>
+        <v>6474.031174983213</v>
       </c>
       <c r="L127" t="n">
-        <v>10116.44081514029</v>
+        <v>10325.7962708658</v>
       </c>
       <c r="M127" t="n">
-        <v>8781.199533166593</v>
+        <v>8673.722144010337</v>
       </c>
       <c r="N127" t="n">
-        <v>6531.601548584878</v>
+        <v>6513.719264353864</v>
       </c>
       <c r="O127" t="n">
-        <v>6474.184395223844</v>
+        <v>6474.138507169626</v>
       </c>
     </row>
     <row r="128">
@@ -47942,31 +47940,31 @@
         <v>285.48</v>
       </c>
       <c r="G128" t="n">
-        <v>-1118.094410800044</v>
+        <v>-1283.656759694979</v>
       </c>
       <c r="H128" t="n">
-        <v>6420.115827836795</v>
+        <v>6420.12</v>
       </c>
       <c r="I128" t="n">
-        <v>25423.29441080004</v>
+        <v>25588.85675969498</v>
       </c>
       <c r="J128" t="n">
-        <v>19257.55214300226</v>
+        <v>19343.29689252755</v>
       </c>
       <c r="K128" t="n">
-        <v>6420.165938119453</v>
+        <v>6420.127414396314</v>
       </c>
       <c r="L128" t="n">
-        <v>10517.87389032748</v>
+        <v>10715.85913150435</v>
       </c>
       <c r="M128" t="n">
-        <v>8444.532402177625</v>
+        <v>8340.828795027686</v>
       </c>
       <c r="N128" t="n">
-        <v>6463.415013165532</v>
+        <v>6449.402401877851</v>
       </c>
       <c r="O128" t="n">
-        <v>6420.220792771395</v>
+        <v>6420.19477940271</v>
       </c>
     </row>
     <row r="129">
@@ -47980,31 +47978,31 @@
         <v>285.38</v>
       </c>
       <c r="G129" t="n">
-        <v>-1738.850575100081</v>
+        <v>-1924.301341112296</v>
       </c>
       <c r="H129" t="n">
-        <v>6360.07973351064</v>
+        <v>6360.08</v>
       </c>
       <c r="I129" t="n">
-        <v>28669.45057510008</v>
+        <v>28854.90134111229</v>
       </c>
       <c r="J129" t="n">
-        <v>22343.82840352021</v>
+        <v>22462.58961364351</v>
       </c>
       <c r="K129" t="n">
-        <v>6360.114778257739</v>
+        <v>6360.084888230652</v>
       </c>
       <c r="L129" t="n">
-        <v>10901.1682365109</v>
+        <v>11077.49169169046</v>
       </c>
       <c r="M129" t="n">
-        <v>8112.164257141312</v>
+        <v>8013.805178428633</v>
       </c>
       <c r="N129" t="n">
-        <v>6392.336845874048</v>
+        <v>6381.455151816101</v>
       </c>
       <c r="O129" t="n">
-        <v>6360.147410274903</v>
+        <v>6360.126703614644</v>
       </c>
     </row>
     <row r="130">
@@ -48018,31 +48016,31 @@
         <v>285.28</v>
       </c>
       <c r="G130" t="n">
-        <v>-2759.246396767539</v>
+        <v>-2964.950960495775</v>
       </c>
       <c r="H130" t="n">
-        <v>6291.299691779997</v>
+        <v>6291.3</v>
       </c>
       <c r="I130" t="n">
-        <v>33045.44639676754</v>
+        <v>33251.15096049578</v>
       </c>
       <c r="J130" t="n">
-        <v>26571.18959182854</v>
+        <v>26732.65375103934</v>
       </c>
       <c r="K130" t="n">
-        <v>6291.324068025775</v>
+        <v>6291.303202367126</v>
       </c>
       <c r="L130" t="n">
-        <v>11244.93125024253</v>
+        <v>11389.888486856</v>
       </c>
       <c r="M130" t="n">
-        <v>7787.982941734883</v>
+        <v>7695.985164052083</v>
       </c>
       <c r="N130" t="n">
-        <v>6315.107353456903</v>
+        <v>6306.742367700273</v>
       </c>
       <c r="O130" t="n">
-        <v>6291.342916579347</v>
+        <v>6291.328869815806</v>
       </c>
     </row>
     <row r="131">
@@ -48056,31 +48054,31 @@
         <v>285.18</v>
       </c>
       <c r="G131" t="n">
-        <v>-3290.658253929112</v>
+        <v>-3518.01642135658</v>
       </c>
       <c r="H131" t="n">
-        <v>6210.396540453581</v>
+        <v>6210.4</v>
       </c>
       <c r="I131" t="n">
-        <v>39080.05825392911</v>
+        <v>39307.41642135658</v>
       </c>
       <c r="J131" t="n">
-        <v>32484.37688147197</v>
+        <v>32697.88740521103</v>
       </c>
       <c r="K131" t="n">
-        <v>6210.41340426377</v>
+        <v>6210.402084638163</v>
       </c>
       <c r="L131" t="n">
-        <v>11525.9229453757</v>
+        <v>11631.49656823462</v>
       </c>
       <c r="M131" t="n">
-        <v>7473.052397055777</v>
+        <v>7388.020114653626</v>
       </c>
       <c r="N131" t="n">
-        <v>6227.805279476707</v>
+        <v>6221.441786778802</v>
       </c>
       <c r="O131" t="n">
-        <v>6210.42388780753</v>
+        <v>6210.417662665024</v>
       </c>
     </row>
     <row r="132">
@@ -48094,31 +48092,31 @@
         <v>285.08</v>
       </c>
       <c r="G132" t="n">
-        <v>-3264.959172096278</v>
+        <v>-3510.711448675887</v>
       </c>
       <c r="H132" t="n">
-        <v>6110.886655302393</v>
+        <v>6110.89</v>
       </c>
       <c r="I132" t="n">
-        <v>47588.55917209628</v>
+        <v>47834.31144867589</v>
       </c>
       <c r="J132" t="n">
-        <v>40915.83041477319</v>
+        <v>41183.59113318808</v>
       </c>
       <c r="K132" t="n">
-        <v>6110.898258742836</v>
+        <v>6110.891348425743</v>
       </c>
       <c r="L132" t="n">
-        <v>11718.36782184401</v>
+        <v>11779.21328213671</v>
       </c>
       <c r="M132" t="n">
-        <v>7163.465471548347</v>
+        <v>7085.706887628849</v>
       </c>
       <c r="N132" t="n">
-        <v>6123.498720312967</v>
+        <v>6118.704473807852</v>
       </c>
       <c r="O132" t="n">
-        <v>6110.903793988038</v>
+        <v>6110.900694998002</v>
       </c>
     </row>
     <row r="133">
@@ -48132,31 +48130,31 @@
         <v>284.98</v>
       </c>
       <c r="G133" t="n">
-        <v>-1997.332701405008</v>
+        <v>-2235.010094123871</v>
       </c>
       <c r="H133" t="n">
-        <v>5981.383172116639</v>
+        <v>5981.38</v>
       </c>
       <c r="I133" t="n">
-        <v>59773.13270140501</v>
+        <v>60010.81009412387</v>
       </c>
       <c r="J133" t="n">
-        <v>53083.92648322703</v>
+        <v>53381.71877386206</v>
       </c>
       <c r="K133" t="n">
-        <v>5981.391112788384</v>
+        <v>5981.380866676205</v>
       </c>
       <c r="L133" t="n">
-        <v>11794.05358640019</v>
+        <v>11808.16217402222</v>
       </c>
       <c r="M133" t="n">
-        <v>6848.835302080804</v>
+        <v>6778.449815051812</v>
       </c>
       <c r="N133" t="n">
-        <v>5990.435878623302</v>
+        <v>5986.854007362504</v>
       </c>
       <c r="O133" t="n">
-        <v>5981.393811357915</v>
+        <v>5981.386409304717</v>
       </c>
     </row>
     <row r="134">
@@ -48170,31 +48168,31 @@
         <v>284.88</v>
       </c>
       <c r="G134" t="n">
-        <v>494.0364426456654</v>
+        <v>359.1925558924122</v>
       </c>
       <c r="H134" t="n">
-        <v>5803.926370178227</v>
+        <v>5803.93</v>
       </c>
       <c r="I134" t="n">
-        <v>77148.46355735433</v>
+        <v>77283.30744410759</v>
       </c>
       <c r="J134" t="n">
-        <v>70516.38679555873</v>
+        <v>70748.27362254664</v>
       </c>
       <c r="K134" t="n">
-        <v>5803.931774787858</v>
+        <v>5803.930553499147</v>
       </c>
       <c r="L134" t="n">
-        <v>11722.52481717558</v>
+        <v>11691.42109384721</v>
       </c>
       <c r="M134" t="n">
-        <v>6510.955293061543</v>
+        <v>6447.908517268448</v>
       </c>
       <c r="N134" t="n">
-        <v>5810.364294285145</v>
+        <v>5807.725451221223</v>
       </c>
       <c r="O134" t="n">
-        <v>5803.932912109283</v>
+        <v>5803.933801371561</v>
       </c>
     </row>
     <row r="135">
@@ -48208,31 +48206,31 @@
         <v>284.78</v>
       </c>
       <c r="G135" t="n">
-        <v>2912.252600340362</v>
+        <v>3114.80020534675</v>
       </c>
       <c r="H135" t="n">
-        <v>5553.260069320653</v>
+        <v>5553.26</v>
       </c>
       <c r="I135" t="n">
-        <v>100659.7473996596</v>
+        <v>100457.1997946533</v>
       </c>
       <c r="J135" t="n">
-        <v>94166.47351816924</v>
+        <v>94093.62700338037</v>
       </c>
       <c r="K135" t="n">
-        <v>5553.263727839481</v>
+        <v>5553.260351240105</v>
       </c>
       <c r="L135" t="n">
-        <v>11471.85851631801</v>
+        <v>11400.1994250992</v>
       </c>
       <c r="M135" t="n">
-        <v>6123.402361939347</v>
+        <v>6067.513057485332</v>
       </c>
       <c r="N135" t="n">
-        <v>5557.796221845005</v>
+        <v>5555.864823628006</v>
       </c>
       <c r="O135" t="n">
-        <v>5553.264053646226</v>
+        <v>5553.262231322656</v>
       </c>
     </row>
     <row r="136">
@@ -48246,31 +48244,31 @@
         <v>284.68</v>
       </c>
       <c r="G136" t="n">
-        <v>1094.252483010452</v>
+        <v>1987.426709778811</v>
       </c>
       <c r="H136" t="n">
-        <v>5204.925402456283</v>
+        <v>5204.93</v>
       </c>
       <c r="I136" t="n">
-        <v>127685.7475169895</v>
+        <v>126792.5732902212</v>
       </c>
       <c r="J136" t="n">
-        <v>121414.9215759508</v>
+        <v>120677.5432396183</v>
       </c>
       <c r="K136" t="n">
-        <v>5204.927865530053</v>
+        <v>5204.930221470138</v>
       </c>
       <c r="L136" t="n">
-        <v>11017.59581673993</v>
+        <v>10912.40639820457</v>
       </c>
       <c r="M136" t="n">
-        <v>5659.927672569303</v>
+        <v>5610.929051176754</v>
       </c>
       <c r="N136" t="n">
-        <v>5208.092058895767</v>
+        <v>5206.699507239913</v>
       </c>
       <c r="O136" t="n">
-        <v>5204.927805982196</v>
+        <v>5204.931296195725</v>
       </c>
     </row>
     <row r="137">
@@ -48284,31 +48282,31 @@
         <v>284.58</v>
       </c>
       <c r="G137" t="n">
-        <v>-3276.29367032976</v>
+        <v>-1645.481400229939</v>
       </c>
       <c r="H137" t="n">
-        <v>4756.582913691409</v>
+        <v>4756.58</v>
       </c>
       <c r="I137" t="n">
-        <v>147691.2936703298</v>
+        <v>146060.4814002299</v>
       </c>
       <c r="J137" t="n">
-        <v>141722.1944555597</v>
+        <v>140265.4779714324</v>
       </c>
       <c r="K137" t="n">
-        <v>4756.584562909252</v>
+        <v>4756.580138754515</v>
       </c>
       <c r="L137" t="n">
-        <v>10364.06408023302</v>
+        <v>10233.63061013769</v>
       </c>
       <c r="M137" t="n">
-        <v>5116.031225045053</v>
+        <v>5073.545816523902</v>
       </c>
       <c r="N137" t="n">
-        <v>4758.773100725567</v>
+        <v>4757.769832615767</v>
       </c>
       <c r="O137" t="n">
-        <v>4756.584349775004</v>
+        <v>4756.580745175416</v>
       </c>
     </row>
     <row r="138">
@@ -48322,31 +48320,31 @@
         <v>284.48</v>
       </c>
       <c r="G138" t="n">
-        <v>-3281.090213074989</v>
+        <v>-1698.535986205883</v>
       </c>
       <c r="H138" t="n">
-        <v>4247.5500855562</v>
+        <v>4247.55</v>
       </c>
       <c r="I138" t="n">
-        <v>146116.090213075</v>
+        <v>144533.5359862059</v>
       </c>
       <c r="J138" t="n">
-        <v>140517.9357380714</v>
+        <v>139119.8356921348</v>
       </c>
       <c r="K138" t="n">
-        <v>4247.551183814435</v>
+        <v>4247.550086376767</v>
       </c>
       <c r="L138" t="n">
-        <v>9563.076490478506</v>
+        <v>9415.897771945565</v>
       </c>
       <c r="M138" t="n">
-        <v>4528.702152701762</v>
+        <v>4492.299363405268</v>
       </c>
       <c r="N138" t="n">
-        <v>4249.05088465383</v>
+        <v>4248.341913534921</v>
       </c>
       <c r="O138" t="n">
-        <v>4247.550935400881</v>
+        <v>4247.55042395507</v>
       </c>
     </row>
     <row r="139">
@@ -48360,31 +48358,31 @@
         <v>284.38</v>
       </c>
       <c r="G139" t="n">
-        <v>741.3939588880457</v>
+        <v>1294.82526919902</v>
       </c>
       <c r="H139" t="n">
-        <v>3756.214891376617</v>
+        <v>3756.21</v>
       </c>
       <c r="I139" t="n">
-        <v>120295.606041112</v>
+        <v>119742.174730801</v>
       </c>
       <c r="J139" t="n">
-        <v>115123.2111809778</v>
+        <v>114757.3997067832</v>
       </c>
       <c r="K139" t="n">
-        <v>3756.215618744542</v>
+        <v>3756.210053427113</v>
       </c>
       <c r="L139" t="n">
-        <v>8709.846449839155</v>
+        <v>8553.687947392249</v>
       </c>
       <c r="M139" t="n">
-        <v>3973.986315895876</v>
+        <v>3943.158568563071</v>
       </c>
       <c r="N139" t="n">
-        <v>3757.233759898997</v>
+        <v>3756.731705778945</v>
       </c>
       <c r="O139" t="n">
-        <v>3756.215389481215</v>
+        <v>3756.210238697728</v>
       </c>
     </row>
     <row r="140">
@@ -48398,31 +48396,31 @@
         <v>284.28</v>
       </c>
       <c r="G140" t="n">
-        <v>4137.613565483916</v>
+        <v>3813.74697069799</v>
       </c>
       <c r="H140" t="n">
-        <v>3355.387440744476</v>
+        <v>3355.39</v>
       </c>
       <c r="I140" t="n">
-        <v>87892.58643451608</v>
+        <v>88216.45302930201</v>
       </c>
       <c r="J140" t="n">
-        <v>83183.77965506744</v>
+        <v>83692.56371680609</v>
       </c>
       <c r="K140" t="n">
-        <v>3355.387919842629</v>
+        <v>3355.390032835113</v>
       </c>
       <c r="L140" t="n">
-        <v>7896.475943744739</v>
+        <v>7737.818490799153</v>
       </c>
       <c r="M140" t="n">
-        <v>3522.44797378904</v>
+        <v>3496.667336177096</v>
       </c>
       <c r="N140" t="n">
-        <v>3356.072708527293</v>
+        <v>3355.73019357983</v>
       </c>
       <c r="O140" t="n">
-        <v>3355.387729889114</v>
+        <v>3355.390132995745</v>
       </c>
     </row>
     <row r="141">
@@ -48436,31 +48434,31 @@
         <v>284.18</v>
       </c>
       <c r="G141" t="n">
-        <v>3626.776809601099</v>
+        <v>2980.966004057729</v>
       </c>
       <c r="H141" t="n">
-        <v>3066.466233182062</v>
+        <v>3066.47</v>
       </c>
       <c r="I141" t="n">
-        <v>61555.7231903989</v>
+        <v>62201.53399594227</v>
       </c>
       <c r="J141" t="n">
-        <v>57330.59296972076</v>
+        <v>58154.30398872717</v>
       </c>
       <c r="K141" t="n">
-        <v>3066.466547025464</v>
+        <v>3066.470020050471</v>
       </c>
       <c r="L141" t="n">
-        <v>7164.224295672999</v>
+        <v>7007.982066155726</v>
       </c>
       <c r="M141" t="n">
-        <v>3193.408609974054</v>
+        <v>3172.108201645886</v>
       </c>
       <c r="N141" t="n">
-        <v>3066.922838378989</v>
+        <v>3066.689570981288</v>
       </c>
       <c r="O141" t="n">
-        <v>3066.466399414591</v>
+        <v>3066.47007333009</v>
       </c>
     </row>
     <row r="142">
@@ -48474,31 +48472,31 @@
         <v>284.08</v>
       </c>
       <c r="G142" t="n">
-        <v>1481.477382354497</v>
+        <v>840.7947074885888</v>
       </c>
       <c r="H142" t="n">
-        <v>2872.074722584402</v>
+        <v>2872.07</v>
       </c>
       <c r="I142" t="n">
-        <v>43347.7226176455</v>
+        <v>43988.40529251141</v>
       </c>
       <c r="J142" t="n">
-        <v>39609.47775782863</v>
+        <v>40418.21908793225</v>
       </c>
       <c r="K142" t="n">
-        <v>2872.074927048562</v>
+        <v>2872.070012165142</v>
       </c>
       <c r="L142" t="n">
-        <v>6514.492413433971</v>
+        <v>6364.074913435659</v>
       </c>
       <c r="M142" t="n">
-        <v>2967.625744641094</v>
+        <v>2950.234096728124</v>
       </c>
       <c r="N142" t="n">
-        <v>2872.376128051727</v>
+        <v>2872.210270796572</v>
       </c>
       <c r="O142" t="n">
-        <v>2872.074817233409</v>
+        <v>2872.07004001067</v>
       </c>
     </row>
     <row r="143">
@@ -48512,31 +48510,31 @@
         <v>283.98</v>
       </c>
       <c r="G143" t="n">
-        <v>-444.2499181664607</v>
+        <v>-972.2482473459531</v>
       </c>
       <c r="H143" t="n">
-        <v>2744.323594827559</v>
+        <v>2744.32</v>
       </c>
       <c r="I143" t="n">
-        <v>31343.14991816646</v>
+        <v>31871.14824734595</v>
       </c>
       <c r="J143" t="n">
-        <v>28080.19407575012</v>
+        <v>28764.82539620656</v>
       </c>
       <c r="K143" t="n">
-        <v>2744.323727302774</v>
+        <v>2744.320007333538</v>
       </c>
       <c r="L143" t="n">
-        <v>5935.855040885508</v>
+        <v>5793.425792699655</v>
       </c>
       <c r="M143" t="n">
-        <v>2815.574030665091</v>
+        <v>2801.555248221038</v>
       </c>
       <c r="N143" t="n">
-        <v>2744.520692838006</v>
+        <v>2744.408694704403</v>
       </c>
       <c r="O143" t="n">
-        <v>2744.323648198936</v>
+        <v>2744.320021602939</v>
       </c>
     </row>
     <row r="144">
@@ -48550,31 +48548,31 @@
         <v>283.88</v>
       </c>
       <c r="G144" t="n">
-        <v>-1351.577854987794</v>
+        <v>-1756.837302018714</v>
       </c>
       <c r="H144" t="n">
-        <v>2659.397035522597</v>
+        <v>2659.4</v>
       </c>
       <c r="I144" t="n">
-        <v>23408.4778549878</v>
+        <v>23813.73730201872</v>
       </c>
       <c r="J144" t="n">
-        <v>20597.22935847142</v>
+        <v>21147.02363311938</v>
       </c>
       <c r="K144" t="n">
-        <v>2659.397120884275</v>
+        <v>2659.400004392494</v>
       </c>
       <c r="L144" t="n">
-        <v>5417.90248393993</v>
+        <v>5284.672000697707</v>
       </c>
       <c r="M144" t="n">
-        <v>2712.033113434491</v>
+        <v>2700.877772223676</v>
       </c>
       <c r="N144" t="n">
-        <v>2659.524716185113</v>
+        <v>2659.455508622204</v>
       </c>
       <c r="O144" t="n">
-        <v>2659.39706532741</v>
+        <v>2659.400011542175</v>
       </c>
     </row>
     <row r="145">
@@ -48588,31 +48586,31 @@
         <v>283.78</v>
       </c>
       <c r="G145" t="n">
-        <v>-1481.904033649207</v>
+        <v>-1784.140076771833</v>
       </c>
       <c r="H145" t="n">
-        <v>2600.70496767461</v>
+        <v>2600.7</v>
       </c>
       <c r="I145" t="n">
-        <v>18044.20403364921</v>
+        <v>18346.44007677183</v>
       </c>
       <c r="J145" t="n">
-        <v>15652.2175690349</v>
+        <v>16086.80999456154</v>
       </c>
       <c r="K145" t="n">
-        <v>2600.705022376182</v>
+        <v>2600.700002614011</v>
       </c>
       <c r="L145" t="n">
-        <v>4954.103109018472</v>
+        <v>4830.623495804439</v>
       </c>
       <c r="M145" t="n">
-        <v>2639.229527449611</v>
+        <v>2630.449726692657</v>
       </c>
       <c r="N145" t="n">
-        <v>2600.786902898461</v>
+        <v>2600.734383450949</v>
       </c>
       <c r="O145" t="n">
-        <v>2600.704984157889</v>
+        <v>2600.700006102318</v>
       </c>
     </row>
     <row r="146">
@@ -48626,31 +48624,31 @@
         <v>283.68</v>
       </c>
       <c r="G146" t="n">
-        <v>-1392.543930581554</v>
+        <v>-1615.689093142802</v>
       </c>
       <c r="H146" t="n">
-        <v>2558.337244841214</v>
+        <v>2558.34</v>
       </c>
       <c r="I146" t="n">
-        <v>14312.34393058155</v>
+        <v>14535.4890931428</v>
       </c>
       <c r="J146" t="n">
-        <v>12301.37568883095</v>
+        <v>12644.95337227787</v>
       </c>
       <c r="K146" t="n">
-        <v>2558.33727970246</v>
+        <v>2558.34000154561</v>
       </c>
       <c r="L146" t="n">
-        <v>4541.3333738369</v>
+        <v>4427.800025635092</v>
       </c>
       <c r="M146" t="n">
-        <v>2586.272938098709</v>
+        <v>2579.459403277194</v>
       </c>
       <c r="N146" t="n">
-        <v>2558.389329478538</v>
+        <v>2558.361079410186</v>
       </c>
       <c r="O146" t="n">
-        <v>2558.337253868845</v>
+        <v>2558.340003192487</v>
       </c>
     </row>
     <row r="147">
@@ -48664,31 +48662,31 @@
         <v>283.58</v>
       </c>
       <c r="G147" t="n">
-        <v>-1312.002263937646</v>
+        <v>-1476.615461417434</v>
       </c>
       <c r="H147" t="n">
-        <v>2526.891553175366</v>
+        <v>2526.89</v>
       </c>
       <c r="I147" t="n">
-        <v>11641.70226393765</v>
+        <v>11806.31546141743</v>
       </c>
       <c r="J147" t="n">
-        <v>9970.469114740088</v>
+        <v>10244.00458478324</v>
       </c>
       <c r="K147" t="n">
-        <v>2526.891575270164</v>
+        <v>2526.890000908</v>
       </c>
       <c r="L147" t="n">
-        <v>4178.034879653681</v>
+        <v>4074.401953183786</v>
       </c>
       <c r="M147" t="n">
-        <v>2546.961869991192</v>
+        <v>2541.729621347064</v>
       </c>
       <c r="N147" t="n">
-        <v>2526.924350093272</v>
+        <v>2526.902790307886</v>
       </c>
       <c r="O147" t="n">
-        <v>2526.891558071699</v>
+        <v>2526.890001652666</v>
       </c>
     </row>
     <row r="148">
@@ -48702,31 +48700,31 @@
         <v>283.48</v>
       </c>
       <c r="G148" t="n">
-        <v>-1033.778529475076</v>
+        <v>-1155.834294119464</v>
       </c>
       <c r="H148" t="n">
-        <v>2502.853093050827</v>
+        <v>2502.85</v>
       </c>
       <c r="I148" t="n">
-        <v>9681.188529475075</v>
+        <v>9803.244294119464</v>
       </c>
       <c r="J148" t="n">
-        <v>8307.677909921784</v>
+        <v>8527.619150007735</v>
       </c>
       <c r="K148" t="n">
-        <v>2502.85310697723</v>
+        <v>2502.850000529985</v>
       </c>
       <c r="L148" t="n">
-        <v>3862.067926312111</v>
+        <v>3768.19027258697</v>
       </c>
       <c r="M148" t="n">
-        <v>2517.139536279898</v>
+        <v>2513.170828337551</v>
       </c>
       <c r="N148" t="n">
-        <v>2502.873549573604</v>
+        <v>2502.857680873046</v>
       </c>
       <c r="O148" t="n">
-        <v>2502.853095680667</v>
+        <v>2502.850000846561</v>
       </c>
     </row>
     <row r="149">
@@ -48740,31 +48738,31 @@
         <v>283.38</v>
       </c>
       <c r="G149" t="n">
-        <v>-819.4996901941786</v>
+        <v>-910.9373863254032</v>
       </c>
       <c r="H149" t="n">
-        <v>2483.867616187666</v>
+        <v>2483.87</v>
       </c>
       <c r="I149" t="n">
-        <v>8210.209690194179</v>
+        <v>8301.647386325403</v>
       </c>
       <c r="J149" t="n">
-        <v>7093.484705929751</v>
+        <v>7272.26365885454</v>
       </c>
       <c r="K149" t="n">
-        <v>2483.867624917129</v>
+        <v>2483.870000307347</v>
       </c>
       <c r="L149" t="n">
-        <v>3590.513583991922</v>
+        <v>3506.179385191864</v>
       </c>
       <c r="M149" t="n">
-        <v>2493.943161866101</v>
+        <v>2490.974967123824</v>
       </c>
       <c r="N149" t="n">
-        <v>2483.880254734036</v>
+        <v>2483.874564998869</v>
       </c>
       <c r="O149" t="n">
-        <v>2483.867617586425</v>
+        <v>2483.870000429085</v>
       </c>
     </row>
     <row r="150">
@@ -48778,31 +48776,31 @@
         <v>283.28</v>
       </c>
       <c r="G150" t="n">
-        <v>-523.9369438367876</v>
+        <v>-593.5268088555722</v>
       </c>
       <c r="H150" t="n">
-        <v>2468.439796027392</v>
+        <v>2468.44</v>
       </c>
       <c r="I150" t="n">
-        <v>7086.376943836787</v>
+        <v>7155.966808855572</v>
       </c>
       <c r="J150" t="n">
-        <v>6187.884941108879</v>
+        <v>6334.779280901629</v>
       </c>
       <c r="K150" t="n">
-        <v>2468.439801469081</v>
+        <v>2468.440000177085</v>
       </c>
       <c r="L150" t="n">
-        <v>3359.891333226254</v>
+        <v>3284.811529380867</v>
       </c>
       <c r="M150" t="n">
-        <v>2475.479994540133</v>
+        <v>2473.281369629813</v>
       </c>
       <c r="N150" t="n">
-        <v>2468.447530314171</v>
+        <v>2468.442685126305</v>
       </c>
       <c r="O150" t="n">
-        <v>2468.43979676412</v>
+        <v>2468.440000215197</v>
       </c>
     </row>
     <row r="151">
@@ -48816,31 +48814,31 @@
         <v>283.18</v>
       </c>
       <c r="G151" t="n">
-        <v>-490.7368131648263</v>
+        <v>-544.8930155895032</v>
       </c>
       <c r="H151" t="n">
-        <v>2455.836434983868</v>
+        <v>2455.84</v>
       </c>
       <c r="I151" t="n">
-        <v>6215.246813164827</v>
+        <v>6269.403015589503</v>
       </c>
       <c r="J151" t="n">
-        <v>5499.680143694899</v>
+        <v>5621.638801930344</v>
       </c>
       <c r="K151" t="n">
-        <v>2455.836438357327</v>
+        <v>2455.840000101373</v>
       </c>
       <c r="L151" t="n">
-        <v>3166.530614538385</v>
+        <v>3100.359388872668</v>
       </c>
       <c r="M151" t="n">
-        <v>2460.710246272638</v>
+        <v>2459.105381826194</v>
       </c>
       <c r="N151" t="n">
-        <v>2455.84112303925</v>
+        <v>2455.841563062034</v>
       </c>
       <c r="O151" t="n">
-        <v>2455.836435368119</v>
+        <v>2455.84000010679</v>
       </c>
     </row>
     <row r="152">
@@ -48854,31 +48852,31 @@
         <v>283.08</v>
       </c>
       <c r="G152" t="n">
-        <v>-394.5963702432282</v>
+        <v>-437.9572902217396</v>
       </c>
       <c r="H152" t="n">
-        <v>2445.641858064055</v>
+        <v>2445.64</v>
       </c>
       <c r="I152" t="n">
-        <v>5532.206370243228</v>
+        <v>5575.567290221739</v>
       </c>
       <c r="J152" t="n">
-        <v>4967.985308387204</v>
+        <v>5070.223599723497</v>
       </c>
       <c r="K152" t="n">
-        <v>2445.641860143802</v>
+        <v>2445.640000057655</v>
       </c>
       <c r="L152" t="n">
-        <v>3006.522056596911</v>
+        <v>2948.820029035518</v>
       </c>
       <c r="M152" t="n">
-        <v>2448.984687750246</v>
+        <v>2447.820010345761</v>
       </c>
       <c r="N152" t="n">
-        <v>2445.644672596101</v>
+        <v>2445.640900468892</v>
       </c>
       <c r="O152" t="n">
-        <v>2445.641858262511</v>
+        <v>2445.640000052435</v>
       </c>
     </row>
     <row r="153">
@@ -48892,31 +48890,31 @@
         <v>282.98</v>
       </c>
       <c r="G153" t="n">
-        <v>-413.5612723399345</v>
+        <v>-449.4675895361634</v>
       </c>
       <c r="H153" t="n">
-        <v>2437.383761052904</v>
+        <v>2437.38</v>
       </c>
       <c r="I153" t="n">
-        <v>4991.561272339934</v>
+        <v>5027.467589536163</v>
       </c>
       <c r="J153" t="n">
-        <v>4551.016147865734</v>
+        <v>4637.502653966985</v>
       </c>
       <c r="K153" t="n">
-        <v>2437.383762327984</v>
+        <v>2437.38000003258</v>
       </c>
       <c r="L153" t="n">
-        <v>2875.659463076342</v>
+        <v>2825.917139857163</v>
       </c>
       <c r="M153" t="n">
-        <v>2439.65527153634</v>
+        <v>2438.820588540254</v>
       </c>
       <c r="N153" t="n">
-        <v>2437.385434656343</v>
+        <v>2437.380513376348</v>
       </c>
       <c r="O153" t="n">
-        <v>2437.3837611544</v>
+        <v>2437.380000025475</v>
       </c>
     </row>
     <row r="154">
@@ -48930,31 +48928,31 @@
         <v>282.88</v>
       </c>
       <c r="G154" t="n">
-        <v>-338.0797199216158</v>
+        <v>-368.8988971918061</v>
       </c>
       <c r="H154" t="n">
-        <v>2430.669229492561</v>
+        <v>2430.67</v>
       </c>
       <c r="I154" t="n">
-        <v>4560.249719921616</v>
+        <v>4591.068897191806</v>
       </c>
       <c r="J154" t="n">
-        <v>4219.577075917329</v>
+        <v>4293.357530996386</v>
       </c>
       <c r="K154" t="n">
-        <v>2430.669230269978</v>
+        <v>2430.67000001829</v>
       </c>
       <c r="L154" t="n">
-        <v>2769.814621834065</v>
+        <v>2727.448962442535</v>
       </c>
       <c r="M154" t="n">
-        <v>2432.19842360806</v>
+        <v>2431.61226933045</v>
       </c>
       <c r="N154" t="n">
-        <v>2430.670215145298</v>
+        <v>2430.67028964856</v>
       </c>
       <c r="O154" t="n">
-        <v>2430.669229543961</v>
+        <v>2430.670000012246</v>
       </c>
     </row>
     <row r="155">
@@ -48968,31 +48966,31 @@
         <v>282.78</v>
       </c>
       <c r="G155" t="n">
-        <v>-375.9301583953957</v>
+        <v>-403.2908220589961</v>
       </c>
       <c r="H155" t="n">
-        <v>2425.20071582647</v>
+        <v>2425.2</v>
       </c>
       <c r="I155" t="n">
-        <v>4213.850158395396</v>
+        <v>4241.210822058996</v>
       </c>
       <c r="J155" t="n">
-        <v>3952.910002474005</v>
+        <v>4016.331944177966</v>
       </c>
       <c r="K155" t="n">
-        <v>2425.200716297835</v>
+        <v>2425.200000010202</v>
       </c>
       <c r="L155" t="n">
-        <v>2685.122670947371</v>
+        <v>2649.47634279071</v>
       </c>
       <c r="M155" t="n">
-        <v>2426.220597293244</v>
+        <v>2425.810042175224</v>
       </c>
       <c r="N155" t="n">
-        <v>2425.201290753401</v>
+        <v>2425.200161722006</v>
       </c>
       <c r="O155" t="n">
-        <v>2425.200715852245</v>
+        <v>2425.200000005824</v>
       </c>
     </row>
     <row r="156">
@@ -49006,31 +49004,31 @@
         <v>282.68</v>
       </c>
       <c r="G156" t="n">
-        <v>-362.8971006228321</v>
+        <v>-387.9016244505524</v>
       </c>
       <c r="H156" t="n">
-        <v>2420.827818216243</v>
+        <v>2420.83</v>
       </c>
       <c r="I156" t="n">
-        <v>3934.067100622832</v>
+        <v>3959.071624450552</v>
       </c>
       <c r="J156" t="n">
-        <v>3736.077928891305</v>
+        <v>3790.986767151621</v>
       </c>
       <c r="K156" t="n">
-        <v>2420.827818500459</v>
+        <v>2420.830000005653</v>
       </c>
       <c r="L156" t="n">
-        <v>2618.144521227788</v>
+        <v>2588.529577053378</v>
       </c>
       <c r="M156" t="n">
-        <v>2421.501674680024</v>
+        <v>2421.220921609956</v>
       </c>
       <c r="N156" t="n">
-        <v>2420.828150348675</v>
+        <v>2420.830089355865</v>
       </c>
       <c r="O156" t="n">
-        <v>2420.827818229042</v>
+        <v>2420.830000002741</v>
       </c>
     </row>
     <row r="157">
@@ -49044,31 +49042,31 @@
         <v>282.58</v>
       </c>
       <c r="G157" t="n">
-        <v>-267.8319015256689</v>
+        <v>-291.1776559981326</v>
       </c>
       <c r="H157" t="n">
-        <v>2417.124779181338</v>
+        <v>2417.12</v>
       </c>
       <c r="I157" t="n">
-        <v>3706.621901525669</v>
+        <v>3729.967655998133</v>
       </c>
       <c r="J157" t="n">
-        <v>3557.79905928724</v>
+        <v>3605.639184691291</v>
       </c>
       <c r="K157" t="n">
-        <v>2417.124779351758</v>
+        <v>2417.120000003112</v>
       </c>
       <c r="L157" t="n">
-        <v>2565.507660388772</v>
+        <v>2541.20471327452</v>
       </c>
       <c r="M157" t="n">
-        <v>2417.565848486267</v>
+        <v>2417.367947232263</v>
       </c>
       <c r="N157" t="n">
-        <v>2417.124969207158</v>
+        <v>2417.120048857057</v>
       </c>
       <c r="O157" t="n">
-        <v>2417.12477918763</v>
+        <v>2417.120000001276</v>
       </c>
     </row>
     <row r="158">
@@ -49082,31 +49080,31 @@
         <v>282.48</v>
       </c>
       <c r="G158" t="n">
-        <v>-274.8685215132778</v>
+        <v>-297.0008298119637</v>
       </c>
       <c r="H158" t="n">
-        <v>2413.965597619684</v>
+        <v>2413.97</v>
       </c>
       <c r="I158" t="n">
-        <v>3520.688521513278</v>
+        <v>3542.820829811964</v>
       </c>
       <c r="J158" t="n">
-        <v>3409.86081783494</v>
+        <v>3451.807872445837</v>
       </c>
       <c r="K158" t="n">
-        <v>2413.965597721303</v>
+        <v>2413.970000001702</v>
       </c>
       <c r="L158" t="n">
-        <v>2524.50816869985</v>
+        <v>2504.83037787152</v>
       </c>
       <c r="M158" t="n">
-        <v>2414.251592959035</v>
+        <v>2414.125654954481</v>
       </c>
       <c r="N158" t="n">
-        <v>2413.96570529339</v>
+        <v>2413.970026434803</v>
       </c>
       <c r="O158" t="n">
-        <v>2413.965597622747</v>
+        <v>2413.970000000588</v>
       </c>
     </row>
     <row r="159">
@@ -49120,31 +49118,31 @@
         <v>282.38</v>
       </c>
       <c r="G159" t="n">
-        <v>-78.88188290381686</v>
+        <v>-100.021717500369</v>
       </c>
       <c r="H159" t="n">
-        <v>2411.053277107076</v>
+        <v>2411.05</v>
       </c>
       <c r="I159" t="n">
-        <v>3367.631882903817</v>
+        <v>3388.771717500369</v>
       </c>
       <c r="J159" t="n">
-        <v>3285.861866142692</v>
+        <v>3322.831691143941</v>
       </c>
       <c r="K159" t="n">
-        <v>2411.053277167334</v>
+        <v>2411.050000000925</v>
       </c>
       <c r="L159" t="n">
-        <v>2492.640249416394</v>
+        <v>2476.895544042331</v>
       </c>
       <c r="M159" t="n">
-        <v>2411.236979418962</v>
+        <v>2411.146715200886</v>
       </c>
       <c r="N159" t="n">
-        <v>2411.053337529153</v>
+        <v>2411.050014153499</v>
       </c>
       <c r="O159" t="n">
-        <v>2411.053277108553</v>
+        <v>2411.050000000268</v>
       </c>
     </row>
     <row r="160">
@@ -49158,31 +49156,31 @@
         <v>282.28</v>
       </c>
       <c r="G160" t="n">
-        <v>-266.2472013113143</v>
+        <v>-286.5149308999953</v>
       </c>
       <c r="H160" t="n">
-        <v>2408.592872837577</v>
+        <v>2408.59</v>
       </c>
       <c r="I160" t="n">
-        <v>3241.117201311314</v>
+        <v>3261.384930899995</v>
       </c>
       <c r="J160" t="n">
-        <v>3181.342436861975</v>
+        <v>3214.099667295148</v>
       </c>
       <c r="K160" t="n">
-        <v>2408.59287287311</v>
+        <v>2408.590000000499</v>
       </c>
       <c r="L160" t="n">
-        <v>2468.251243655129</v>
+        <v>2455.817390338734</v>
       </c>
       <c r="M160" t="n">
-        <v>2408.709759426262</v>
+        <v>2408.649476911202</v>
       </c>
       <c r="N160" t="n">
-        <v>2408.59290641629</v>
+        <v>2408.590007498682</v>
       </c>
       <c r="O160" t="n">
-        <v>2408.592872838281</v>
+        <v>2408.590000000121</v>
       </c>
     </row>
     <row r="161">
@@ -49196,31 +49194,31 @@
         <v>282.18</v>
       </c>
       <c r="G161" t="n">
-        <v>-138.2774550341319</v>
+        <v>-157.7103620637654</v>
       </c>
       <c r="H161" t="n">
-        <v>2406.620745261433</v>
+        <v>2406.62</v>
       </c>
       <c r="I161" t="n">
-        <v>3136.027455034132</v>
+        <v>3155.460362063765</v>
       </c>
       <c r="J161" t="n">
-        <v>3092.733598639475</v>
+        <v>3121.898461638125</v>
       </c>
       <c r="K161" t="n">
-        <v>2406.62074528227</v>
+        <v>2406.620000000268</v>
       </c>
       <c r="L161" t="n">
-        <v>2449.841293870757</v>
+        <v>2440.146839173933</v>
       </c>
       <c r="M161" t="n">
-        <v>2406.694416850963</v>
+        <v>2406.656200749741</v>
       </c>
       <c r="N161" t="n">
-        <v>2406.620763741711</v>
+        <v>2406.620003931282</v>
       </c>
       <c r="O161" t="n">
-        <v>2406.620745261766</v>
+        <v>2406.620000000054</v>
       </c>
     </row>
     <row r="162">
@@ -49234,31 +49232,31 @@
         <v>282.08</v>
       </c>
       <c r="G162" t="n">
-        <v>-189.1321948322516</v>
+        <v>-207.7220338635757</v>
       </c>
       <c r="H162" t="n">
-        <v>2404.840778577517</v>
+        <v>2404.84</v>
       </c>
       <c r="I162" t="n">
-        <v>3047.992194832252</v>
+        <v>3066.582033863576</v>
       </c>
       <c r="J162" t="n">
-        <v>3016.923555839322</v>
+        <v>3043.003279220529</v>
       </c>
       <c r="K162" t="n">
-        <v>2404.840778589667</v>
+        <v>2404.840000000143</v>
       </c>
       <c r="L162" t="n">
-        <v>2435.863687299372</v>
+        <v>2428.397748851851</v>
       </c>
       <c r="M162" t="n">
-        <v>2404.886773689782</v>
+        <v>2404.861806990096</v>
       </c>
       <c r="N162" t="n">
-        <v>2404.840788649684</v>
+        <v>2404.840002039419</v>
       </c>
       <c r="O162" t="n">
-        <v>2404.840778577673</v>
+        <v>2404.840000000024</v>
       </c>
     </row>
     <row r="163">
@@ -49272,31 +49270,31 @@
         <v>281.98</v>
       </c>
       <c r="G163" t="n">
-        <v>-216.8843074798074</v>
+        <v>-234.6034344762884</v>
       </c>
       <c r="H163" t="n">
-        <v>2403.46485223846</v>
+        <v>2403.46</v>
       </c>
       <c r="I163" t="n">
-        <v>2973.994307479808</v>
+        <v>2991.713434476289</v>
       </c>
       <c r="J163" t="n">
-        <v>2951.903797481648</v>
+        <v>2975.316780333118</v>
       </c>
       <c r="K163" t="n">
-        <v>2403.464852245506</v>
+        <v>2403.460000000076</v>
       </c>
       <c r="L163" t="n">
-        <v>2425.52710862335</v>
+        <v>2419.844210636694</v>
       </c>
       <c r="M163" t="n">
-        <v>2403.493296242839</v>
+        <v>2403.473000987827</v>
       </c>
       <c r="N163" t="n">
-        <v>2403.464857674735</v>
+        <v>2403.460001046879</v>
       </c>
       <c r="O163" t="n">
-        <v>2403.464852238532</v>
+        <v>2403.46000000001</v>
       </c>
     </row>
     <row r="164">
@@ -49310,31 +49308,31 @@
         <v>281.88</v>
       </c>
       <c r="G164" t="n">
-        <v>-256.4992646653714</v>
+        <v>-273.3287356031142</v>
       </c>
       <c r="H164" t="n">
-        <v>2402.43234288218</v>
+        <v>2402.43</v>
       </c>
       <c r="I164" t="n">
-        <v>2911.409264665371</v>
+        <v>2928.238735603114</v>
       </c>
       <c r="J164" t="n">
-        <v>2895.846941026034</v>
+        <v>2916.952385008846</v>
       </c>
       <c r="K164" t="n">
-        <v>2402.432342886243</v>
+        <v>2402.430000000039</v>
       </c>
       <c r="L164" t="n">
-        <v>2417.977378569331</v>
+        <v>2413.709063474002</v>
       </c>
       <c r="M164" t="n">
-        <v>2402.449766104767</v>
+        <v>2402.437671016106</v>
       </c>
       <c r="N164" t="n">
-        <v>2402.432345787795</v>
+        <v>2402.43000053174</v>
       </c>
       <c r="O164" t="n">
-        <v>2402.432342882213</v>
+        <v>2402.430000000004</v>
       </c>
     </row>
     <row r="165">
@@ -49348,31 +49346,31 @@
         <v>281.78</v>
       </c>
       <c r="G165" t="n">
-        <v>-264.7702651619693</v>
+        <v>-280.6958555923134</v>
       </c>
       <c r="H165" t="n">
-        <v>2401.675777452569</v>
+        <v>2401.68</v>
       </c>
       <c r="I165" t="n">
-        <v>2858.130265161969</v>
+        <v>2874.055855592313</v>
       </c>
       <c r="J165" t="n">
-        <v>2847.267908202224</v>
+        <v>2866.366012508006</v>
       </c>
       <c r="K165" t="n">
-        <v>2401.6757774549</v>
+        <v>2401.680000000021</v>
       </c>
       <c r="L165" t="n">
-        <v>2412.527658445648</v>
+        <v>2409.365625338457</v>
       </c>
       <c r="M165" t="n">
-        <v>2401.686348460367</v>
+        <v>2401.684479389573</v>
       </c>
       <c r="N165" t="n">
-        <v>2401.675778990468</v>
+        <v>2401.680000267246</v>
       </c>
       <c r="O165" t="n">
-        <v>2401.675777452584</v>
+        <v>2401.680000000002</v>
       </c>
     </row>
     <row r="166">
@@ -49386,31 +49384,31 @@
         <v>281.68</v>
       </c>
       <c r="G166" t="n">
-        <v>-168.1625887761338</v>
+        <v>-183.1714898345022</v>
       </c>
       <c r="H166" t="n">
-        <v>2400.935511423433</v>
+        <v>2400.94</v>
       </c>
       <c r="I166" t="n">
-        <v>2812.272588776134</v>
+        <v>2827.281489834502</v>
       </c>
       <c r="J166" t="n">
-        <v>2804.760704694921</v>
+        <v>2822.095317079816</v>
       </c>
       <c r="K166" t="n">
-        <v>2400.935511424761</v>
+        <v>2400.940000000011</v>
       </c>
       <c r="L166" t="n">
-        <v>2408.441109047135</v>
+        <v>2406.123760634303</v>
       </c>
       <c r="M166" t="n">
-        <v>2400.941863944669</v>
+        <v>2400.942588616444</v>
       </c>
       <c r="N166" t="n">
-        <v>2400.935512229487</v>
+        <v>2400.9400001329</v>
       </c>
       <c r="O166" t="n">
-        <v>2400.935511423439</v>
+        <v>2400.940000000001</v>
       </c>
     </row>
     <row r="167">
@@ -49424,31 +49422,31 @@
         <v>281.58</v>
       </c>
       <c r="G167" t="n">
-        <v>-176.505108275247</v>
+        <v>-190.6009307077147</v>
       </c>
       <c r="H167" t="n">
-        <v>2400.188237226732</v>
+        <v>2400.19</v>
       </c>
       <c r="I167" t="n">
-        <v>2772.515108275247</v>
+        <v>2786.610930707715</v>
       </c>
       <c r="J167" t="n">
-        <v>2767.368252969554</v>
+        <v>2783.148823717991</v>
       </c>
       <c r="K167" t="n">
-        <v>2400.188237227485</v>
+        <v>2400.190000000006</v>
       </c>
       <c r="L167" t="n">
-        <v>2405.331356953557</v>
+        <v>2403.65074438281</v>
       </c>
       <c r="M167" t="n">
-        <v>2400.192018251792</v>
+        <v>2400.191480447862</v>
       </c>
       <c r="N167" t="n">
-        <v>2400.188237645086</v>
+        <v>2400.190000065394</v>
       </c>
       <c r="O167" t="n">
-        <v>2400.188237226735</v>
+        <v>2400.190000000001</v>
       </c>
     </row>
     <row r="168">
@@ -49462,31 +49460,31 @@
         <v>281.48</v>
       </c>
       <c r="G168" t="n">
-        <v>-116.5818580532132</v>
+        <v>-129.7873034159388</v>
       </c>
       <c r="H168" t="n">
-        <v>2399.477289944425</v>
+        <v>2399.48</v>
       </c>
       <c r="I168" t="n">
-        <v>2737.861858053213</v>
+        <v>2751.067303415939</v>
       </c>
       <c r="J168" t="n">
-        <v>2734.368078270331</v>
+        <v>2748.779623655129</v>
       </c>
       <c r="K168" t="n">
-        <v>2399.477289944849</v>
+        <v>2399.480000000003</v>
       </c>
       <c r="L168" t="n">
-        <v>2402.968871732268</v>
+        <v>2401.766919742523</v>
       </c>
       <c r="M168" t="n">
-        <v>2399.479518886467</v>
+        <v>2399.480837893408</v>
       </c>
       <c r="N168" t="n">
-        <v>2399.477290159436</v>
+        <v>2399.480000031838</v>
       </c>
       <c r="O168" t="n">
-        <v>2399.477289944426</v>
+        <v>2399.48</v>
       </c>
     </row>
     <row r="169">
@@ -49500,31 +49498,31 @@
         <v>281.38</v>
       </c>
       <c r="G169" t="n">
-        <v>-191.6354182701866</v>
+        <v>-203.9760931705855</v>
       </c>
       <c r="H169" t="n">
-        <v>2398.900353752556</v>
+        <v>2398.9</v>
       </c>
       <c r="I169" t="n">
-        <v>2707.575418270187</v>
+        <v>2719.916093170586</v>
       </c>
       <c r="J169" t="n">
-        <v>2705.225779292327</v>
+        <v>2718.419831775867</v>
       </c>
       <c r="K169" t="n">
-        <v>2398.900353752794</v>
+        <v>2398.900000000001</v>
       </c>
       <c r="L169" t="n">
-        <v>2401.248712208749</v>
+        <v>2400.395843035235</v>
       </c>
       <c r="M169" t="n">
-        <v>2398.901655138466</v>
+        <v>2398.900469297769</v>
       </c>
       <c r="N169" t="n">
-        <v>2398.900353861979</v>
+        <v>2398.900000015337</v>
       </c>
       <c r="O169" t="n">
-        <v>2398.900353752556</v>
+        <v>2398.9</v>
       </c>
     </row>
     <row r="170">
@@ -49538,31 +49536,31 @@
         <v>281.28</v>
       </c>
       <c r="G170" t="n">
-        <v>-263.2224843214485</v>
+        <v>-274.7417384733872</v>
       </c>
       <c r="H170" t="n">
-        <v>2398.667919674516</v>
+        <v>2398.67</v>
       </c>
       <c r="I170" t="n">
-        <v>2681.192484321448</v>
+        <v>2692.711738473387</v>
       </c>
       <c r="J170" t="n">
-        <v>2679.626995847701</v>
+        <v>2691.743075551217</v>
       </c>
       <c r="K170" t="n">
-        <v>2398.667919674649</v>
+        <v>2398.670000000001</v>
       </c>
       <c r="L170" t="n">
-        <v>2400.232669546362</v>
+        <v>2399.638435785312</v>
       </c>
       <c r="M170" t="n">
-        <v>2398.668672204952</v>
+        <v>2398.67026011548</v>
       </c>
       <c r="N170" t="n">
-        <v>2398.667919729658</v>
+        <v>2398.67000000731</v>
       </c>
       <c r="O170" t="n">
-        <v>2398.667919674516</v>
+        <v>2398.67</v>
       </c>
     </row>
     <row r="171">
@@ -49576,31 +49574,31 @@
         <v>281.18</v>
       </c>
       <c r="G171" t="n">
-        <v>-213.1329953840896</v>
+        <v>-223.8737379356758</v>
       </c>
       <c r="H171" t="n">
-        <v>2398.556217215107</v>
+        <v>2398.56</v>
       </c>
       <c r="I171" t="n">
-        <v>2657.942995384089</v>
+        <v>2668.683737935676</v>
       </c>
       <c r="J171" t="n">
-        <v>2656.909680941927</v>
+        <v>2668.063032294211</v>
       </c>
       <c r="K171" t="n">
-        <v>2398.556217215181</v>
+        <v>2398.56</v>
       </c>
       <c r="L171" t="n">
-        <v>2399.589109896892</v>
+        <v>2399.180584103376</v>
       </c>
       <c r="M171" t="n">
-        <v>2398.556648183529</v>
+        <v>2398.560142671085</v>
       </c>
       <c r="N171" t="n">
-        <v>2398.556217242623</v>
+        <v>2398.560000003447</v>
       </c>
       <c r="O171" t="n">
-        <v>2398.556217215107</v>
+        <v>2398.56</v>
       </c>
     </row>
     <row r="172">
@@ -49614,28 +49612,28 @@
         <v>281.08</v>
       </c>
       <c r="G172" t="n">
-        <v>-238.8163312364177</v>
+        <v>-248.8202380258144</v>
       </c>
       <c r="H172" t="n">
         <v>2366.25</v>
       </c>
       <c r="I172" t="n">
-        <v>2605.066331236418</v>
+        <v>2615.070238025814</v>
       </c>
       <c r="J172" t="n">
-        <v>2604.390653547638</v>
+        <v>2614.676560267616</v>
       </c>
       <c r="K172" t="n">
-        <v>2366.25000000004</v>
+        <v>2366.25</v>
       </c>
       <c r="L172" t="n">
-        <v>2366.925439282481</v>
+        <v>2366.643613724337</v>
       </c>
       <c r="M172" t="n">
-        <v>2366.25024443491</v>
+        <v>2366.250077437617</v>
       </c>
       <c r="N172" t="n">
-        <v>2366.250000013596</v>
+        <v>2366.250000001608</v>
       </c>
       <c r="O172" t="n">
         <v>2366.25</v>
@@ -49652,28 +49650,28 @@
         <v>280.98</v>
       </c>
       <c r="G173" t="n">
-        <v>-220.4478930472146</v>
+        <v>-229.7674810014073</v>
       </c>
       <c r="H173" t="n">
         <v>2369.28</v>
       </c>
       <c r="I173" t="n">
-        <v>2589.727893047215</v>
+        <v>2599.047481001408</v>
       </c>
       <c r="J173" t="n">
-        <v>2589.29020813111</v>
+        <v>2598.800347157465</v>
       </c>
       <c r="K173" t="n">
-        <v>2369.280000000022</v>
+        <v>2369.28</v>
       </c>
       <c r="L173" t="n">
-        <v>2369.717551525157</v>
+        <v>2369.527100666483</v>
       </c>
       <c r="M173" t="n">
-        <v>2369.280137300028</v>
+        <v>2369.280041591884</v>
       </c>
       <c r="N173" t="n">
-        <v>2369.280000006652</v>
+        <v>2369.280000000743</v>
       </c>
       <c r="O173" t="n">
         <v>2369.28</v>
@@ -49690,28 +49688,28 @@
         <v>280.88</v>
       </c>
       <c r="G174" t="n">
-        <v>-203.9798150124307</v>
+        <v>-212.6638235504638</v>
       </c>
       <c r="H174" t="n">
         <v>2432.52</v>
       </c>
       <c r="I174" t="n">
-        <v>2636.499815012431</v>
+        <v>2645.183823550464</v>
       </c>
       <c r="J174" t="n">
-        <v>2636.218955618786</v>
+        <v>2645.030272269571</v>
       </c>
       <c r="K174" t="n">
-        <v>2432.520000000012</v>
+        <v>2432.52</v>
       </c>
       <c r="L174" t="n">
-        <v>2432.800785527372</v>
+        <v>2432.673534403564</v>
       </c>
       <c r="M174" t="n">
-        <v>2432.520076376732</v>
+        <v>2432.520022105497</v>
       </c>
       <c r="N174" t="n">
-        <v>2432.520000003222</v>
+        <v>2432.520000000339</v>
       </c>
       <c r="O174" t="n">
         <v>2432.52</v>
@@ -49728,28 +49726,28 @@
         <v>280.78</v>
       </c>
       <c r="G175" t="n">
-        <v>-189.1613188266979</v>
+        <v>-197.2573049764337</v>
       </c>
       <c r="H175" t="n">
         <v>2377.43</v>
       </c>
       <c r="I175" t="n">
-        <v>2566.591318826698</v>
+        <v>2574.687304976434</v>
       </c>
       <c r="J175" t="n">
-        <v>2566.412788418271</v>
+        <v>2574.59287757059</v>
       </c>
       <c r="K175" t="n">
-        <v>2377.430000000006</v>
+        <v>2377.43</v>
       </c>
       <c r="L175" t="n">
-        <v>2377.608489929869</v>
+        <v>2377.524418995189</v>
       </c>
       <c r="M175" t="n">
-        <v>2377.430042075395</v>
+        <v>2377.430011625768</v>
       </c>
       <c r="N175" t="n">
-        <v>2377.430000001546</v>
+        <v>2377.430000000153</v>
       </c>
       <c r="O175" t="n">
         <v>2377.43</v>
@@ -49766,28 +49764,28 @@
         <v>280.68</v>
       </c>
       <c r="G176" t="n">
-        <v>-175.7824642148553</v>
+        <v>-183.3359611733667</v>
       </c>
       <c r="H176" t="n">
         <v>2279.38</v>
       </c>
       <c r="I176" t="n">
-        <v>2455.162464214855</v>
+        <v>2462.715961173367</v>
       </c>
       <c r="J176" t="n">
-        <v>2455.050049824515</v>
+        <v>2462.658488755847</v>
       </c>
       <c r="K176" t="n">
-        <v>2279.380000000004</v>
+        <v>2279.38</v>
       </c>
       <c r="L176" t="n">
-        <v>2279.492392441952</v>
+        <v>2279.437468324206</v>
       </c>
       <c r="M176" t="n">
-        <v>2279.380022954397</v>
+        <v>2279.380006050169</v>
       </c>
       <c r="N176" t="n">
-        <v>2279.380000000734</v>
+        <v>2279.380000000069</v>
       </c>
       <c r="O176" t="n">
         <v>2279.38</v>
@@ -49804,28 +49802,28 @@
         <v>280.58</v>
       </c>
       <c r="G177" t="n">
-        <v>-163.6662855733807</v>
+        <v>-170.720256062014</v>
       </c>
       <c r="H177" t="n">
         <v>2386.03</v>
       </c>
       <c r="I177" t="n">
-        <v>2549.696285573381</v>
+        <v>2556.750256062014</v>
       </c>
       <c r="J177" t="n">
-        <v>2549.626170915265</v>
+        <v>2556.715635748955</v>
       </c>
       <c r="K177" t="n">
-        <v>2386.030000000002</v>
+        <v>2386.03</v>
       </c>
       <c r="L177" t="n">
-        <v>2386.100102884525</v>
+        <v>2386.064618376297</v>
       </c>
       <c r="M177" t="n">
-        <v>2386.030012401328</v>
+        <v>2386.030003115536</v>
       </c>
       <c r="N177" t="n">
-        <v>2386.030000000345</v>
+        <v>2386.030000000031</v>
       </c>
       <c r="O177" t="n">
         <v>2386.03</v>
@@ -49842,28 +49840,28 @@
         <v>280.48</v>
       </c>
       <c r="G178" t="n">
-        <v>-152.6626154666674</v>
+        <v>-159.2571426767277</v>
       </c>
       <c r="H178" t="n">
         <v>2340.35</v>
       </c>
       <c r="I178" t="n">
-        <v>2493.012615466667</v>
+        <v>2499.607142676728</v>
       </c>
       <c r="J178" t="n">
-        <v>2492.969297921669</v>
+        <v>2499.586502855261</v>
       </c>
       <c r="K178" t="n">
-        <v>2340.350000000001</v>
+        <v>2340.35</v>
       </c>
       <c r="L178" t="n">
-        <v>2340.393311298135</v>
+        <v>2340.370638936728</v>
       </c>
       <c r="M178" t="n">
-        <v>2340.350006634823</v>
+        <v>2340.350001587495</v>
       </c>
       <c r="N178" t="n">
-        <v>2340.350000000161</v>
+        <v>2340.350000000013</v>
       </c>
       <c r="O178" t="n">
         <v>2340.35</v>
@@ -49880,28 +49878,28 @@
         <v>280.38</v>
       </c>
       <c r="G179" t="n">
-        <v>-142.6432169505506</v>
+        <v>-148.815377640627</v>
       </c>
       <c r="H179" t="n">
         <v>2259.21</v>
       </c>
       <c r="I179" t="n">
-        <v>2401.853216950551</v>
+        <v>2408.025377640627</v>
       </c>
       <c r="J179" t="n">
-        <v>2401.826708884221</v>
+        <v>2408.013199594371</v>
       </c>
       <c r="K179" t="n">
         <v>2259.21</v>
       </c>
       <c r="L179" t="n">
-        <v>2259.236504788661</v>
+        <v>2259.222177660511</v>
       </c>
       <c r="M179" t="n">
-        <v>2259.21000351515</v>
+        <v>2259.21000080039</v>
       </c>
       <c r="N179" t="n">
-        <v>2259.210000000074</v>
+        <v>2259.210000000006</v>
       </c>
       <c r="O179" t="n">
         <v>2259.21</v>
@@ -49918,28 +49916,28 @@
         <v>280.28</v>
       </c>
       <c r="G180" t="n">
-        <v>-133.4979300947434</v>
+        <v>-139.2818004521132</v>
       </c>
       <c r="H180" t="n">
         <v>2243.13</v>
       </c>
       <c r="I180" t="n">
-        <v>2376.627930094744</v>
+        <v>2382.411800452113</v>
       </c>
       <c r="J180" t="n">
-        <v>2376.611862799769</v>
+        <v>2382.404689309281</v>
       </c>
       <c r="K180" t="n">
-        <v>2243.130000000001</v>
+        <v>2243.13</v>
       </c>
       <c r="L180" t="n">
-        <v>2243.146065594761</v>
+        <v>2243.137110985659</v>
       </c>
       <c r="M180" t="n">
-        <v>2243.130001844193</v>
+        <v>2243.130000399297</v>
       </c>
       <c r="N180" t="n">
-        <v>2243.130000000034</v>
+        <v>2243.130000000002</v>
       </c>
       <c r="O180" t="n">
         <v>2243.13</v>
@@ -49956,28 +49954,28 @@
         <v>280.18</v>
       </c>
       <c r="G181" t="n">
-        <v>-125.1316043725437</v>
+        <v>-130.5583572554192</v>
       </c>
       <c r="H181" t="n">
         <v>2285.26</v>
       </c>
       <c r="I181" t="n">
-        <v>2410.391604372544</v>
+        <v>2415.818357255419</v>
       </c>
       <c r="J181" t="n">
-        <v>2410.381958322331</v>
+        <v>2415.814247795807</v>
       </c>
       <c r="K181" t="n">
         <v>2285.26</v>
       </c>
       <c r="L181" t="n">
-        <v>2285.269645178567</v>
+        <v>2285.264109402432</v>
       </c>
       <c r="M181" t="n">
-        <v>2285.260000958102</v>
+        <v>2285.260000197102</v>
       </c>
       <c r="N181" t="n">
-        <v>2285.260000000016</v>
+        <v>2285.260000000001</v>
       </c>
       <c r="O181" t="n">
         <v>2285.26</v>
@@ -49994,28 +49992,28 @@
         <v>280.08</v>
       </c>
       <c r="G182" t="n">
-        <v>-117.461640817251</v>
+        <v>-122.5597013940196</v>
       </c>
       <c r="H182" t="n">
         <v>2296.45</v>
       </c>
       <c r="I182" t="n">
-        <v>2413.911640817251</v>
+        <v>2419.009701394019</v>
       </c>
       <c r="J182" t="n">
-        <v>2413.905905069247</v>
+        <v>2419.00735118176</v>
       </c>
       <c r="K182" t="n">
         <v>2296.45</v>
       </c>
       <c r="L182" t="n">
-        <v>2296.455735306526</v>
+        <v>2296.452350196012</v>
       </c>
       <c r="M182" t="n">
-        <v>2296.450000492895</v>
+        <v>2296.450000096268</v>
       </c>
       <c r="N182" t="n">
-        <v>2296.450000000007</v>
+        <v>2296.45</v>
       </c>
       <c r="O182" t="n">
         <v>2296.45</v>
@@ -50032,28 +50030,28 @@
         <v>279.98</v>
       </c>
       <c r="G183" t="n">
-        <v>-110.4160086312722</v>
+        <v>-115.2112432815202</v>
       </c>
       <c r="H183" t="n">
         <v>2288.43</v>
       </c>
       <c r="I183" t="n">
-        <v>2398.846008631272</v>
+        <v>2403.64124328152</v>
       </c>
       <c r="J183" t="n">
-        <v>2398.842630656548</v>
+        <v>2403.639913132973</v>
       </c>
       <c r="K183" t="n">
         <v>2288.43</v>
       </c>
       <c r="L183" t="n">
-        <v>2288.433377753919</v>
+        <v>2288.431330147313</v>
       </c>
       <c r="M183" t="n">
-        <v>2288.43000025109</v>
+        <v>2288.430000046522</v>
       </c>
       <c r="N183" t="n">
-        <v>2288.430000000003</v>
+        <v>2288.43</v>
       </c>
       <c r="O183" t="n">
         <v>2288.43</v>
@@ -50070,28 +50068,28 @@
         <v>279.88</v>
       </c>
       <c r="G184" t="n">
-        <v>-103.931632520053</v>
+        <v>-108.4475526663264</v>
       </c>
       <c r="H184" t="n">
         <v>2208.05</v>
       </c>
       <c r="I184" t="n">
-        <v>2311.981632520053</v>
+        <v>2316.497552666327</v>
       </c>
       <c r="J184" t="n">
-        <v>2311.97966218197</v>
+        <v>2316.496807663984</v>
       </c>
       <c r="K184" t="n">
         <v>2208.05</v>
       </c>
       <c r="L184" t="n">
-        <v>2208.051970229092</v>
+        <v>2208.050745005463</v>
       </c>
       <c r="M184" t="n">
-        <v>2208.050000126659</v>
+        <v>2208.050000022245</v>
       </c>
       <c r="N184" t="n">
-        <v>2208.050000000002</v>
+        <v>2208.05</v>
       </c>
       <c r="O184" t="n">
         <v>2208.05</v>
@@ -50108,25 +50106,25 @@
         <v>279.78</v>
       </c>
       <c r="G185" t="n">
-        <v>-97.95307130358287</v>
+        <v>-102.2110394197061</v>
       </c>
       <c r="H185" t="n">
         <v>2198.41</v>
       </c>
       <c r="I185" t="n">
-        <v>2296.363071303583</v>
+        <v>2300.621039419706</v>
       </c>
       <c r="J185" t="n">
-        <v>2296.361933058969</v>
+        <v>2300.620626492547</v>
       </c>
       <c r="K185" t="n">
         <v>2198.41</v>
       </c>
       <c r="L185" t="n">
-        <v>2198.411138191556</v>
+        <v>2198.410412930694</v>
       </c>
       <c r="M185" t="n">
-        <v>2198.410000063265</v>
+        <v>2198.410000010524</v>
       </c>
       <c r="N185" t="n">
         <v>2198.41</v>
@@ -50146,25 +50144,25 @@
         <v>279.68</v>
       </c>
       <c r="G186" t="n">
-        <v>-92.4314269055717</v>
+        <v>-96.45085631107986</v>
       </c>
       <c r="H186" t="n">
         <v>2299.49</v>
       </c>
       <c r="I186" t="n">
-        <v>2391.921426905571</v>
+        <v>2395.94085631108</v>
       </c>
       <c r="J186" t="n">
-        <v>2391.920775676674</v>
+        <v>2395.940629824961</v>
       </c>
       <c r="K186" t="n">
         <v>2299.49</v>
       </c>
       <c r="L186" t="n">
-        <v>2299.490651203448</v>
+        <v>2299.490226488904</v>
       </c>
       <c r="M186" t="n">
-        <v>2299.49000003129</v>
+        <v>2299.490000004926</v>
       </c>
       <c r="N186" t="n">
         <v>2299.49</v>
@@ -50184,25 +50182,25 @@
         <v>279.58</v>
       </c>
       <c r="G187" t="n">
-        <v>-87.32343692053792</v>
+        <v>-91.12198024594409</v>
       </c>
       <c r="H187" t="n">
         <v>2206.36</v>
       </c>
       <c r="I187" t="n">
-        <v>2293.683436920538</v>
+        <v>2297.481980245944</v>
       </c>
       <c r="J187" t="n">
-        <v>2293.683067919255</v>
+        <v>2297.481857316413</v>
       </c>
       <c r="K187" t="n">
         <v>2206.36</v>
       </c>
       <c r="L187" t="n">
-        <v>2206.360368989269</v>
+        <v>2206.360122931434</v>
       </c>
       <c r="M187" t="n">
-        <v>2206.360000015324</v>
+        <v>2206.360000002282</v>
       </c>
       <c r="N187" t="n">
         <v>2206.36</v>
@@ -50222,25 +50220,25 @@
         <v>279.48</v>
       </c>
       <c r="G188" t="n">
-        <v>-82.59071464361932</v>
+        <v>-86.18443821226583</v>
       </c>
       <c r="H188" t="n">
         <v>2167.67</v>
       </c>
       <c r="I188" t="n">
-        <v>2250.260714643619</v>
+        <v>2253.854438212266</v>
       </c>
       <c r="J188" t="n">
-        <v>2250.260507576368</v>
+        <v>2253.854372186773</v>
       </c>
       <c r="K188" t="n">
         <v>2167.67</v>
       </c>
       <c r="L188" t="n">
-        <v>2167.670207061678</v>
+        <v>2167.670066026695</v>
       </c>
       <c r="M188" t="n">
-        <v>2167.670000007431</v>
+        <v>2167.670000001046</v>
       </c>
       <c r="N188" t="n">
         <v>2167.67</v>
@@ -50260,25 +50258,25 @@
         <v>279.38</v>
       </c>
       <c r="G189" t="n">
-        <v>-78.19910853311603</v>
+        <v>-81.60265153717273</v>
       </c>
       <c r="H189" t="n">
         <v>2162.67</v>
       </c>
       <c r="I189" t="n">
-        <v>2240.869108533116</v>
+        <v>2244.272651537173</v>
       </c>
       <c r="J189" t="n">
-        <v>2240.868993458988</v>
+        <v>2244.272616445642</v>
       </c>
       <c r="K189" t="n">
         <v>2162.67</v>
       </c>
       <c r="L189" t="n">
-        <v>2162.670115071593</v>
+        <v>2162.670035092252</v>
       </c>
       <c r="M189" t="n">
-        <v>2162.670000003568</v>
+        <v>2162.670000000474</v>
       </c>
       <c r="N189" t="n">
         <v>2162.67</v>
@@ -50298,25 +50296,25 @@
         <v>279.28</v>
       </c>
       <c r="G190" t="n">
-        <v>-74.11815919788341</v>
+        <v>-77.34487762053732</v>
       </c>
       <c r="H190" t="n">
         <v>2110.1</v>
       </c>
       <c r="I190" t="n">
-        <v>2184.218159197883</v>
+        <v>2187.444877620537</v>
       </c>
       <c r="J190" t="n">
-        <v>2184.218095866303</v>
+        <v>2187.444859165164</v>
       </c>
       <c r="K190" t="n">
         <v>2110.1</v>
       </c>
       <c r="L190" t="n">
-        <v>2110.100063330452</v>
+        <v>2110.100018455789</v>
       </c>
       <c r="M190" t="n">
-        <v>2110.100000001696</v>
+        <v>2110.100000000213</v>
       </c>
       <c r="N190" t="n">
         <v>2110.1</v>
@@ -50336,25 +50334,25 @@
         <v>279.18</v>
       </c>
       <c r="G191" t="n">
-        <v>-70.32063664858197</v>
+        <v>-73.38273254955993</v>
       </c>
       <c r="H191" t="n">
         <v>2095.28</v>
       </c>
       <c r="I191" t="n">
-        <v>2165.600636648582</v>
+        <v>2168.66273254956</v>
       </c>
       <c r="J191" t="n">
-        <v>2165.600602131574</v>
+        <v>2168.662722945211</v>
       </c>
       <c r="K191" t="n">
         <v>2095.28</v>
       </c>
       <c r="L191" t="n">
-        <v>2095.28003451652</v>
+        <v>2095.280009604582</v>
       </c>
       <c r="M191" t="n">
-        <v>2095.280000000799</v>
+        <v>2095.280000000094</v>
       </c>
       <c r="N191" t="n">
         <v>2095.28</v>
@@ -50374,25 +50372,25 @@
         <v>279.08</v>
       </c>
       <c r="G192" t="n">
-        <v>-66.78214409537168</v>
+        <v>-69.69078125235546</v>
       </c>
       <c r="H192" t="n">
         <v>2118.41</v>
       </c>
       <c r="I192" t="n">
-        <v>2185.192144095372</v>
+        <v>2188.100781252355</v>
       </c>
       <c r="J192" t="n">
-        <v>2185.192125465484</v>
+        <v>2188.100776306601</v>
       </c>
       <c r="K192" t="n">
         <v>2118.41</v>
       </c>
       <c r="L192" t="n">
-        <v>2118.410018629681</v>
+        <v>2118.410004945881</v>
       </c>
       <c r="M192" t="n">
-        <v>2118.410000000372</v>
+        <v>2118.410000000041</v>
       </c>
       <c r="N192" t="n">
         <v>2118.41</v>
